--- a/name/vnindex/20230131/VNINDEX_HOSE_5p_20230131.xlsx
+++ b/name/vnindex/20230131/VNINDEX_HOSE_5p_20230131.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1675156500000</v>
+        <v>1675156440000</v>
       </c>
       <c r="B2">
-        <v>10191800</v>
+        <v>5323200</v>
       </c>
       <c r="C2">
-        <v>7674900</v>
+        <v>2638700</v>
       </c>
       <c r="D2">
-        <v>3975800</v>
+        <v>3873100</v>
       </c>
       <c r="E2">
-        <v>153880358000</v>
+        <v>71176581000</v>
       </c>
       <c r="F2">
-        <v>134258122000</v>
+        <v>46397019000</v>
       </c>
       <c r="G2">
-        <v>61127734000</v>
+        <v>59512815000</v>
       </c>
       <c r="H2">
-        <v>21842500</v>
+        <v>11835000</v>
       </c>
       <c r="I2">
-        <v>349266214000</v>
+        <v>177086415000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-01-31T09:15:00.000Z</v>
+        <v>2023-01-31T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>349266214000</v>
+        <v>177086415000</v>
       </c>
       <c r="L2">
-        <v>21842500</v>
+        <v>11835000</v>
       </c>
       <c r="M2">
-        <v>-2516900</v>
+        <v>-2684500</v>
       </c>
       <c r="N2">
-        <v>-19622236000</v>
+        <v>-24779562000</v>
       </c>
       <c r="O2">
-        <v>-2516900</v>
+        <v>-2684500</v>
       </c>
       <c r="P2">
-        <v>-19622236000</v>
+        <v>-24779562000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1675156800000</v>
+        <v>1675156560000</v>
       </c>
       <c r="B3">
-        <v>6592100</v>
+        <v>2428500</v>
       </c>
       <c r="C3">
-        <v>5636100</v>
+        <v>2684900</v>
       </c>
       <c r="D3">
-        <v>75600</v>
+        <v>34500</v>
       </c>
       <c r="E3">
-        <v>111419101000</v>
+        <v>42642377000</v>
       </c>
       <c r="F3">
-        <v>106408151000</v>
+        <v>46545269000</v>
       </c>
       <c r="G3">
-        <v>933135000</v>
+        <v>437467000</v>
       </c>
       <c r="H3">
-        <v>12303800</v>
+        <v>5147900</v>
       </c>
       <c r="I3">
-        <v>218760387000</v>
+        <v>89625113000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-31T09:20:00.000Z</v>
+        <v>2023-01-31T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>568026601000</v>
+        <v>266711528000</v>
       </c>
       <c r="L3">
-        <v>34146300</v>
+        <v>16982900</v>
       </c>
       <c r="M3">
-        <v>-956000</v>
+        <v>256400</v>
       </c>
       <c r="N3">
-        <v>-5010950000</v>
+        <v>3902892000</v>
       </c>
       <c r="O3">
-        <v>-3472900</v>
+        <v>-2428100</v>
       </c>
       <c r="P3">
-        <v>-24633186000</v>
+        <v>-20876670000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1675157100000</v>
+        <v>1675156680000</v>
       </c>
       <c r="B4">
-        <v>11186300</v>
+        <v>2440100</v>
       </c>
       <c r="C4">
-        <v>4596500</v>
+        <v>2351300</v>
       </c>
       <c r="D4">
-        <v>146200</v>
+        <v>68200</v>
       </c>
       <c r="E4">
-        <v>196626338000</v>
+        <v>40061400000</v>
       </c>
       <c r="F4">
-        <v>77142358000</v>
+        <v>41315834000</v>
       </c>
       <c r="G4">
-        <v>2497419000</v>
+        <v>1177452000</v>
       </c>
       <c r="H4">
-        <v>15929000</v>
+        <v>4859600</v>
       </c>
       <c r="I4">
-        <v>276266115000</v>
+        <v>82554686000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-31T09:25:00.000Z</v>
+        <v>2023-01-31T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>844292716000</v>
+        <v>349266214000</v>
       </c>
       <c r="L4">
-        <v>50075300</v>
+        <v>21842500</v>
       </c>
       <c r="M4">
-        <v>-6589800</v>
+        <v>-88800</v>
       </c>
       <c r="N4">
-        <v>-119483980000</v>
+        <v>1254434000</v>
       </c>
       <c r="O4">
-        <v>-10062700</v>
+        <v>-2516900</v>
       </c>
       <c r="P4">
-        <v>-144117166000</v>
+        <v>-19622236000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1675157400000</v>
+        <v>1675156800000</v>
       </c>
       <c r="B5">
-        <v>9716500</v>
+        <v>2240200</v>
       </c>
       <c r="C5">
-        <v>6985200</v>
+        <v>2766000</v>
       </c>
       <c r="D5">
-        <v>34800</v>
+        <v>37500</v>
       </c>
       <c r="E5">
-        <v>165470200000</v>
+        <v>35252402000</v>
       </c>
       <c r="F5">
-        <v>122427939000</v>
+        <v>51502404000</v>
       </c>
       <c r="G5">
-        <v>612009000</v>
+        <v>411151000</v>
       </c>
       <c r="H5">
-        <v>16736500</v>
+        <v>5043700</v>
       </c>
       <c r="I5">
-        <v>288510148000</v>
+        <v>87165957000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-31T09:30:00.000Z</v>
+        <v>2023-01-31T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1132802864000</v>
+        <v>436432171000</v>
       </c>
       <c r="L5">
-        <v>66811800</v>
+        <v>26886200</v>
       </c>
       <c r="M5">
-        <v>-2731300</v>
+        <v>525800</v>
       </c>
       <c r="N5">
-        <v>-43042261000</v>
+        <v>16250002000</v>
       </c>
       <c r="O5">
-        <v>-12794000</v>
+        <v>-1991100</v>
       </c>
       <c r="P5">
-        <v>-187159427000</v>
+        <v>-3372234000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1675157700000</v>
+        <v>1675156920000</v>
       </c>
       <c r="B6">
-        <v>4078900</v>
+        <v>3195900</v>
       </c>
       <c r="C6">
-        <v>11622600</v>
+        <v>1937100</v>
       </c>
       <c r="D6">
-        <v>28300</v>
+        <v>33300</v>
       </c>
       <c r="E6">
-        <v>75420739000</v>
+        <v>54577232000</v>
       </c>
       <c r="F6">
-        <v>208048859000</v>
+        <v>37481404000</v>
       </c>
       <c r="G6">
-        <v>704278000</v>
+        <v>376189000</v>
       </c>
       <c r="H6">
-        <v>15729800</v>
+        <v>5166300</v>
       </c>
       <c r="I6">
-        <v>284173876000</v>
+        <v>92434825000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-31T09:35:00.000Z</v>
+        <v>2023-01-31T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1416976740000</v>
+        <v>528866996000</v>
       </c>
       <c r="L6">
-        <v>82541600</v>
+        <v>32052500</v>
       </c>
       <c r="M6">
-        <v>7543700</v>
+        <v>-1258800</v>
       </c>
       <c r="N6">
-        <v>132628120000</v>
+        <v>-17095828000</v>
       </c>
       <c r="O6">
-        <v>-5250300</v>
+        <v>-3249900</v>
       </c>
       <c r="P6">
-        <v>-54531307000</v>
+        <v>-20468062000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1675158000000</v>
+        <v>1675157040000</v>
       </c>
       <c r="B7">
-        <v>5781800</v>
+        <v>2786600</v>
       </c>
       <c r="C7">
-        <v>9744400</v>
+        <v>1894500</v>
       </c>
       <c r="D7">
-        <v>170900</v>
+        <v>22400</v>
       </c>
       <c r="E7">
-        <v>107776976000</v>
+        <v>50526051000</v>
       </c>
       <c r="F7">
-        <v>173286644000</v>
+        <v>34470622000</v>
       </c>
       <c r="G7">
-        <v>1826817000</v>
+        <v>410253000</v>
       </c>
       <c r="H7">
-        <v>15697100</v>
+        <v>4703500</v>
       </c>
       <c r="I7">
-        <v>282890437000</v>
+        <v>85406926000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-31T09:40:00.000Z</v>
+        <v>2023-01-31T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1699867177000</v>
+        <v>614273922000</v>
       </c>
       <c r="L7">
-        <v>98238700</v>
+        <v>36756000</v>
       </c>
       <c r="M7">
-        <v>3962600</v>
+        <v>-892100</v>
       </c>
       <c r="N7">
-        <v>65509668000</v>
+        <v>-16055429000</v>
       </c>
       <c r="O7">
-        <v>-1287700</v>
+        <v>-4142000</v>
       </c>
       <c r="P7">
-        <v>10978361000</v>
+        <v>-36523491000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1675158300000</v>
+        <v>1675157160000</v>
       </c>
       <c r="B8">
-        <v>4563500</v>
+        <v>4522600</v>
       </c>
       <c r="C8">
-        <v>5607600</v>
+        <v>1883400</v>
       </c>
       <c r="D8">
-        <v>74900</v>
+        <v>112000</v>
       </c>
       <c r="E8">
-        <v>87708933000</v>
+        <v>83462989000</v>
       </c>
       <c r="F8">
-        <v>115849572000</v>
+        <v>31092234000</v>
       </c>
       <c r="G8">
-        <v>997858000</v>
+        <v>1884218000</v>
       </c>
       <c r="H8">
-        <v>10246000</v>
+        <v>6518000</v>
       </c>
       <c r="I8">
-        <v>204556363000</v>
+        <v>116439441000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-31T09:45:00.000Z</v>
+        <v>2023-01-31T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1904423540000</v>
+        <v>730713363000</v>
       </c>
       <c r="L8">
-        <v>108484700</v>
+        <v>43274000</v>
       </c>
       <c r="M8">
-        <v>1044100</v>
+        <v>-2639200</v>
       </c>
       <c r="N8">
-        <v>28140639000</v>
+        <v>-52370755000</v>
       </c>
       <c r="O8">
-        <v>-243600</v>
+        <v>-6781200</v>
       </c>
       <c r="P8">
-        <v>39119000000</v>
+        <v>-88894246000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1675158600000</v>
+        <v>1675157280000</v>
       </c>
       <c r="B9">
-        <v>7370500</v>
+        <v>5033100</v>
       </c>
       <c r="C9">
-        <v>5156200</v>
+        <v>1751600</v>
       </c>
       <c r="D9">
-        <v>131700</v>
+        <v>16600</v>
       </c>
       <c r="E9">
-        <v>132630619000</v>
+        <v>84226765000</v>
       </c>
       <c r="F9">
-        <v>95778274000</v>
+        <v>29003845000</v>
       </c>
       <c r="G9">
-        <v>2504257000</v>
+        <v>348743000</v>
       </c>
       <c r="H9">
-        <v>12658400</v>
+        <v>6801300</v>
       </c>
       <c r="I9">
-        <v>230913150000</v>
+        <v>113579353000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-31T09:50:00.000Z</v>
+        <v>2023-01-31T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2135336690000</v>
+        <v>844292716000</v>
       </c>
       <c r="L9">
-        <v>121143100</v>
+        <v>50075300</v>
       </c>
       <c r="M9">
-        <v>-2214300</v>
+        <v>-3281500</v>
       </c>
       <c r="N9">
-        <v>-36852345000</v>
+        <v>-55222920000</v>
       </c>
       <c r="O9">
-        <v>-2457900</v>
+        <v>-10062700</v>
       </c>
       <c r="P9">
-        <v>2266655000</v>
+        <v>-144117166000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1675158900000</v>
+        <v>1675157400000</v>
       </c>
       <c r="B10">
-        <v>6466500</v>
+        <v>4990800</v>
       </c>
       <c r="C10">
-        <v>3599200</v>
+        <v>2536100</v>
       </c>
       <c r="D10">
-        <v>74200</v>
+        <v>22600</v>
       </c>
       <c r="E10">
-        <v>118169815000</v>
+        <v>82904125000</v>
       </c>
       <c r="F10">
-        <v>74009738000</v>
+        <v>42767551000</v>
       </c>
       <c r="G10">
-        <v>1054062000</v>
+        <v>430274000</v>
       </c>
       <c r="H10">
-        <v>10139900</v>
+        <v>7549500</v>
       </c>
       <c r="I10">
-        <v>193233615000</v>
+        <v>126101950000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-31T09:55:00.000Z</v>
+        <v>2023-01-31T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2328570305000</v>
+        <v>970394666000</v>
       </c>
       <c r="L10">
-        <v>131283000</v>
+        <v>57624800</v>
       </c>
       <c r="M10">
-        <v>-2867300</v>
+        <v>-2454700</v>
       </c>
       <c r="N10">
-        <v>-44160077000</v>
+        <v>-40136574000</v>
       </c>
       <c r="O10">
-        <v>-5325200</v>
+        <v>-12517400</v>
       </c>
       <c r="P10">
-        <v>-41893422000</v>
+        <v>-184253740000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1675159200000</v>
+        <v>1675157520000</v>
       </c>
       <c r="B11">
-        <v>6778200</v>
+        <v>3429700</v>
       </c>
       <c r="C11">
-        <v>3844300</v>
+        <v>3004900</v>
       </c>
       <c r="D11">
-        <v>42900</v>
+        <v>11000</v>
       </c>
       <c r="E11">
-        <v>120540413000</v>
+        <v>58733880000</v>
       </c>
       <c r="F11">
-        <v>77677957000</v>
+        <v>58499848000</v>
       </c>
       <c r="G11">
-        <v>768615000</v>
+        <v>149929000</v>
       </c>
       <c r="H11">
-        <v>10665400</v>
+        <v>6445600</v>
       </c>
       <c r="I11">
-        <v>198986985000</v>
+        <v>117383657000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-31T10:00:00.000Z</v>
+        <v>2023-01-31T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2527557290000</v>
+        <v>1087778323000</v>
       </c>
       <c r="L11">
-        <v>141948400</v>
+        <v>64070400</v>
       </c>
       <c r="M11">
-        <v>-2933900</v>
+        <v>-424800</v>
       </c>
       <c r="N11">
-        <v>-42862456000</v>
+        <v>-234032000</v>
       </c>
       <c r="O11">
-        <v>-8259100</v>
+        <v>-12942200</v>
       </c>
       <c r="P11">
-        <v>-84755878000</v>
+        <v>-184487772000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1675159500000</v>
+        <v>1675157640000</v>
       </c>
       <c r="B12">
-        <v>4395700</v>
+        <v>2236600</v>
       </c>
       <c r="C12">
-        <v>4911700</v>
+        <v>3634700</v>
       </c>
       <c r="D12">
-        <v>32200</v>
+        <v>4200</v>
       </c>
       <c r="E12">
-        <v>82220886000</v>
+        <v>41204582000</v>
       </c>
       <c r="F12">
-        <v>85012011000</v>
+        <v>60838393000</v>
       </c>
       <c r="G12">
-        <v>525018000</v>
+        <v>120906000</v>
       </c>
       <c r="H12">
-        <v>9339600</v>
+        <v>5875500</v>
       </c>
       <c r="I12">
-        <v>167757915000</v>
+        <v>102163881000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-31T10:05:00.000Z</v>
+        <v>2023-01-31T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2695315205000</v>
+        <v>1189942204000</v>
       </c>
       <c r="L12">
-        <v>151288000</v>
+        <v>69945900</v>
       </c>
       <c r="M12">
-        <v>516000</v>
+        <v>1398100</v>
       </c>
       <c r="N12">
-        <v>2791125000</v>
+        <v>19633811000</v>
       </c>
       <c r="O12">
-        <v>-7743100</v>
+        <v>-11544100</v>
       </c>
       <c r="P12">
-        <v>-81964753000</v>
+        <v>-164853961000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1675159800000</v>
+        <v>1675157760000</v>
       </c>
       <c r="B13">
-        <v>4057200</v>
+        <v>1693000</v>
       </c>
       <c r="C13">
-        <v>6366700</v>
+        <v>4369800</v>
       </c>
       <c r="D13">
-        <v>18200</v>
+        <v>8800</v>
       </c>
       <c r="E13">
-        <v>83270057000</v>
+        <v>31826757000</v>
       </c>
       <c r="F13">
-        <v>115807929000</v>
+        <v>78183149000</v>
       </c>
       <c r="G13">
-        <v>517262000</v>
+        <v>277666000</v>
       </c>
       <c r="H13">
-        <v>10442100</v>
+        <v>6071600</v>
       </c>
       <c r="I13">
-        <v>199595248000</v>
+        <v>110287572000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-31T10:10:00.000Z</v>
+        <v>2023-01-31T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2894910453000</v>
+        <v>1300229776000</v>
       </c>
       <c r="L13">
-        <v>161730100</v>
+        <v>76017500</v>
       </c>
       <c r="M13">
-        <v>2309500</v>
+        <v>2676800</v>
       </c>
       <c r="N13">
-        <v>32537872000</v>
+        <v>46356392000</v>
       </c>
       <c r="O13">
-        <v>-5433600</v>
+        <v>-8867300</v>
       </c>
       <c r="P13">
-        <v>-49426881000</v>
+        <v>-118497569000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1675160100000</v>
+        <v>1675157880000</v>
       </c>
       <c r="B14">
-        <v>3988300</v>
+        <v>1445300</v>
       </c>
       <c r="C14">
-        <v>4024200</v>
+        <v>5062300</v>
       </c>
       <c r="D14">
-        <v>7300</v>
+        <v>16500</v>
       </c>
       <c r="E14">
-        <v>80662535000</v>
+        <v>26221595000</v>
       </c>
       <c r="F14">
-        <v>95569137000</v>
+        <v>90187857000</v>
       </c>
       <c r="G14">
-        <v>144211000</v>
+        <v>337512000</v>
       </c>
       <c r="H14">
-        <v>8019800</v>
+        <v>6524100</v>
       </c>
       <c r="I14">
-        <v>176375883000</v>
+        <v>116746964000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-31T10:15:00.000Z</v>
+        <v>2023-01-31T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3071286336000</v>
+        <v>1416976740000</v>
       </c>
       <c r="L14">
-        <v>169749900</v>
+        <v>82541600</v>
       </c>
       <c r="M14">
-        <v>35900</v>
+        <v>3617000</v>
       </c>
       <c r="N14">
-        <v>14906602000</v>
+        <v>63966262000</v>
       </c>
       <c r="O14">
-        <v>-5397700</v>
+        <v>-5250300</v>
       </c>
       <c r="P14">
-        <v>-34520279000</v>
+        <v>-54531307000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1675160400000</v>
+        <v>1675158000000</v>
       </c>
       <c r="B15">
-        <v>5441200</v>
+        <v>2156300</v>
       </c>
       <c r="C15">
-        <v>5064400</v>
+        <v>5269600</v>
       </c>
       <c r="D15">
-        <v>72800</v>
+        <v>54000</v>
       </c>
       <c r="E15">
-        <v>107327177000</v>
+        <v>45251670000</v>
       </c>
       <c r="F15">
-        <v>106774945000</v>
+        <v>91765209000</v>
       </c>
       <c r="G15">
-        <v>1262977000</v>
+        <v>661834000</v>
       </c>
       <c r="H15">
-        <v>10578400</v>
+        <v>7479900</v>
       </c>
       <c r="I15">
-        <v>215365099000</v>
+        <v>137678713000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-31T10:20:00.000Z</v>
+        <v>2023-01-31T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3286651435000</v>
+        <v>1554655453000</v>
       </c>
       <c r="L15">
-        <v>180328300</v>
+        <v>90021500</v>
       </c>
       <c r="M15">
-        <v>-376800</v>
+        <v>3113300</v>
       </c>
       <c r="N15">
-        <v>-552232000</v>
+        <v>46513539000</v>
       </c>
       <c r="O15">
-        <v>-5774500</v>
+        <v>-2137000</v>
       </c>
       <c r="P15">
-        <v>-35072511000</v>
+        <v>-8017768000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1675160700000</v>
+        <v>1675158120000</v>
       </c>
       <c r="B16">
-        <v>4329400</v>
+        <v>2273900</v>
       </c>
       <c r="C16">
-        <v>3333300</v>
+        <v>3131300</v>
       </c>
       <c r="D16">
-        <v>72600</v>
+        <v>18500</v>
       </c>
       <c r="E16">
-        <v>81938684000</v>
+        <v>42667316000</v>
       </c>
       <c r="F16">
-        <v>67806383000</v>
+        <v>57589914000</v>
       </c>
       <c r="G16">
-        <v>719166000</v>
+        <v>78855000</v>
       </c>
       <c r="H16">
-        <v>7735300</v>
+        <v>5423700</v>
       </c>
       <c r="I16">
-        <v>150464233000</v>
+        <v>100336085000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-31T10:25:00.000Z</v>
+        <v>2023-01-31T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3437115668000</v>
+        <v>1654991538000</v>
       </c>
       <c r="L16">
-        <v>188063600</v>
+        <v>95445200</v>
       </c>
       <c r="M16">
-        <v>-996100</v>
+        <v>857400</v>
       </c>
       <c r="N16">
-        <v>-14132301000</v>
+        <v>14922598000</v>
       </c>
       <c r="O16">
-        <v>-6770600</v>
+        <v>-1279600</v>
       </c>
       <c r="P16">
-        <v>-49204812000</v>
+        <v>6904830000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1675161000000</v>
+        <v>1675158240000</v>
       </c>
       <c r="B17">
-        <v>7760100</v>
+        <v>2103900</v>
       </c>
       <c r="C17">
-        <v>1940500</v>
+        <v>3483800</v>
       </c>
       <c r="D17">
-        <v>51500</v>
+        <v>102700</v>
       </c>
       <c r="E17">
-        <v>132501495000</v>
+        <v>34083690000</v>
       </c>
       <c r="F17">
-        <v>39354800000</v>
+        <v>66558359000</v>
       </c>
       <c r="G17">
-        <v>1088654000</v>
+        <v>1142352000</v>
       </c>
       <c r="H17">
-        <v>9752100</v>
+        <v>5690400</v>
       </c>
       <c r="I17">
-        <v>172944949000</v>
+        <v>101784401000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-31T10:30:00.000Z</v>
+        <v>2023-01-31T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3610060617000</v>
+        <v>1756775939000</v>
       </c>
       <c r="L17">
-        <v>197815700</v>
+        <v>101135600</v>
       </c>
       <c r="M17">
-        <v>-5819600</v>
+        <v>1379900</v>
       </c>
       <c r="N17">
-        <v>-93146695000</v>
+        <v>32474669000</v>
       </c>
       <c r="O17">
-        <v>-12590200</v>
+        <v>100300</v>
       </c>
       <c r="P17">
-        <v>-142351507000</v>
+        <v>39379499000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1675161300000</v>
+        <v>1675158360000</v>
       </c>
       <c r="B18">
-        <v>10794400</v>
+        <v>1777000</v>
       </c>
       <c r="C18">
-        <v>2437100</v>
+        <v>1753400</v>
       </c>
       <c r="D18">
-        <v>10700</v>
+        <v>59800</v>
       </c>
       <c r="E18">
-        <v>196684544000</v>
+        <v>34905102000</v>
       </c>
       <c r="F18">
-        <v>46958133000</v>
+        <v>33631100000</v>
       </c>
       <c r="G18">
-        <v>199661000</v>
+        <v>619508000</v>
       </c>
       <c r="H18">
-        <v>13242200</v>
+        <v>3590200</v>
       </c>
       <c r="I18">
-        <v>243842338000</v>
+        <v>69155710000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-31T10:35:00.000Z</v>
+        <v>2023-01-31T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3853902955000</v>
+        <v>1825931649000</v>
       </c>
       <c r="L18">
-        <v>211057900</v>
+        <v>104725800</v>
       </c>
       <c r="M18">
-        <v>-8357300</v>
+        <v>-23600</v>
       </c>
       <c r="N18">
-        <v>-149726411000</v>
+        <v>-1274002000</v>
       </c>
       <c r="O18">
-        <v>-20947500</v>
+        <v>76700</v>
       </c>
       <c r="P18">
-        <v>-292077918000</v>
+        <v>38105497000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1675161600000</v>
+        <v>1675158480000</v>
       </c>
       <c r="B19">
-        <v>9686200</v>
+        <v>2034200</v>
       </c>
       <c r="C19">
-        <v>2820800</v>
+        <v>1713900</v>
       </c>
       <c r="D19">
-        <v>71300</v>
+        <v>10800</v>
       </c>
       <c r="E19">
-        <v>179227733000</v>
+        <v>38578131000</v>
       </c>
       <c r="F19">
-        <v>53409480000</v>
+        <v>39591634000</v>
       </c>
       <c r="G19">
-        <v>845349000</v>
+        <v>322126000</v>
       </c>
       <c r="H19">
-        <v>12578300</v>
+        <v>3758900</v>
       </c>
       <c r="I19">
-        <v>233482562000</v>
+        <v>78491891000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-31T10:40:00.000Z</v>
+        <v>2023-01-31T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>4087385517000</v>
+        <v>1904423540000</v>
       </c>
       <c r="L19">
-        <v>223636200</v>
+        <v>108484700</v>
       </c>
       <c r="M19">
-        <v>-6865400</v>
+        <v>-320300</v>
       </c>
       <c r="N19">
-        <v>-125818253000</v>
+        <v>1013503000</v>
       </c>
       <c r="O19">
-        <v>-27812900</v>
+        <v>-243600</v>
       </c>
       <c r="P19">
-        <v>-417896171000</v>
+        <v>39119000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1675161900000</v>
+        <v>1675158600000</v>
       </c>
       <c r="B20">
-        <v>5461900</v>
+        <v>2509800</v>
       </c>
       <c r="C20">
-        <v>4921100</v>
+        <v>2179900</v>
       </c>
       <c r="D20">
-        <v>35500</v>
+        <v>26500</v>
       </c>
       <c r="E20">
-        <v>95168574000</v>
+        <v>45048621000</v>
       </c>
       <c r="F20">
-        <v>88429425000</v>
+        <v>40686237000</v>
       </c>
       <c r="G20">
-        <v>813286000</v>
+        <v>964344000</v>
       </c>
       <c r="H20">
-        <v>10418500</v>
+        <v>4716200</v>
       </c>
       <c r="I20">
-        <v>184411285000</v>
+        <v>86699202000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-31T10:45:00.000Z</v>
+        <v>2023-01-31T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>4271796802000</v>
+        <v>1991122742000</v>
       </c>
       <c r="L20">
-        <v>234054700</v>
+        <v>113200900</v>
       </c>
       <c r="M20">
-        <v>-540800</v>
+        <v>-329900</v>
       </c>
       <c r="N20">
-        <v>-6739149000</v>
+        <v>-4362384000</v>
       </c>
       <c r="O20">
-        <v>-28353700</v>
+        <v>-573500</v>
       </c>
       <c r="P20">
-        <v>-424635320000</v>
+        <v>34756616000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1675162200000</v>
+        <v>1675158720000</v>
       </c>
       <c r="B21">
-        <v>2550900</v>
+        <v>3259300</v>
       </c>
       <c r="C21">
-        <v>4724100</v>
+        <v>1905900</v>
       </c>
       <c r="D21">
-        <v>53700</v>
+        <v>97600</v>
       </c>
       <c r="E21">
-        <v>45589321000</v>
+        <v>56030016000</v>
       </c>
       <c r="F21">
-        <v>88466691000</v>
+        <v>35461620000</v>
       </c>
       <c r="G21">
-        <v>1730915000</v>
+        <v>1462441000</v>
       </c>
       <c r="H21">
-        <v>7328700</v>
+        <v>5262800</v>
       </c>
       <c r="I21">
-        <v>135786927000</v>
+        <v>92954077000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-31T10:50:00.000Z</v>
+        <v>2023-01-31T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>4407583729000</v>
+        <v>2084076819000</v>
       </c>
       <c r="L21">
-        <v>241383400</v>
+        <v>118463700</v>
       </c>
       <c r="M21">
-        <v>2173200</v>
+        <v>-1353400</v>
       </c>
       <c r="N21">
-        <v>42877370000</v>
+        <v>-20568396000</v>
       </c>
       <c r="O21">
-        <v>-26180500</v>
+        <v>-1926900</v>
       </c>
       <c r="P21">
-        <v>-381757950000</v>
+        <v>14188220000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1675162500000</v>
+        <v>1675158840000</v>
       </c>
       <c r="B22">
-        <v>2683200</v>
+        <v>2374800</v>
       </c>
       <c r="C22">
-        <v>2802000</v>
+        <v>1836700</v>
       </c>
       <c r="D22">
-        <v>59000</v>
+        <v>7800</v>
       </c>
       <c r="E22">
-        <v>52186242000</v>
+        <v>43907095000</v>
       </c>
       <c r="F22">
-        <v>54049087000</v>
+        <v>34729595000</v>
       </c>
       <c r="G22">
-        <v>875713000</v>
+        <v>93052000</v>
       </c>
       <c r="H22">
-        <v>5544200</v>
+        <v>4219300</v>
       </c>
       <c r="I22">
-        <v>107111042000</v>
+        <v>78729742000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-31T10:55:00.000Z</v>
+        <v>2023-01-31T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>4514694771000</v>
+        <v>2162806561000</v>
       </c>
       <c r="L22">
-        <v>246927600</v>
+        <v>122683000</v>
       </c>
       <c r="M22">
-        <v>118800</v>
+        <v>-538100</v>
       </c>
       <c r="N22">
-        <v>1862845000</v>
+        <v>-9177500000</v>
       </c>
       <c r="O22">
-        <v>-26061700</v>
+        <v>-2465000</v>
       </c>
       <c r="P22">
-        <v>-379895105000</v>
+        <v>5010720000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1675162800000</v>
+        <v>1675158960000</v>
       </c>
       <c r="B23">
-        <v>4661000</v>
+        <v>2511800</v>
       </c>
       <c r="C23">
-        <v>2592600</v>
+        <v>1629200</v>
       </c>
       <c r="D23">
-        <v>4100</v>
+        <v>23000</v>
       </c>
       <c r="E23">
-        <v>77715922000</v>
+        <v>47886987000</v>
       </c>
       <c r="F23">
-        <v>60756510000</v>
+        <v>34743939000</v>
       </c>
       <c r="G23">
-        <v>53861000</v>
+        <v>512337000</v>
       </c>
       <c r="H23">
-        <v>7257700</v>
+        <v>4164000</v>
       </c>
       <c r="I23">
-        <v>138526293000</v>
+        <v>83143263000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-31T11:00:00.000Z</v>
+        <v>2023-01-31T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4653221064000</v>
+        <v>2245949824000</v>
       </c>
       <c r="L23">
-        <v>254185300</v>
+        <v>126847000</v>
       </c>
       <c r="M23">
-        <v>-2068400</v>
+        <v>-882600</v>
       </c>
       <c r="N23">
-        <v>-16959412000</v>
+        <v>-13143048000</v>
       </c>
       <c r="O23">
-        <v>-28130100</v>
+        <v>-3347600</v>
       </c>
       <c r="P23">
-        <v>-396854517000</v>
+        <v>-8132328000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1675163100000</v>
+        <v>1675159080000</v>
       </c>
       <c r="B24">
-        <v>5030300</v>
+        <v>3181300</v>
       </c>
       <c r="C24">
-        <v>3748200</v>
+        <v>1203700</v>
       </c>
       <c r="D24">
-        <v>26400</v>
+        <v>51000</v>
       </c>
       <c r="E24">
-        <v>85116888000</v>
+        <v>57927715000</v>
       </c>
       <c r="F24">
-        <v>63262616000</v>
+        <v>24166621000</v>
       </c>
       <c r="G24">
-        <v>390604000</v>
+        <v>526145000</v>
       </c>
       <c r="H24">
-        <v>8804900</v>
+        <v>4436000</v>
       </c>
       <c r="I24">
-        <v>148770108000</v>
+        <v>82620481000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-31T11:05:00.000Z</v>
+        <v>2023-01-31T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4801991172000</v>
+        <v>2328570305000</v>
       </c>
       <c r="L24">
-        <v>262990200</v>
+        <v>131283000</v>
       </c>
       <c r="M24">
-        <v>-1282100</v>
+        <v>-1977600</v>
       </c>
       <c r="N24">
-        <v>-21854272000</v>
+        <v>-33761094000</v>
       </c>
       <c r="O24">
-        <v>-29412200</v>
+        <v>-5325200</v>
       </c>
       <c r="P24">
-        <v>-418708789000</v>
+        <v>-41893422000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1675163400000</v>
+        <v>1675159200000</v>
       </c>
       <c r="B25">
-        <v>6576500</v>
+        <v>2435800</v>
       </c>
       <c r="C25">
-        <v>2095800</v>
+        <v>1315900</v>
       </c>
       <c r="D25">
-        <v>18100</v>
+        <v>21200</v>
       </c>
       <c r="E25">
-        <v>117585807000</v>
+        <v>51179045000</v>
       </c>
       <c r="F25">
-        <v>46690432000</v>
+        <v>28802646000</v>
       </c>
       <c r="G25">
-        <v>241119000</v>
+        <v>471743000</v>
       </c>
       <c r="H25">
-        <v>8690400</v>
+        <v>3772900</v>
       </c>
       <c r="I25">
-        <v>164517358000</v>
+        <v>80453434000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-31T11:10:00.000Z</v>
+        <v>2023-01-31T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4966508530000</v>
+        <v>2409023739000</v>
       </c>
       <c r="L25">
-        <v>271680600</v>
+        <v>135055900</v>
       </c>
       <c r="M25">
-        <v>-4480700</v>
+        <v>-1119900</v>
       </c>
       <c r="N25">
-        <v>-70895375000</v>
+        <v>-22376399000</v>
       </c>
       <c r="O25">
-        <v>-33892900</v>
+        <v>-6445100</v>
       </c>
       <c r="P25">
-        <v>-489604164000</v>
+        <v>-64269821000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1675163700000</v>
+        <v>1675159320000</v>
       </c>
       <c r="B26">
-        <v>7599300</v>
+        <v>3245100</v>
       </c>
       <c r="C26">
-        <v>2516000</v>
+        <v>1584400</v>
       </c>
       <c r="D26">
-        <v>57100</v>
+        <v>18400</v>
       </c>
       <c r="E26">
-        <v>131061578000</v>
+        <v>49491644000</v>
       </c>
       <c r="F26">
-        <v>47536881000</v>
+        <v>29732829000</v>
       </c>
       <c r="G26">
-        <v>702496000</v>
+        <v>195972000</v>
       </c>
       <c r="H26">
-        <v>10172400</v>
+        <v>4847900</v>
       </c>
       <c r="I26">
-        <v>179300955000</v>
+        <v>79420445000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-31T11:15:00.000Z</v>
+        <v>2023-01-31T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>5145809485000</v>
+        <v>2488444184000</v>
       </c>
       <c r="L26">
-        <v>281853000</v>
+        <v>139903800</v>
       </c>
       <c r="M26">
-        <v>-5083300</v>
+        <v>-1660700</v>
       </c>
       <c r="N26">
-        <v>-83524697000</v>
+        <v>-19758815000</v>
       </c>
       <c r="O26">
-        <v>-38976200</v>
+        <v>-8105800</v>
       </c>
       <c r="P26">
-        <v>-573128861000</v>
+        <v>-84028636000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1675164000000</v>
+        <v>1675159440000</v>
       </c>
       <c r="B27">
-        <v>5279000</v>
+        <v>1964900</v>
       </c>
       <c r="C27">
-        <v>2828700</v>
+        <v>1736300</v>
       </c>
       <c r="D27">
-        <v>57600</v>
+        <v>6300</v>
       </c>
       <c r="E27">
-        <v>89673238000</v>
+        <v>35957178000</v>
       </c>
       <c r="F27">
-        <v>50303204000</v>
+        <v>32755207000</v>
       </c>
       <c r="G27">
-        <v>1285654000</v>
+        <v>135700000</v>
       </c>
       <c r="H27">
-        <v>8165300</v>
+        <v>3707500</v>
       </c>
       <c r="I27">
-        <v>141262096000</v>
+        <v>68848085000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-31T11:20:00.000Z</v>
+        <v>2023-01-31T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>5287071581000</v>
+        <v>2557292269000</v>
       </c>
       <c r="L27">
-        <v>290018300</v>
+        <v>143611300</v>
       </c>
       <c r="M27">
-        <v>-2450300</v>
+        <v>-228600</v>
       </c>
       <c r="N27">
-        <v>-39370034000</v>
+        <v>-3201971000</v>
       </c>
       <c r="O27">
-        <v>-41426500</v>
+        <v>-8334400</v>
       </c>
       <c r="P27">
-        <v>-612498895000</v>
+        <v>-87230607000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1675164300000</v>
+        <v>1675159560000</v>
       </c>
       <c r="B28">
-        <v>5646300</v>
+        <v>1920200</v>
       </c>
       <c r="C28">
-        <v>2586300</v>
+        <v>1931400</v>
       </c>
       <c r="D28">
-        <v>29000</v>
+        <v>16600</v>
       </c>
       <c r="E28">
-        <v>91526448000</v>
+        <v>31886936000</v>
       </c>
       <c r="F28">
-        <v>50353373000</v>
+        <v>34537963000</v>
       </c>
       <c r="G28">
-        <v>384028000</v>
+        <v>350254000</v>
       </c>
       <c r="H28">
-        <v>8261600</v>
+        <v>3868200</v>
       </c>
       <c r="I28">
-        <v>142263849000</v>
+        <v>66775153000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-31T11:25:00.000Z</v>
+        <v>2023-01-31T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>5429335430000</v>
+        <v>2624067422000</v>
       </c>
       <c r="L28">
-        <v>298279900</v>
+        <v>147479500</v>
       </c>
       <c r="M28">
-        <v>-3060000</v>
+        <v>11200</v>
       </c>
       <c r="N28">
-        <v>-41173075000</v>
+        <v>2651027000</v>
       </c>
       <c r="O28">
-        <v>-44486500</v>
+        <v>-8323200</v>
       </c>
       <c r="P28">
-        <v>-653671970000</v>
+        <v>-84579580000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1675164600000</v>
+        <v>1675159680000</v>
       </c>
       <c r="B29">
-        <v>56000</v>
+        <v>1607900</v>
       </c>
       <c r="C29">
-        <v>4600</v>
+        <v>2188000</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="E29">
-        <v>1468775000</v>
+        <v>34246496000</v>
       </c>
       <c r="F29">
-        <v>87140000</v>
+        <v>36861323000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>139964000</v>
       </c>
       <c r="H29">
-        <v>60600</v>
+        <v>3808500</v>
       </c>
       <c r="I29">
-        <v>1555915000</v>
+        <v>71247783000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-31T11:30:00.000Z</v>
+        <v>2023-01-31T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>5430891345000</v>
+        <v>2695315205000</v>
       </c>
       <c r="L29">
-        <v>298340500</v>
+        <v>151288000</v>
       </c>
       <c r="M29">
-        <v>-51400</v>
+        <v>580100</v>
       </c>
       <c r="N29">
-        <v>-1381635000</v>
+        <v>2614827000</v>
       </c>
       <c r="O29">
-        <v>-44537900</v>
+        <v>-7743100</v>
       </c>
       <c r="P29">
-        <v>-655053605000</v>
+        <v>-81964753000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1675170000000</v>
+        <v>1675159800000</v>
       </c>
       <c r="B30">
-        <v>16952400</v>
+        <v>1684700</v>
       </c>
       <c r="C30">
-        <v>7271000</v>
+        <v>2719000</v>
       </c>
       <c r="D30">
-        <v>434000</v>
+        <v>3800</v>
       </c>
       <c r="E30">
-        <v>260676733000</v>
+        <v>36104795000</v>
       </c>
       <c r="F30">
-        <v>130939018000</v>
+        <v>53377199000</v>
       </c>
       <c r="G30">
-        <v>6146802000</v>
+        <v>51472000</v>
       </c>
       <c r="H30">
-        <v>24657400</v>
+        <v>4407500</v>
       </c>
       <c r="I30">
-        <v>397762553000</v>
+        <v>89533466000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-31T13:00:00.000Z</v>
+        <v>2023-01-31T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>5828653898000</v>
+        <v>2784848671000</v>
       </c>
       <c r="L30">
-        <v>322997900</v>
+        <v>155695500</v>
       </c>
       <c r="M30">
-        <v>-9681400</v>
+        <v>1034300</v>
       </c>
       <c r="N30">
-        <v>-129737715000</v>
+        <v>17272404000</v>
       </c>
       <c r="O30">
-        <v>-54219300</v>
+        <v>-6708800</v>
       </c>
       <c r="P30">
-        <v>-784791320000</v>
+        <v>-64692349000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1675170300000</v>
+        <v>1675159920000</v>
       </c>
       <c r="B31">
-        <v>6841000</v>
+        <v>1734100</v>
       </c>
       <c r="C31">
-        <v>7895000</v>
+        <v>2648700</v>
       </c>
       <c r="D31">
-        <v>112200</v>
+        <v>11700</v>
       </c>
       <c r="E31">
-        <v>115752267000</v>
+        <v>34569630000</v>
       </c>
       <c r="F31">
-        <v>147393067000</v>
+        <v>45535919000</v>
       </c>
       <c r="G31">
-        <v>1568179000</v>
+        <v>365350000</v>
       </c>
       <c r="H31">
-        <v>14848200</v>
+        <v>4394500</v>
       </c>
       <c r="I31">
-        <v>264713513000</v>
+        <v>80470899000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-31T13:05:00.000Z</v>
+        <v>2023-01-31T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>6093367411000</v>
+        <v>2865319570000</v>
       </c>
       <c r="L31">
-        <v>337846100</v>
+        <v>160090000</v>
       </c>
       <c r="M31">
-        <v>1054000</v>
+        <v>914600</v>
       </c>
       <c r="N31">
-        <v>31640800000</v>
+        <v>10966289000</v>
       </c>
       <c r="O31">
-        <v>-53165300</v>
+        <v>-5794200</v>
       </c>
       <c r="P31">
-        <v>-753150520000</v>
+        <v>-53726060000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1675170600000</v>
+        <v>1675160040000</v>
       </c>
       <c r="B32">
-        <v>5537100</v>
+        <v>1471900</v>
       </c>
       <c r="C32">
-        <v>6544400</v>
+        <v>2088300</v>
       </c>
       <c r="D32">
-        <v>95800</v>
+        <v>2900</v>
       </c>
       <c r="E32">
-        <v>94693101000</v>
+        <v>31807536000</v>
       </c>
       <c r="F32">
-        <v>118946150000</v>
+        <v>40052219000</v>
       </c>
       <c r="G32">
-        <v>1524749000</v>
+        <v>108190000</v>
       </c>
       <c r="H32">
-        <v>12177300</v>
+        <v>3563100</v>
       </c>
       <c r="I32">
-        <v>215164000000</v>
+        <v>71967945000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-31T13:10:00.000Z</v>
+        <v>2023-01-31T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>6308531411000</v>
+        <v>2937287515000</v>
       </c>
       <c r="L32">
-        <v>350023400</v>
+        <v>163653100</v>
       </c>
       <c r="M32">
-        <v>1007300</v>
+        <v>616400</v>
       </c>
       <c r="N32">
-        <v>24253049000</v>
+        <v>8244683000</v>
       </c>
       <c r="O32">
-        <v>-52158000</v>
+        <v>-5177800</v>
       </c>
       <c r="P32">
-        <v>-728897471000</v>
+        <v>-45481377000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1675170900000</v>
+        <v>1675160160000</v>
       </c>
       <c r="B33">
-        <v>5102500</v>
+        <v>1408800</v>
       </c>
       <c r="C33">
-        <v>9559900</v>
+        <v>1344300</v>
       </c>
       <c r="D33">
-        <v>38700</v>
+        <v>4900</v>
       </c>
       <c r="E33">
-        <v>88409020000</v>
+        <v>30622143000</v>
       </c>
       <c r="F33">
-        <v>170095572000</v>
+        <v>31585229000</v>
       </c>
       <c r="G33">
-        <v>656713000</v>
+        <v>98385000</v>
       </c>
       <c r="H33">
-        <v>14701100</v>
+        <v>2758000</v>
       </c>
       <c r="I33">
-        <v>259161305000</v>
+        <v>62305757000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-31T13:15:00.000Z</v>
+        <v>2023-01-31T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>6567692716000</v>
+        <v>2999593272000</v>
       </c>
       <c r="L33">
-        <v>364724500</v>
+        <v>166411100</v>
       </c>
       <c r="M33">
-        <v>4457400</v>
+        <v>-64500</v>
       </c>
       <c r="N33">
-        <v>81686552000</v>
+        <v>963086000</v>
       </c>
       <c r="O33">
-        <v>-47700600</v>
+        <v>-5242300</v>
       </c>
       <c r="P33">
-        <v>-647210919000</v>
+        <v>-44518291000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1675171200000</v>
+        <v>1675160280000</v>
       </c>
       <c r="B34">
-        <v>5127100</v>
+        <v>1746000</v>
       </c>
       <c r="C34">
-        <v>11189000</v>
+        <v>1590600</v>
       </c>
       <c r="D34">
-        <v>50100</v>
+        <v>2200</v>
       </c>
       <c r="E34">
-        <v>97047120000</v>
+        <v>30828488000</v>
       </c>
       <c r="F34">
-        <v>201390002000</v>
+        <v>40826500000</v>
       </c>
       <c r="G34">
-        <v>1089496000</v>
+        <v>38076000</v>
       </c>
       <c r="H34">
-        <v>16366200</v>
+        <v>3338800</v>
       </c>
       <c r="I34">
-        <v>299526618000</v>
+        <v>71693064000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-31T13:20:00.000Z</v>
+        <v>2023-01-31T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>6867219334000</v>
+        <v>3071286336000</v>
       </c>
       <c r="L34">
-        <v>381090700</v>
+        <v>169749900</v>
       </c>
       <c r="M34">
-        <v>6061900</v>
+        <v>-155400</v>
       </c>
       <c r="N34">
-        <v>104342882000</v>
+        <v>9998012000</v>
       </c>
       <c r="O34">
-        <v>-41638700</v>
+        <v>-5397700</v>
       </c>
       <c r="P34">
-        <v>-542868037000</v>
+        <v>-34520279000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1675171500000</v>
+        <v>1675160400000</v>
       </c>
       <c r="B35">
-        <v>5550100</v>
+        <v>2435000</v>
       </c>
       <c r="C35">
-        <v>6356000</v>
+        <v>1606200</v>
       </c>
       <c r="D35">
-        <v>50000</v>
+        <v>3100</v>
       </c>
       <c r="E35">
-        <v>104806707000</v>
+        <v>50560107000</v>
       </c>
       <c r="F35">
-        <v>124121233000</v>
+        <v>33241735000</v>
       </c>
       <c r="G35">
-        <v>809228000</v>
+        <v>73350000</v>
       </c>
       <c r="H35">
-        <v>11956100</v>
+        <v>4044300</v>
       </c>
       <c r="I35">
-        <v>229737168000</v>
+        <v>83875192000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-31T13:25:00.000Z</v>
+        <v>2023-01-31T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>7096956502000</v>
+        <v>3155161528000</v>
       </c>
       <c r="L35">
-        <v>393046800</v>
+        <v>173794200</v>
       </c>
       <c r="M35">
-        <v>805900</v>
+        <v>-828800</v>
       </c>
       <c r="N35">
-        <v>19314526000</v>
+        <v>-17318372000</v>
       </c>
       <c r="O35">
-        <v>-40832800</v>
+        <v>-6226500</v>
       </c>
       <c r="P35">
-        <v>-523553511000</v>
+        <v>-51838651000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1675171800000</v>
+        <v>1675160520000</v>
       </c>
       <c r="B36">
-        <v>5103300</v>
+        <v>1855600</v>
       </c>
       <c r="C36">
-        <v>8197200</v>
+        <v>2151200</v>
       </c>
       <c r="D36">
-        <v>74200</v>
+        <v>66200</v>
       </c>
       <c r="E36">
-        <v>99525940000</v>
+        <v>34212196000</v>
       </c>
       <c r="F36">
-        <v>148331249000</v>
+        <v>42381304000</v>
       </c>
       <c r="G36">
-        <v>1305877000</v>
+        <v>1094513000</v>
       </c>
       <c r="H36">
-        <v>13374700</v>
+        <v>4073000</v>
       </c>
       <c r="I36">
-        <v>249163066000</v>
+        <v>77688013000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-31T13:30:00.000Z</v>
+        <v>2023-01-31T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>7346119568000</v>
+        <v>3232849541000</v>
       </c>
       <c r="L36">
-        <v>406421500</v>
+        <v>177867200</v>
       </c>
       <c r="M36">
-        <v>3093900</v>
+        <v>295600</v>
       </c>
       <c r="N36">
-        <v>48805309000</v>
+        <v>8169108000</v>
       </c>
       <c r="O36">
-        <v>-37738900</v>
+        <v>-5930900</v>
       </c>
       <c r="P36">
-        <v>-474748202000</v>
+        <v>-43669543000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1675172100000</v>
+        <v>1675160640000</v>
       </c>
       <c r="B37">
-        <v>4805600</v>
+        <v>1683900</v>
       </c>
       <c r="C37">
-        <v>7757600</v>
+        <v>2036700</v>
       </c>
       <c r="D37">
-        <v>43800</v>
+        <v>47400</v>
       </c>
       <c r="E37">
-        <v>92743678000</v>
+        <v>33233668000</v>
       </c>
       <c r="F37">
-        <v>140297787000</v>
+        <v>46376709000</v>
       </c>
       <c r="G37">
-        <v>1284590000</v>
+        <v>481361000</v>
       </c>
       <c r="H37">
-        <v>12607000</v>
+        <v>3768000</v>
       </c>
       <c r="I37">
-        <v>234326055000</v>
+        <v>80091738000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-31T13:35:00.000Z</v>
+        <v>2023-01-31T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>7580445623000</v>
+        <v>3312941279000</v>
       </c>
       <c r="L37">
-        <v>419028500</v>
+        <v>181635200</v>
       </c>
       <c r="M37">
-        <v>2952000</v>
+        <v>352800</v>
       </c>
       <c r="N37">
-        <v>47554109000</v>
+        <v>13143041000</v>
       </c>
       <c r="O37">
-        <v>-34786900</v>
+        <v>-5578100</v>
       </c>
       <c r="P37">
-        <v>-427194093000</v>
+        <v>-30526502000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1675172400000</v>
+        <v>1675160760000</v>
       </c>
       <c r="B38">
-        <v>7761500</v>
+        <v>1744600</v>
       </c>
       <c r="C38">
-        <v>5048200</v>
+        <v>1591200</v>
       </c>
       <c r="D38">
-        <v>56600</v>
+        <v>5400</v>
       </c>
       <c r="E38">
-        <v>139468830000</v>
+        <v>35918094000</v>
       </c>
       <c r="F38">
-        <v>95863204000</v>
+        <v>29782977000</v>
       </c>
       <c r="G38">
-        <v>734189000</v>
+        <v>137507000</v>
       </c>
       <c r="H38">
-        <v>12866300</v>
+        <v>3341200</v>
       </c>
       <c r="I38">
-        <v>236066223000</v>
+        <v>65838578000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-31T13:40:00.000Z</v>
+        <v>2023-01-31T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>7816511846000</v>
+        <v>3378779857000</v>
       </c>
       <c r="L38">
-        <v>431894800</v>
+        <v>184976400</v>
       </c>
       <c r="M38">
-        <v>-2713300</v>
+        <v>-153400</v>
       </c>
       <c r="N38">
-        <v>-43605626000</v>
+        <v>-6135117000</v>
       </c>
       <c r="O38">
-        <v>-37500200</v>
+        <v>-5731500</v>
       </c>
       <c r="P38">
-        <v>-470799719000</v>
+        <v>-36661619000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1675172700000</v>
+        <v>1675160880000</v>
       </c>
       <c r="B39">
-        <v>4184900</v>
+        <v>2051500</v>
       </c>
       <c r="C39">
-        <v>11611600</v>
+        <v>1012400</v>
       </c>
       <c r="D39">
-        <v>76900</v>
+        <v>23300</v>
       </c>
       <c r="E39">
-        <v>69755861000</v>
+        <v>35341796000</v>
       </c>
       <c r="F39">
-        <v>241785699000</v>
+        <v>22798603000</v>
       </c>
       <c r="G39">
-        <v>1754917000</v>
+        <v>195412000</v>
       </c>
       <c r="H39">
-        <v>15873400</v>
+        <v>3087200</v>
       </c>
       <c r="I39">
-        <v>313296477000</v>
+        <v>58335811000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-31T13:45:00.000Z</v>
+        <v>2023-01-31T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>8129808323000</v>
+        <v>3437115668000</v>
       </c>
       <c r="L39">
-        <v>447768200</v>
+        <v>188063600</v>
       </c>
       <c r="M39">
-        <v>7426700</v>
+        <v>-1039100</v>
       </c>
       <c r="N39">
-        <v>172029838000</v>
+        <v>-12543193000</v>
       </c>
       <c r="O39">
-        <v>-30073500</v>
+        <v>-6770600</v>
       </c>
       <c r="P39">
-        <v>-298769881000</v>
+        <v>-49204812000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1675173000000</v>
+        <v>1675161000000</v>
       </c>
       <c r="B40">
-        <v>6515900</v>
+        <v>2972900</v>
       </c>
       <c r="C40">
-        <v>20516600</v>
+        <v>844600</v>
       </c>
       <c r="D40">
-        <v>241200</v>
+        <v>30200</v>
       </c>
       <c r="E40">
-        <v>122368402000</v>
+        <v>50020799000</v>
       </c>
       <c r="F40">
-        <v>380446755000</v>
+        <v>18178858000</v>
       </c>
       <c r="G40">
-        <v>2472913000</v>
+        <v>524585000</v>
       </c>
       <c r="H40">
-        <v>27273700</v>
+        <v>3847700</v>
       </c>
       <c r="I40">
-        <v>505288070000</v>
+        <v>68724242000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-31T13:50:00.000Z</v>
+        <v>2023-01-31T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>8635096393000</v>
+        <v>3505839910000</v>
       </c>
       <c r="L40">
-        <v>475041900</v>
+        <v>191911300</v>
       </c>
       <c r="M40">
-        <v>14000700</v>
+        <v>-2128300</v>
       </c>
       <c r="N40">
-        <v>258078353000</v>
+        <v>-31841941000</v>
       </c>
       <c r="O40">
-        <v>-16072800</v>
+        <v>-8898900</v>
       </c>
       <c r="P40">
-        <v>-40691528000</v>
+        <v>-81046753000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1675173300000</v>
+        <v>1675161120000</v>
       </c>
       <c r="B41">
-        <v>9463200</v>
+        <v>2714500</v>
       </c>
       <c r="C41">
-        <v>4930900</v>
+        <v>780500</v>
       </c>
       <c r="D41">
-        <v>41700</v>
+        <v>2900</v>
       </c>
       <c r="E41">
-        <v>164978227000</v>
+        <v>50114419000</v>
       </c>
       <c r="F41">
-        <v>84131186000</v>
+        <v>15019620000</v>
       </c>
       <c r="G41">
-        <v>1125150000</v>
+        <v>57328000</v>
       </c>
       <c r="H41">
-        <v>14435800</v>
+        <v>3497900</v>
       </c>
       <c r="I41">
-        <v>250234563000</v>
+        <v>65191367000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-31T13:55:00.000Z</v>
+        <v>2023-01-31T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>8885330956000</v>
+        <v>3571031277000</v>
       </c>
       <c r="L41">
-        <v>489477700</v>
+        <v>195409200</v>
       </c>
       <c r="M41">
-        <v>-4532300</v>
+        <v>-1934000</v>
       </c>
       <c r="N41">
-        <v>-80847041000</v>
+        <v>-35094799000</v>
       </c>
       <c r="O41">
-        <v>-20605100</v>
+        <v>-10832900</v>
       </c>
       <c r="P41">
-        <v>-121538569000</v>
+        <v>-116141552000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1675173600000</v>
+        <v>1675161240000</v>
       </c>
       <c r="B42">
-        <v>5404900</v>
+        <v>3714500</v>
       </c>
       <c r="C42">
-        <v>6173400</v>
+        <v>865500</v>
       </c>
       <c r="D42">
-        <v>126700</v>
+        <v>18500</v>
       </c>
       <c r="E42">
-        <v>95192019000</v>
+        <v>59214122000</v>
       </c>
       <c r="F42">
-        <v>126626379000</v>
+        <v>15335595000</v>
       </c>
       <c r="G42">
-        <v>1166476000</v>
+        <v>511146000</v>
       </c>
       <c r="H42">
-        <v>11705000</v>
+        <v>4598500</v>
       </c>
       <c r="I42">
-        <v>222984874000</v>
+        <v>75060863000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-31T14:00:00.000Z</v>
+        <v>2023-01-31T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>9108315830000</v>
+        <v>3646092140000</v>
       </c>
       <c r="L42">
-        <v>501182700</v>
+        <v>200007700</v>
       </c>
       <c r="M42">
-        <v>768500</v>
+        <v>-2849000</v>
       </c>
       <c r="N42">
-        <v>31434360000</v>
+        <v>-43878527000</v>
       </c>
       <c r="O42">
-        <v>-19836600</v>
+        <v>-13681900</v>
       </c>
       <c r="P42">
-        <v>-90104209000</v>
+        <v>-160020079000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1675173900000</v>
+        <v>1675161360000</v>
       </c>
       <c r="B43">
-        <v>6430700</v>
+        <v>4237500</v>
       </c>
       <c r="C43">
-        <v>4647000</v>
+        <v>1061600</v>
       </c>
       <c r="D43">
-        <v>47400</v>
+        <v>4200</v>
       </c>
       <c r="E43">
-        <v>125813882000</v>
+        <v>82449628000</v>
       </c>
       <c r="F43">
-        <v>91352607000</v>
+        <v>19527283000</v>
       </c>
       <c r="G43">
-        <v>631176000</v>
+        <v>66124000</v>
       </c>
       <c r="H43">
-        <v>11125100</v>
+        <v>5303300</v>
       </c>
       <c r="I43">
-        <v>217797665000</v>
+        <v>102043035000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-31T14:05:00.000Z</v>
+        <v>2023-01-31T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>9326113495000</v>
+        <v>3748135175000</v>
       </c>
       <c r="L43">
-        <v>512307800</v>
+        <v>205311000</v>
       </c>
       <c r="M43">
-        <v>-1783700</v>
+        <v>-3175900</v>
       </c>
       <c r="N43">
-        <v>-34461275000</v>
+        <v>-62922345000</v>
       </c>
       <c r="O43">
-        <v>-21620300</v>
+        <v>-16857800</v>
       </c>
       <c r="P43">
-        <v>-124565484000</v>
+        <v>-222942424000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1675174200000</v>
+        <v>1675161480000</v>
       </c>
       <c r="B44">
-        <v>6827800</v>
+        <v>4915100</v>
       </c>
       <c r="C44">
-        <v>5694200</v>
+        <v>825400</v>
       </c>
       <c r="D44">
-        <v>17100</v>
+        <v>6400</v>
       </c>
       <c r="E44">
-        <v>152979144000</v>
+        <v>87387071000</v>
       </c>
       <c r="F44">
-        <v>123355889000</v>
+        <v>18251577000</v>
       </c>
       <c r="G44">
-        <v>305554000</v>
+        <v>129132000</v>
       </c>
       <c r="H44">
-        <v>12539100</v>
+        <v>5746900</v>
       </c>
       <c r="I44">
-        <v>276640587000</v>
+        <v>105767780000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-31T14:10:00.000Z</v>
+        <v>2023-01-31T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>9602754082000</v>
+        <v>3853902955000</v>
       </c>
       <c r="L44">
-        <v>524846900</v>
+        <v>211057900</v>
       </c>
       <c r="M44">
-        <v>-1133600</v>
+        <v>-4089700</v>
       </c>
       <c r="N44">
-        <v>-29623255000</v>
+        <v>-69135494000</v>
       </c>
       <c r="O44">
-        <v>-22753900</v>
+        <v>-20947500</v>
       </c>
       <c r="P44">
-        <v>-154188739000</v>
+        <v>-292077918000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1675174500000</v>
+        <v>1675161600000</v>
       </c>
       <c r="B45">
-        <v>4203700</v>
+        <v>4982700</v>
       </c>
       <c r="C45">
-        <v>8255200</v>
+        <v>958600</v>
       </c>
       <c r="D45">
-        <v>66000</v>
+        <v>60700</v>
       </c>
       <c r="E45">
-        <v>83953818000</v>
+        <v>94004976000</v>
       </c>
       <c r="F45">
-        <v>204563003000</v>
+        <v>18732650000</v>
       </c>
       <c r="G45">
-        <v>3016824000</v>
+        <v>684476000</v>
       </c>
       <c r="H45">
-        <v>12524900</v>
+        <v>6002000</v>
       </c>
       <c r="I45">
-        <v>291533645000</v>
+        <v>113422102000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-31T14:15:00.000Z</v>
+        <v>2023-01-31T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>9894287727000</v>
+        <v>3967325057000</v>
       </c>
       <c r="L45">
-        <v>537371800</v>
+        <v>217059900</v>
       </c>
       <c r="M45">
-        <v>4051500</v>
+        <v>-4024100</v>
       </c>
       <c r="N45">
-        <v>120609185000</v>
+        <v>-75272326000</v>
       </c>
       <c r="O45">
-        <v>-18702400</v>
+        <v>-24971600</v>
       </c>
       <c r="P45">
-        <v>-33579554000</v>
+        <v>-367350244000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1675174800000</v>
+        <v>1675161720000</v>
       </c>
       <c r="B46">
-        <v>5561800</v>
+        <v>3482500</v>
       </c>
       <c r="C46">
-        <v>17035900</v>
+        <v>1041200</v>
       </c>
       <c r="D46">
-        <v>78900</v>
+        <v>4800</v>
       </c>
       <c r="E46">
-        <v>111874858000</v>
+        <v>63737563000</v>
       </c>
       <c r="F46">
-        <v>341538111000</v>
+        <v>18389162000</v>
       </c>
       <c r="G46">
-        <v>2769931000</v>
+        <v>64881000</v>
       </c>
       <c r="H46">
-        <v>22676600</v>
+        <v>4528500</v>
       </c>
       <c r="I46">
-        <v>456182900000</v>
+        <v>82191606000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-31T14:20:00.000Z</v>
+        <v>2023-01-31T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>10350470627000</v>
+        <v>4049516663000</v>
       </c>
       <c r="L46">
-        <v>560048400</v>
+        <v>221588400</v>
       </c>
       <c r="M46">
-        <v>11474100</v>
+        <v>-2441300</v>
       </c>
       <c r="N46">
-        <v>229663253000</v>
+        <v>-45348401000</v>
       </c>
       <c r="O46">
-        <v>-7228300</v>
+        <v>-27412900</v>
       </c>
       <c r="P46">
-        <v>196083699000</v>
+        <v>-412698645000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1675175100000</v>
+        <v>1675161840000</v>
       </c>
       <c r="B47">
-        <v>6614500</v>
+        <v>2559300</v>
       </c>
       <c r="C47">
-        <v>22192600</v>
+        <v>1473800</v>
       </c>
       <c r="D47">
-        <v>204700</v>
+        <v>6900</v>
       </c>
       <c r="E47">
-        <v>121767729000</v>
+        <v>45467829000</v>
       </c>
       <c r="F47">
-        <v>415704056000</v>
+        <v>27959556000</v>
       </c>
       <c r="G47">
-        <v>3192473000</v>
+        <v>127297000</v>
       </c>
       <c r="H47">
-        <v>29011800</v>
+        <v>4040000</v>
       </c>
       <c r="I47">
-        <v>540664258000</v>
+        <v>73554682000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-31T14:25:00.000Z</v>
+        <v>2023-01-31T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>10891134885000</v>
+        <v>4123071345000</v>
       </c>
       <c r="L47">
-        <v>589060200</v>
+        <v>225628400</v>
       </c>
       <c r="M47">
-        <v>15578100</v>
+        <v>-1085500</v>
       </c>
       <c r="N47">
-        <v>293936327000</v>
+        <v>-17508273000</v>
       </c>
       <c r="O47">
-        <v>8349800</v>
+        <v>-28498400</v>
       </c>
       <c r="P47">
-        <v>490020026000</v>
+        <v>-430206918000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1675175400000</v>
+        <v>1675161960000</v>
       </c>
       <c r="B48">
-        <v>10200</v>
+        <v>2069500</v>
       </c>
       <c r="C48">
-        <v>77500</v>
+        <v>1854000</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="E48">
-        <v>105875000</v>
+        <v>36714749000</v>
       </c>
       <c r="F48">
-        <v>1408865000</v>
+        <v>34956125000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>367076000</v>
       </c>
       <c r="H48">
-        <v>87700</v>
+        <v>3937400</v>
       </c>
       <c r="I48">
-        <v>1514740000</v>
+        <v>72037950000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-31T14:30:00.000Z</v>
+        <v>2023-01-31T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>10892649625000</v>
+        <v>4195109295000</v>
       </c>
       <c r="L48">
-        <v>589147900</v>
+        <v>229565800</v>
       </c>
       <c r="M48">
-        <v>67300</v>
+        <v>-215500</v>
       </c>
       <c r="N48">
-        <v>1302990000</v>
+        <v>-1758624000</v>
       </c>
       <c r="O48">
-        <v>8417100</v>
+        <v>-28713900</v>
       </c>
       <c r="P48">
-        <v>491323016000</v>
+        <v>-431965542000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1675176300000</v>
+        <v>1675162080000</v>
       </c>
       <c r="B49">
+        <v>2054100</v>
+      </c>
+      <c r="C49">
+        <v>2414300</v>
+      </c>
+      <c r="D49">
+        <v>20500</v>
+      </c>
+      <c r="E49">
+        <v>34471190000</v>
+      </c>
+      <c r="F49">
+        <v>41801412000</v>
+      </c>
+      <c r="G49">
+        <v>414905000</v>
+      </c>
+      <c r="H49">
+        <v>4488900</v>
+      </c>
+      <c r="I49">
+        <v>76687507000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-01-31T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>4271796802000</v>
+      </c>
+      <c r="L49">
+        <v>234054700</v>
+      </c>
+      <c r="M49">
+        <v>360200</v>
+      </c>
+      <c r="N49">
+        <v>7330222000</v>
+      </c>
+      <c r="O49">
+        <v>-28353700</v>
+      </c>
+      <c r="P49">
+        <v>-424635320000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1675162200000</v>
+      </c>
+      <c r="B50">
+        <v>1115600</v>
+      </c>
+      <c r="C50">
+        <v>2489100</v>
+      </c>
+      <c r="D50">
+        <v>38600</v>
+      </c>
+      <c r="E50">
+        <v>18364275000</v>
+      </c>
+      <c r="F50">
+        <v>45766810000</v>
+      </c>
+      <c r="G50">
+        <v>1306623000</v>
+      </c>
+      <c r="H50">
+        <v>3643300</v>
+      </c>
+      <c r="I50">
+        <v>65437708000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-01-31T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>4337234510000</v>
+      </c>
+      <c r="L50">
+        <v>237698000</v>
+      </c>
+      <c r="M50">
+        <v>1373500</v>
+      </c>
+      <c r="N50">
+        <v>27402535000</v>
+      </c>
+      <c r="O50">
+        <v>-26980200</v>
+      </c>
+      <c r="P50">
+        <v>-397232785000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1675162320000</v>
+      </c>
+      <c r="B51">
+        <v>805200</v>
+      </c>
+      <c r="C51">
+        <v>1405200</v>
+      </c>
+      <c r="D51">
+        <v>13300</v>
+      </c>
+      <c r="E51">
+        <v>15570199000</v>
+      </c>
+      <c r="F51">
+        <v>29123688000</v>
+      </c>
+      <c r="G51">
+        <v>407002000</v>
+      </c>
+      <c r="H51">
+        <v>2223700</v>
+      </c>
+      <c r="I51">
+        <v>45100889000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-01-31T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>4382335399000</v>
+      </c>
+      <c r="L51">
+        <v>239921700</v>
+      </c>
+      <c r="M51">
+        <v>600000</v>
+      </c>
+      <c r="N51">
+        <v>13553489000</v>
+      </c>
+      <c r="O51">
+        <v>-26380200</v>
+      </c>
+      <c r="P51">
+        <v>-383679296000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1675162440000</v>
+      </c>
+      <c r="B52">
+        <v>1073400</v>
+      </c>
+      <c r="C52">
+        <v>1310700</v>
+      </c>
+      <c r="D52">
+        <v>8000</v>
+      </c>
+      <c r="E52">
+        <v>19690651000</v>
+      </c>
+      <c r="F52">
+        <v>23338726000</v>
+      </c>
+      <c r="G52">
+        <v>123800000</v>
+      </c>
+      <c r="H52">
+        <v>2392100</v>
+      </c>
+      <c r="I52">
+        <v>43153177000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-01-31T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>4425488576000</v>
+      </c>
+      <c r="L52">
+        <v>242313800</v>
+      </c>
+      <c r="M52">
+        <v>237300</v>
+      </c>
+      <c r="N52">
+        <v>3648075000</v>
+      </c>
+      <c r="O52">
+        <v>-26142900</v>
+      </c>
+      <c r="P52">
+        <v>-380031221000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1675162560000</v>
+      </c>
+      <c r="B53">
+        <v>1063800</v>
+      </c>
+      <c r="C53">
+        <v>1307000</v>
+      </c>
+      <c r="D53">
+        <v>25600</v>
+      </c>
+      <c r="E53">
+        <v>21295982000</v>
+      </c>
+      <c r="F53">
+        <v>24411621000</v>
+      </c>
+      <c r="G53">
+        <v>425906000</v>
+      </c>
+      <c r="H53">
+        <v>2396400</v>
+      </c>
+      <c r="I53">
+        <v>46133509000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-01-31T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>4471622085000</v>
+      </c>
+      <c r="L53">
+        <v>244710200</v>
+      </c>
+      <c r="M53">
+        <v>243200</v>
+      </c>
+      <c r="N53">
+        <v>3115639000</v>
+      </c>
+      <c r="O53">
+        <v>-25899700</v>
+      </c>
+      <c r="P53">
+        <v>-376915582000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1675162680000</v>
+      </c>
+      <c r="B54">
+        <v>1176100</v>
+      </c>
+      <c r="C54">
+        <v>1014100</v>
+      </c>
+      <c r="D54">
+        <v>27200</v>
+      </c>
+      <c r="E54">
+        <v>22854456000</v>
+      </c>
+      <c r="F54">
+        <v>19874933000</v>
+      </c>
+      <c r="G54">
+        <v>343297000</v>
+      </c>
+      <c r="H54">
+        <v>2217400</v>
+      </c>
+      <c r="I54">
+        <v>43072686000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-31T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>4514694771000</v>
+      </c>
+      <c r="L54">
+        <v>246927600</v>
+      </c>
+      <c r="M54">
+        <v>-162000</v>
+      </c>
+      <c r="N54">
+        <v>-2979523000</v>
+      </c>
+      <c r="O54">
+        <v>-26061700</v>
+      </c>
+      <c r="P54">
+        <v>-379895105000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1675162800000</v>
+      </c>
+      <c r="B55">
+        <v>1715400</v>
+      </c>
+      <c r="C55">
+        <v>955400</v>
+      </c>
+      <c r="D55">
+        <v>700</v>
+      </c>
+      <c r="E55">
+        <v>28449432000</v>
+      </c>
+      <c r="F55">
+        <v>20267859000</v>
+      </c>
+      <c r="G55">
+        <v>12366000</v>
+      </c>
+      <c r="H55">
+        <v>2671500</v>
+      </c>
+      <c r="I55">
+        <v>48729657000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-31T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>4563424428000</v>
+      </c>
+      <c r="L55">
+        <v>249599100</v>
+      </c>
+      <c r="M55">
+        <v>-760000</v>
+      </c>
+      <c r="N55">
+        <v>-8181573000</v>
+      </c>
+      <c r="O55">
+        <v>-26821700</v>
+      </c>
+      <c r="P55">
+        <v>-388076678000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1675162920000</v>
+      </c>
+      <c r="B56">
+        <v>2063600</v>
+      </c>
+      <c r="C56">
+        <v>1157800</v>
+      </c>
+      <c r="D56">
+        <v>1800</v>
+      </c>
+      <c r="E56">
+        <v>31232957000</v>
+      </c>
+      <c r="F56">
+        <v>27407504000</v>
+      </c>
+      <c r="G56">
+        <v>17679000</v>
+      </c>
+      <c r="H56">
+        <v>3223200</v>
+      </c>
+      <c r="I56">
+        <v>58658140000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-31T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>4622082568000</v>
+      </c>
+      <c r="L56">
+        <v>252822300</v>
+      </c>
+      <c r="M56">
+        <v>-905800</v>
+      </c>
+      <c r="N56">
+        <v>-3825453000</v>
+      </c>
+      <c r="O56">
+        <v>-27727500</v>
+      </c>
+      <c r="P56">
+        <v>-391902131000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1675163040000</v>
+      </c>
+      <c r="B57">
+        <v>1676700</v>
+      </c>
+      <c r="C57">
+        <v>1496000</v>
+      </c>
+      <c r="D57">
+        <v>16400</v>
+      </c>
+      <c r="E57">
+        <v>32229301000</v>
+      </c>
+      <c r="F57">
+        <v>27648652000</v>
+      </c>
+      <c r="G57">
+        <v>187892000</v>
+      </c>
+      <c r="H57">
+        <v>3189100</v>
+      </c>
+      <c r="I57">
+        <v>60065845000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-31T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4682148413000</v>
+      </c>
+      <c r="L57">
+        <v>256011400</v>
+      </c>
+      <c r="M57">
+        <v>-180700</v>
+      </c>
+      <c r="N57">
+        <v>-4580649000</v>
+      </c>
+      <c r="O57">
+        <v>-27908200</v>
+      </c>
+      <c r="P57">
+        <v>-396482780000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1675163160000</v>
+      </c>
+      <c r="B58">
+        <v>1905200</v>
+      </c>
+      <c r="C58">
+        <v>1521800</v>
+      </c>
+      <c r="D58">
+        <v>1000</v>
+      </c>
+      <c r="E58">
+        <v>29979308000</v>
+      </c>
+      <c r="F58">
+        <v>24237864000</v>
+      </c>
+      <c r="G58">
+        <v>7343000</v>
+      </c>
+      <c r="H58">
+        <v>3428000</v>
+      </c>
+      <c r="I58">
+        <v>54224515000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-31T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4736372928000</v>
+      </c>
+      <c r="L58">
+        <v>259439400</v>
+      </c>
+      <c r="M58">
+        <v>-383400</v>
+      </c>
+      <c r="N58">
+        <v>-5741444000</v>
+      </c>
+      <c r="O58">
+        <v>-28291600</v>
+      </c>
+      <c r="P58">
+        <v>-402224224000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1675163280000</v>
+      </c>
+      <c r="B59">
+        <v>2330400</v>
+      </c>
+      <c r="C59">
+        <v>1209800</v>
+      </c>
+      <c r="D59">
+        <v>10600</v>
+      </c>
+      <c r="E59">
+        <v>40941812000</v>
+      </c>
+      <c r="F59">
+        <v>24457247000</v>
+      </c>
+      <c r="G59">
+        <v>219185000</v>
+      </c>
+      <c r="H59">
+        <v>3550800</v>
+      </c>
+      <c r="I59">
+        <v>65618244000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-31T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4801991172000</v>
+      </c>
+      <c r="L59">
+        <v>262990200</v>
+      </c>
+      <c r="M59">
+        <v>-1120600</v>
+      </c>
+      <c r="N59">
+        <v>-16484565000</v>
+      </c>
+      <c r="O59">
+        <v>-29412200</v>
+      </c>
+      <c r="P59">
+        <v>-418708789000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1675163400000</v>
+      </c>
+      <c r="B60">
+        <v>2562000</v>
+      </c>
+      <c r="C60">
+        <v>811900</v>
+      </c>
+      <c r="D60">
+        <v>4600</v>
+      </c>
+      <c r="E60">
+        <v>47917585000</v>
+      </c>
+      <c r="F60">
+        <v>22069034000</v>
+      </c>
+      <c r="G60">
+        <v>37068000</v>
+      </c>
+      <c r="H60">
+        <v>3378500</v>
+      </c>
+      <c r="I60">
+        <v>70023687000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-31T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4872014859000</v>
+      </c>
+      <c r="L60">
+        <v>266368700</v>
+      </c>
+      <c r="M60">
+        <v>-1750100</v>
+      </c>
+      <c r="N60">
+        <v>-25848551000</v>
+      </c>
+      <c r="O60">
+        <v>-31162300</v>
+      </c>
+      <c r="P60">
+        <v>-444557340000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1675163520000</v>
+      </c>
+      <c r="B61">
+        <v>3067200</v>
+      </c>
+      <c r="C61">
+        <v>715800</v>
+      </c>
+      <c r="D61">
+        <v>12700</v>
+      </c>
+      <c r="E61">
+        <v>51670633000</v>
+      </c>
+      <c r="F61">
+        <v>15503526000</v>
+      </c>
+      <c r="G61">
+        <v>175389000</v>
+      </c>
+      <c r="H61">
+        <v>3795700</v>
+      </c>
+      <c r="I61">
+        <v>67349548000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-31T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4939364407000</v>
+      </c>
+      <c r="L61">
+        <v>270164400</v>
+      </c>
+      <c r="M61">
+        <v>-2351400</v>
+      </c>
+      <c r="N61">
+        <v>-36167107000</v>
+      </c>
+      <c r="O61">
+        <v>-33513700</v>
+      </c>
+      <c r="P61">
+        <v>-480724447000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1675163640000</v>
+      </c>
+      <c r="B62">
+        <v>2338300</v>
+      </c>
+      <c r="C62">
+        <v>906600</v>
+      </c>
+      <c r="D62">
+        <v>18300</v>
+      </c>
+      <c r="E62">
+        <v>46341749000</v>
+      </c>
+      <c r="F62">
+        <v>15937871000</v>
+      </c>
+      <c r="G62">
+        <v>167932000</v>
+      </c>
+      <c r="H62">
+        <v>3263200</v>
+      </c>
+      <c r="I62">
+        <v>62447552000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-31T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>5001811959000</v>
+      </c>
+      <c r="L62">
+        <v>273427600</v>
+      </c>
+      <c r="M62">
+        <v>-1431700</v>
+      </c>
+      <c r="N62">
+        <v>-30403878000</v>
+      </c>
+      <c r="O62">
+        <v>-34945400</v>
+      </c>
+      <c r="P62">
+        <v>-511128325000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1675163760000</v>
+      </c>
+      <c r="B63">
+        <v>3620200</v>
+      </c>
+      <c r="C63">
+        <v>1106700</v>
+      </c>
+      <c r="D63">
+        <v>37700</v>
+      </c>
+      <c r="E63">
+        <v>63518562000</v>
+      </c>
+      <c r="F63">
+        <v>19309702000</v>
+      </c>
+      <c r="G63">
+        <v>549840000</v>
+      </c>
+      <c r="H63">
+        <v>4764600</v>
+      </c>
+      <c r="I63">
+        <v>83378104000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-31T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>5085190063000</v>
+      </c>
+      <c r="L63">
+        <v>278192200</v>
+      </c>
+      <c r="M63">
+        <v>-2513500</v>
+      </c>
+      <c r="N63">
+        <v>-44208860000</v>
+      </c>
+      <c r="O63">
+        <v>-37458900</v>
+      </c>
+      <c r="P63">
+        <v>-555337185000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1675163880000</v>
+      </c>
+      <c r="B64">
+        <v>2588100</v>
+      </c>
+      <c r="C64">
+        <v>1070800</v>
+      </c>
+      <c r="D64">
+        <v>1900</v>
+      </c>
+      <c r="E64">
+        <v>39198856000</v>
+      </c>
+      <c r="F64">
+        <v>21407180000</v>
+      </c>
+      <c r="G64">
+        <v>13386000</v>
+      </c>
+      <c r="H64">
+        <v>3660800</v>
+      </c>
+      <c r="I64">
+        <v>60619422000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-31T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>5145809485000</v>
+      </c>
+      <c r="L64">
+        <v>281853000</v>
+      </c>
+      <c r="M64">
+        <v>-1517300</v>
+      </c>
+      <c r="N64">
+        <v>-17791676000</v>
+      </c>
+      <c r="O64">
+        <v>-38976200</v>
+      </c>
+      <c r="P64">
+        <v>-573128861000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1675164000000</v>
+      </c>
+      <c r="B65">
+        <v>2164700</v>
+      </c>
+      <c r="C65">
+        <v>1022000</v>
+      </c>
+      <c r="D65">
+        <v>40500</v>
+      </c>
+      <c r="E65">
+        <v>37183591000</v>
+      </c>
+      <c r="F65">
+        <v>18977416000</v>
+      </c>
+      <c r="G65">
+        <v>1118816000</v>
+      </c>
+      <c r="H65">
+        <v>3227200</v>
+      </c>
+      <c r="I65">
+        <v>57279823000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-31T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>5203089308000</v>
+      </c>
+      <c r="L65">
+        <v>285080200</v>
+      </c>
+      <c r="M65">
+        <v>-1142700</v>
+      </c>
+      <c r="N65">
+        <v>-18206175000</v>
+      </c>
+      <c r="O65">
+        <v>-40118900</v>
+      </c>
+      <c r="P65">
+        <v>-591335036000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1675164120000</v>
+      </c>
+      <c r="B66">
+        <v>2013600</v>
+      </c>
+      <c r="C66">
+        <v>1184700</v>
+      </c>
+      <c r="D66">
+        <v>12600</v>
+      </c>
+      <c r="E66">
+        <v>32980861000</v>
+      </c>
+      <c r="F66">
+        <v>20686643000</v>
+      </c>
+      <c r="G66">
+        <v>61936000.00000001</v>
+      </c>
+      <c r="H66">
+        <v>3210900</v>
+      </c>
+      <c r="I66">
+        <v>53729440000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-31T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>5256818748000</v>
+      </c>
+      <c r="L66">
+        <v>288291100</v>
+      </c>
+      <c r="M66">
+        <v>-828900</v>
+      </c>
+      <c r="N66">
+        <v>-12294218000</v>
+      </c>
+      <c r="O66">
+        <v>-40947800</v>
+      </c>
+      <c r="P66">
+        <v>-603629254000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1675164240000</v>
+      </c>
+      <c r="B67">
+        <v>1863100</v>
+      </c>
+      <c r="C67">
+        <v>1201400</v>
+      </c>
+      <c r="D67">
+        <v>4900</v>
+      </c>
+      <c r="E67">
+        <v>34326497000</v>
+      </c>
+      <c r="F67">
+        <v>21262878000</v>
+      </c>
+      <c r="G67">
+        <v>107930000</v>
+      </c>
+      <c r="H67">
+        <v>3069400</v>
+      </c>
+      <c r="I67">
+        <v>55697305000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-31T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>5312516053000</v>
+      </c>
+      <c r="L67">
+        <v>291360500</v>
+      </c>
+      <c r="M67">
+        <v>-661700</v>
+      </c>
+      <c r="N67">
+        <v>-13063619000</v>
+      </c>
+      <c r="O67">
+        <v>-41609500</v>
+      </c>
+      <c r="P67">
+        <v>-616692873000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1675164360000</v>
+      </c>
+      <c r="B68">
+        <v>1493100</v>
+      </c>
+      <c r="C68">
+        <v>1011800</v>
+      </c>
+      <c r="D68">
+        <v>2600</v>
+      </c>
+      <c r="E68">
+        <v>24807576000</v>
+      </c>
+      <c r="F68">
+        <v>18089964000</v>
+      </c>
+      <c r="G68">
+        <v>116840000</v>
+      </c>
+      <c r="H68">
+        <v>2507500</v>
+      </c>
+      <c r="I68">
+        <v>43014380000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-31T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>5355530433000</v>
+      </c>
+      <c r="L68">
+        <v>293868000</v>
+      </c>
+      <c r="M68">
+        <v>-481300</v>
+      </c>
+      <c r="N68">
+        <v>-6717612000</v>
+      </c>
+      <c r="O68">
+        <v>-42090800</v>
+      </c>
+      <c r="P68">
+        <v>-623410485000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1675164480000</v>
+      </c>
+      <c r="B69">
+        <v>3390800</v>
+      </c>
+      <c r="C69">
+        <v>995100</v>
+      </c>
+      <c r="D69">
+        <v>26000</v>
+      </c>
+      <c r="E69">
+        <v>51901161000</v>
+      </c>
+      <c r="F69">
+        <v>21639676000</v>
+      </c>
+      <c r="G69">
+        <v>264160000</v>
+      </c>
+      <c r="H69">
+        <v>4411900</v>
+      </c>
+      <c r="I69">
+        <v>73804997000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-31T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>5429335430000</v>
+      </c>
+      <c r="L69">
+        <v>298279900</v>
+      </c>
+      <c r="M69">
+        <v>-2395700</v>
+      </c>
+      <c r="N69">
+        <v>-30261485000</v>
+      </c>
+      <c r="O69">
+        <v>-44486500</v>
+      </c>
+      <c r="P69">
+        <v>-653671970000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1675164600000</v>
+      </c>
+      <c r="B70">
+        <v>56000</v>
+      </c>
+      <c r="C70">
+        <v>4600</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1468775000</v>
+      </c>
+      <c r="F70">
+        <v>87140000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>60600</v>
+      </c>
+      <c r="I70">
+        <v>1555915000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-31T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>5430891345000</v>
+      </c>
+      <c r="L70">
+        <v>298340500</v>
+      </c>
+      <c r="M70">
+        <v>-51400</v>
+      </c>
+      <c r="N70">
+        <v>-1381635000</v>
+      </c>
+      <c r="O70">
+        <v>-44537900</v>
+      </c>
+      <c r="P70">
+        <v>-655053605000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1675170000000</v>
+      </c>
+      <c r="B71">
+        <v>9279300</v>
+      </c>
+      <c r="C71">
+        <v>4039500</v>
+      </c>
+      <c r="D71">
+        <v>308600</v>
+      </c>
+      <c r="E71">
+        <v>140542440000</v>
+      </c>
+      <c r="F71">
+        <v>71005540000</v>
+      </c>
+      <c r="G71">
+        <v>4644221000</v>
+      </c>
+      <c r="H71">
+        <v>13627400</v>
+      </c>
+      <c r="I71">
+        <v>216192201000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-31T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>5647083546000</v>
+      </c>
+      <c r="L71">
+        <v>311967900</v>
+      </c>
+      <c r="M71">
+        <v>-5239800</v>
+      </c>
+      <c r="N71">
+        <v>-69536900000</v>
+      </c>
+      <c r="O71">
+        <v>-49777700</v>
+      </c>
+      <c r="P71">
+        <v>-724590505000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1675170120000</v>
+      </c>
+      <c r="B72">
+        <v>5322300</v>
+      </c>
+      <c r="C72">
+        <v>1532000</v>
+      </c>
+      <c r="D72">
+        <v>102800</v>
+      </c>
+      <c r="E72">
+        <v>81120492000</v>
+      </c>
+      <c r="F72">
+        <v>27517129000</v>
+      </c>
+      <c r="G72">
+        <v>569990000</v>
+      </c>
+      <c r="H72">
+        <v>6957100</v>
+      </c>
+      <c r="I72">
+        <v>109207611000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-31T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>5756291157000</v>
+      </c>
+      <c r="L72">
+        <v>318925000</v>
+      </c>
+      <c r="M72">
+        <v>-3790300</v>
+      </c>
+      <c r="N72">
+        <v>-53603363000</v>
+      </c>
+      <c r="O72">
+        <v>-53568000</v>
+      </c>
+      <c r="P72">
+        <v>-778193868000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1675170240000</v>
+      </c>
+      <c r="B73">
+        <v>4328800</v>
+      </c>
+      <c r="C73">
+        <v>3655000</v>
+      </c>
+      <c r="D73">
+        <v>34400</v>
+      </c>
+      <c r="E73">
+        <v>69873780000</v>
+      </c>
+      <c r="F73">
+        <v>73344830000</v>
+      </c>
+      <c r="G73">
+        <v>1127676000</v>
+      </c>
+      <c r="H73">
+        <v>8018200</v>
+      </c>
+      <c r="I73">
+        <v>144346286000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-31T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>5900637443000</v>
+      </c>
+      <c r="L73">
+        <v>326943200</v>
+      </c>
+      <c r="M73">
+        <v>-673800</v>
+      </c>
+      <c r="N73">
+        <v>3471050000</v>
+      </c>
+      <c r="O73">
+        <v>-54241800</v>
+      </c>
+      <c r="P73">
+        <v>-774722818000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1675170360000</v>
+      </c>
+      <c r="B74">
+        <v>2432400</v>
+      </c>
+      <c r="C74">
+        <v>2979900</v>
+      </c>
+      <c r="D74">
+        <v>70800</v>
+      </c>
+      <c r="E74">
+        <v>46262330000</v>
+      </c>
+      <c r="F74">
+        <v>51974497000</v>
+      </c>
+      <c r="G74">
+        <v>1189879000</v>
+      </c>
+      <c r="H74">
+        <v>5483100</v>
+      </c>
+      <c r="I74">
+        <v>99426706000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-31T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>6000064149000</v>
+      </c>
+      <c r="L74">
+        <v>332426300</v>
+      </c>
+      <c r="M74">
+        <v>547500</v>
+      </c>
+      <c r="N74">
+        <v>5712167000</v>
+      </c>
+      <c r="O74">
+        <v>-53694300</v>
+      </c>
+      <c r="P74">
+        <v>-769010651000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1675170480000</v>
+      </c>
+      <c r="B75">
+        <v>2430600</v>
+      </c>
+      <c r="C75">
+        <v>2959600</v>
+      </c>
+      <c r="D75">
+        <v>29600</v>
+      </c>
+      <c r="E75">
+        <v>38629958000</v>
+      </c>
+      <c r="F75">
+        <v>54490089000</v>
+      </c>
+      <c r="G75">
+        <v>183215000</v>
+      </c>
+      <c r="H75">
+        <v>5419800</v>
+      </c>
+      <c r="I75">
+        <v>93303262000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-31T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>6093367411000</v>
+      </c>
+      <c r="L75">
+        <v>337846100</v>
+      </c>
+      <c r="M75">
+        <v>529000</v>
+      </c>
+      <c r="N75">
+        <v>15860131000</v>
+      </c>
+      <c r="O75">
+        <v>-53165300</v>
+      </c>
+      <c r="P75">
+        <v>-753150520000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1675170600000</v>
+      </c>
+      <c r="B76">
+        <v>2721700</v>
+      </c>
+      <c r="C76">
+        <v>2523500</v>
+      </c>
+      <c r="D76">
+        <v>53200</v>
+      </c>
+      <c r="E76">
+        <v>47123600000</v>
+      </c>
+      <c r="F76">
+        <v>45313971000</v>
+      </c>
+      <c r="G76">
+        <v>1069570000</v>
+      </c>
+      <c r="H76">
+        <v>5298400</v>
+      </c>
+      <c r="I76">
+        <v>93507141000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-31T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>6186874552000</v>
+      </c>
+      <c r="L76">
+        <v>343144500</v>
+      </c>
+      <c r="M76">
+        <v>-198200</v>
+      </c>
+      <c r="N76">
+        <v>-1809629000</v>
+      </c>
+      <c r="O76">
+        <v>-53363500</v>
+      </c>
+      <c r="P76">
+        <v>-754960149000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1675170720000</v>
+      </c>
+      <c r="B77">
+        <v>1828700</v>
+      </c>
+      <c r="C77">
+        <v>2432800</v>
+      </c>
+      <c r="D77">
+        <v>16600</v>
+      </c>
+      <c r="E77">
+        <v>31564556000</v>
+      </c>
+      <c r="F77">
+        <v>44077631000</v>
+      </c>
+      <c r="G77">
+        <v>259835000</v>
+      </c>
+      <c r="H77">
+        <v>4278100</v>
+      </c>
+      <c r="I77">
+        <v>75902022000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-31T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>6262776574000</v>
+      </c>
+      <c r="L77">
+        <v>347422600</v>
+      </c>
+      <c r="M77">
+        <v>604100</v>
+      </c>
+      <c r="N77">
+        <v>12513075000</v>
+      </c>
+      <c r="O77">
+        <v>-52759400</v>
+      </c>
+      <c r="P77">
+        <v>-742447074000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1675170840000</v>
+      </c>
+      <c r="B78">
+        <v>1870300</v>
+      </c>
+      <c r="C78">
+        <v>2892200</v>
+      </c>
+      <c r="D78">
+        <v>26600</v>
+      </c>
+      <c r="E78">
+        <v>30508079000</v>
+      </c>
+      <c r="F78">
+        <v>52647855000</v>
+      </c>
+      <c r="G78">
+        <v>199539000</v>
+      </c>
+      <c r="H78">
+        <v>4789100</v>
+      </c>
+      <c r="I78">
+        <v>83355473000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-31T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>6346132047000</v>
+      </c>
+      <c r="L78">
+        <v>352211700</v>
+      </c>
+      <c r="M78">
+        <v>1021900</v>
+      </c>
+      <c r="N78">
+        <v>22139776000</v>
+      </c>
+      <c r="O78">
+        <v>-51737500</v>
+      </c>
+      <c r="P78">
+        <v>-720307298000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1675170960000</v>
+      </c>
+      <c r="B79">
+        <v>2832100</v>
+      </c>
+      <c r="C79">
+        <v>4005500</v>
+      </c>
+      <c r="D79">
+        <v>4900</v>
+      </c>
+      <c r="E79">
+        <v>52183868000</v>
+      </c>
+      <c r="F79">
+        <v>70017648000</v>
+      </c>
+      <c r="G79">
+        <v>51899000</v>
+      </c>
+      <c r="H79">
+        <v>6842500</v>
+      </c>
+      <c r="I79">
+        <v>122253415000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-31T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>6468385462000</v>
+      </c>
+      <c r="L79">
+        <v>359054200</v>
+      </c>
+      <c r="M79">
+        <v>1173400</v>
+      </c>
+      <c r="N79">
+        <v>17833780000</v>
+      </c>
+      <c r="O79">
+        <v>-50564100</v>
+      </c>
+      <c r="P79">
+        <v>-702473518000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1675171080000</v>
+      </c>
+      <c r="B80">
+        <v>1386800</v>
+      </c>
+      <c r="C80">
+        <v>4250300</v>
+      </c>
+      <c r="D80">
+        <v>33200</v>
+      </c>
+      <c r="E80">
+        <v>21722018000</v>
+      </c>
+      <c r="F80">
+        <v>76984617000</v>
+      </c>
+      <c r="G80">
+        <v>600619000</v>
+      </c>
+      <c r="H80">
+        <v>5670300</v>
+      </c>
+      <c r="I80">
+        <v>99307254000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-31T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>6567692716000</v>
+      </c>
+      <c r="L80">
+        <v>364724500</v>
+      </c>
+      <c r="M80">
+        <v>2863500</v>
+      </c>
+      <c r="N80">
+        <v>55262599000</v>
+      </c>
+      <c r="O80">
+        <v>-47700600</v>
+      </c>
+      <c r="P80">
+        <v>-647210919000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1675171200000</v>
+      </c>
+      <c r="B81">
+        <v>1435100</v>
+      </c>
+      <c r="C81">
+        <v>4879000</v>
+      </c>
+      <c r="D81">
+        <v>32100</v>
+      </c>
+      <c r="E81">
+        <v>25616412000</v>
+      </c>
+      <c r="F81">
+        <v>87406117000</v>
+      </c>
+      <c r="G81">
+        <v>618572000</v>
+      </c>
+      <c r="H81">
+        <v>6346200</v>
+      </c>
+      <c r="I81">
+        <v>113641101000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-31T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>6681333817000</v>
+      </c>
+      <c r="L81">
+        <v>371070700</v>
+      </c>
+      <c r="M81">
+        <v>3443900</v>
+      </c>
+      <c r="N81">
+        <v>61789705000</v>
+      </c>
+      <c r="O81">
+        <v>-44256700</v>
+      </c>
+      <c r="P81">
+        <v>-585421214000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1675171320000</v>
+      </c>
+      <c r="B82">
+        <v>2389000</v>
+      </c>
+      <c r="C82">
+        <v>4619800</v>
+      </c>
+      <c r="D82">
+        <v>11300</v>
+      </c>
+      <c r="E82">
+        <v>43973507000</v>
+      </c>
+      <c r="F82">
+        <v>82916030000</v>
+      </c>
+      <c r="G82">
+        <v>158284000</v>
+      </c>
+      <c r="H82">
+        <v>7020100</v>
+      </c>
+      <c r="I82">
+        <v>127047821000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-31T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>6808381638000</v>
+      </c>
+      <c r="L82">
+        <v>378090800</v>
+      </c>
+      <c r="M82">
+        <v>2230800</v>
+      </c>
+      <c r="N82">
+        <v>38942523000</v>
+      </c>
+      <c r="O82">
+        <v>-42025900</v>
+      </c>
+      <c r="P82">
+        <v>-546478691000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1675171440000</v>
+      </c>
+      <c r="B83">
+        <v>2449900</v>
+      </c>
+      <c r="C83">
+        <v>3316100</v>
+      </c>
+      <c r="D83">
+        <v>19400</v>
+      </c>
+      <c r="E83">
+        <v>49053793000</v>
+      </c>
+      <c r="F83">
+        <v>63201505000</v>
+      </c>
+      <c r="G83">
+        <v>546905000</v>
+      </c>
+      <c r="H83">
+        <v>5785400</v>
+      </c>
+      <c r="I83">
+        <v>112802203000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-31T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>6921183841000</v>
+      </c>
+      <c r="L83">
+        <v>383876200</v>
+      </c>
+      <c r="M83">
+        <v>866200</v>
+      </c>
+      <c r="N83">
+        <v>14147712000</v>
+      </c>
+      <c r="O83">
+        <v>-41159700</v>
+      </c>
+      <c r="P83">
+        <v>-532330979000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1675171560000</v>
+      </c>
+      <c r="B84">
+        <v>2293700</v>
+      </c>
+      <c r="C84">
+        <v>2587400</v>
+      </c>
+      <c r="D84">
+        <v>22700</v>
+      </c>
+      <c r="E84">
+        <v>41938912000</v>
+      </c>
+      <c r="F84">
+        <v>50060696000</v>
+      </c>
+      <c r="G84">
+        <v>359792000</v>
+      </c>
+      <c r="H84">
+        <v>4903800</v>
+      </c>
+      <c r="I84">
+        <v>92359400000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-31T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>7013543241000</v>
+      </c>
+      <c r="L84">
+        <v>388780000</v>
+      </c>
+      <c r="M84">
+        <v>293700</v>
+      </c>
+      <c r="N84">
+        <v>8121784000</v>
+      </c>
+      <c r="O84">
+        <v>-40866000</v>
+      </c>
+      <c r="P84">
+        <v>-524209195000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1675171680000</v>
+      </c>
+      <c r="B85">
+        <v>2109500</v>
+      </c>
+      <c r="C85">
+        <v>2142700</v>
+      </c>
+      <c r="D85">
+        <v>14600</v>
+      </c>
+      <c r="E85">
+        <v>41271203000</v>
+      </c>
+      <c r="F85">
+        <v>41926887000</v>
+      </c>
+      <c r="G85">
+        <v>215171000</v>
+      </c>
+      <c r="H85">
+        <v>4266800</v>
+      </c>
+      <c r="I85">
+        <v>83413261000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-31T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>7096956502000</v>
+      </c>
+      <c r="L85">
+        <v>393046800</v>
+      </c>
+      <c r="M85">
+        <v>33200</v>
+      </c>
+      <c r="N85">
+        <v>655684000</v>
+      </c>
+      <c r="O85">
+        <v>-40832800</v>
+      </c>
+      <c r="P85">
+        <v>-523553511000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1675171800000</v>
+      </c>
+      <c r="B86">
+        <v>1787200</v>
+      </c>
+      <c r="C86">
+        <v>2237300</v>
+      </c>
+      <c r="D86">
+        <v>20300</v>
+      </c>
+      <c r="E86">
+        <v>31832975000</v>
+      </c>
+      <c r="F86">
+        <v>39727736000</v>
+      </c>
+      <c r="G86">
+        <v>440390000</v>
+      </c>
+      <c r="H86">
+        <v>4044800</v>
+      </c>
+      <c r="I86">
+        <v>72001101000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-31T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>7168957603000</v>
+      </c>
+      <c r="L86">
+        <v>397091600</v>
+      </c>
+      <c r="M86">
+        <v>450100</v>
+      </c>
+      <c r="N86">
+        <v>7894761000</v>
+      </c>
+      <c r="O86">
+        <v>-40382700</v>
+      </c>
+      <c r="P86">
+        <v>-515658750000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1675171920000</v>
+      </c>
+      <c r="B87">
+        <v>2365600</v>
+      </c>
+      <c r="C87">
+        <v>4339100</v>
+      </c>
+      <c r="D87">
+        <v>1000</v>
+      </c>
+      <c r="E87">
+        <v>47948879000</v>
+      </c>
+      <c r="F87">
+        <v>78053231000</v>
+      </c>
+      <c r="G87">
+        <v>17985000</v>
+      </c>
+      <c r="H87">
+        <v>6705700</v>
+      </c>
+      <c r="I87">
+        <v>126020095000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-31T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>7294977698000</v>
+      </c>
+      <c r="L87">
+        <v>403797300</v>
+      </c>
+      <c r="M87">
+        <v>1973500</v>
+      </c>
+      <c r="N87">
+        <v>30104352000</v>
+      </c>
+      <c r="O87">
+        <v>-38409200</v>
+      </c>
+      <c r="P87">
+        <v>-485554398000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1675172040000</v>
+      </c>
+      <c r="B88">
+        <v>2207300</v>
+      </c>
+      <c r="C88">
+        <v>3668100</v>
+      </c>
+      <c r="D88">
+        <v>56500</v>
+      </c>
+      <c r="E88">
+        <v>43114808000</v>
+      </c>
+      <c r="F88">
+        <v>68453062000</v>
+      </c>
+      <c r="G88">
+        <v>909787000</v>
+      </c>
+      <c r="H88">
+        <v>5931900</v>
+      </c>
+      <c r="I88">
+        <v>112477657000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-31T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>7407455355000</v>
+      </c>
+      <c r="L88">
+        <v>409729200</v>
+      </c>
+      <c r="M88">
+        <v>1460800</v>
+      </c>
+      <c r="N88">
+        <v>25338254000</v>
+      </c>
+      <c r="O88">
+        <v>-36948400</v>
+      </c>
+      <c r="P88">
+        <v>-460216144000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1675172160000</v>
+      </c>
+      <c r="B89">
+        <v>2167500</v>
+      </c>
+      <c r="C89">
+        <v>2765700</v>
+      </c>
+      <c r="D89">
+        <v>18500</v>
+      </c>
+      <c r="E89">
+        <v>42455619000</v>
+      </c>
+      <c r="F89">
+        <v>52202506000</v>
+      </c>
+      <c r="G89">
+        <v>548230000</v>
+      </c>
+      <c r="H89">
+        <v>4951700</v>
+      </c>
+      <c r="I89">
+        <v>95206355000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-31T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>7502661710000</v>
+      </c>
+      <c r="L89">
+        <v>414680900</v>
+      </c>
+      <c r="M89">
+        <v>598200</v>
+      </c>
+      <c r="N89">
+        <v>9746887000</v>
+      </c>
+      <c r="O89">
+        <v>-36350200</v>
+      </c>
+      <c r="P89">
+        <v>-450469257000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1675172280000</v>
+      </c>
+      <c r="B90">
+        <v>1381300</v>
+      </c>
+      <c r="C90">
+        <v>2944600</v>
+      </c>
+      <c r="D90">
+        <v>21700</v>
+      </c>
+      <c r="E90">
+        <v>26917337000</v>
+      </c>
+      <c r="F90">
+        <v>50192501000</v>
+      </c>
+      <c r="G90">
+        <v>674075000</v>
+      </c>
+      <c r="H90">
+        <v>4347600</v>
+      </c>
+      <c r="I90">
+        <v>77783913000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-31T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>7580445623000</v>
+      </c>
+      <c r="L90">
+        <v>419028500</v>
+      </c>
+      <c r="M90">
+        <v>1563300</v>
+      </c>
+      <c r="N90">
+        <v>23275164000</v>
+      </c>
+      <c r="O90">
+        <v>-34786900</v>
+      </c>
+      <c r="P90">
+        <v>-427194093000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1675172400000</v>
+      </c>
+      <c r="B91">
+        <v>2272300</v>
+      </c>
+      <c r="C91">
+        <v>2074500</v>
+      </c>
+      <c r="D91">
+        <v>7100</v>
+      </c>
+      <c r="E91">
+        <v>48246920000</v>
+      </c>
+      <c r="F91">
+        <v>38565956000</v>
+      </c>
+      <c r="G91">
+        <v>502764000</v>
+      </c>
+      <c r="H91">
+        <v>4353900</v>
+      </c>
+      <c r="I91">
+        <v>87315640000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-31T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>7667761263000</v>
+      </c>
+      <c r="L91">
+        <v>423382400</v>
+      </c>
+      <c r="M91">
+        <v>-197800</v>
+      </c>
+      <c r="N91">
+        <v>-9680964000</v>
+      </c>
+      <c r="O91">
+        <v>-34984700</v>
+      </c>
+      <c r="P91">
+        <v>-436875057000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1675172520000</v>
+      </c>
+      <c r="B92">
+        <v>3687000</v>
+      </c>
+      <c r="C92">
+        <v>1974600</v>
+      </c>
+      <c r="D92">
+        <v>5800</v>
+      </c>
+      <c r="E92">
+        <v>64567270000</v>
+      </c>
+      <c r="F92">
+        <v>34713766000</v>
+      </c>
+      <c r="G92">
+        <v>108888000</v>
+      </c>
+      <c r="H92">
+        <v>5667400</v>
+      </c>
+      <c r="I92">
+        <v>99389924000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-31T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>7767151187000</v>
+      </c>
+      <c r="L92">
+        <v>429049800</v>
+      </c>
+      <c r="M92">
+        <v>-1712400</v>
+      </c>
+      <c r="N92">
+        <v>-29853504000</v>
+      </c>
+      <c r="O92">
+        <v>-36697100</v>
+      </c>
+      <c r="P92">
+        <v>-466728561000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1675172640000</v>
+      </c>
+      <c r="B93">
+        <v>2622200</v>
+      </c>
+      <c r="C93">
+        <v>2269100</v>
+      </c>
+      <c r="D93">
+        <v>48900</v>
+      </c>
+      <c r="E93">
+        <v>41226066000</v>
+      </c>
+      <c r="F93">
+        <v>51381638000</v>
+      </c>
+      <c r="G93">
+        <v>254356000</v>
+      </c>
+      <c r="H93">
+        <v>4940200</v>
+      </c>
+      <c r="I93">
+        <v>92862060000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-31T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>7860013247000</v>
+      </c>
+      <c r="L93">
+        <v>433990000</v>
+      </c>
+      <c r="M93">
+        <v>-353100</v>
+      </c>
+      <c r="N93">
+        <v>10155572000</v>
+      </c>
+      <c r="O93">
+        <v>-37050200</v>
+      </c>
+      <c r="P93">
+        <v>-456572989000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1675172760000</v>
+      </c>
+      <c r="B94">
+        <v>1599300</v>
+      </c>
+      <c r="C94">
+        <v>4194600</v>
+      </c>
+      <c r="D94">
+        <v>35200</v>
+      </c>
+      <c r="E94">
+        <v>25379745000</v>
+      </c>
+      <c r="F94">
+        <v>91611903000</v>
+      </c>
+      <c r="G94">
+        <v>701880000</v>
+      </c>
+      <c r="H94">
+        <v>5829100</v>
+      </c>
+      <c r="I94">
+        <v>117693528000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-31T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>7977706775000</v>
+      </c>
+      <c r="L94">
+        <v>439819100</v>
+      </c>
+      <c r="M94">
+        <v>2595300</v>
+      </c>
+      <c r="N94">
+        <v>66232158000</v>
+      </c>
+      <c r="O94">
+        <v>-34454900</v>
+      </c>
+      <c r="P94">
+        <v>-390340831000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1675172880000</v>
+      </c>
+      <c r="B95">
+        <v>1765600</v>
+      </c>
+      <c r="C95">
+        <v>6147000</v>
+      </c>
+      <c r="D95">
+        <v>36500</v>
+      </c>
+      <c r="E95">
+        <v>29804690000</v>
+      </c>
+      <c r="F95">
+        <v>121375640000</v>
+      </c>
+      <c r="G95">
+        <v>921218000</v>
+      </c>
+      <c r="H95">
+        <v>7949100</v>
+      </c>
+      <c r="I95">
+        <v>152101548000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-31T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>8129808323000</v>
+      </c>
+      <c r="L95">
+        <v>447768200</v>
+      </c>
+      <c r="M95">
+        <v>4381400</v>
+      </c>
+      <c r="N95">
+        <v>91570950000</v>
+      </c>
+      <c r="O95">
+        <v>-30073500</v>
+      </c>
+      <c r="P95">
+        <v>-298769881000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1675173000000</v>
+      </c>
+      <c r="B96">
+        <v>1554500</v>
+      </c>
+      <c r="C96">
+        <v>8839300</v>
+      </c>
+      <c r="D96">
+        <v>97600</v>
+      </c>
+      <c r="E96">
+        <v>28902063000</v>
+      </c>
+      <c r="F96">
+        <v>169468240000</v>
+      </c>
+      <c r="G96">
+        <v>1040155000</v>
+      </c>
+      <c r="H96">
+        <v>10491400</v>
+      </c>
+      <c r="I96">
+        <v>199410458000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-31T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>8329218781000</v>
+      </c>
+      <c r="L96">
+        <v>458259600</v>
+      </c>
+      <c r="M96">
+        <v>7284800</v>
+      </c>
+      <c r="N96">
+        <v>140566177000</v>
+      </c>
+      <c r="O96">
+        <v>-22788700</v>
+      </c>
+      <c r="P96">
+        <v>-158203704000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1675173120000</v>
+      </c>
+      <c r="B97">
+        <v>2842600</v>
+      </c>
+      <c r="C97">
+        <v>9920100</v>
+      </c>
+      <c r="D97">
+        <v>119800</v>
+      </c>
+      <c r="E97">
+        <v>55757377000</v>
+      </c>
+      <c r="F97">
+        <v>179497958000</v>
+      </c>
+      <c r="G97">
+        <v>1248210000</v>
+      </c>
+      <c r="H97">
+        <v>12882500</v>
+      </c>
+      <c r="I97">
+        <v>236503545000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-31T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>8565722326000</v>
+      </c>
+      <c r="L97">
+        <v>471142100</v>
+      </c>
+      <c r="M97">
+        <v>7077500</v>
+      </c>
+      <c r="N97">
+        <v>123740581000</v>
+      </c>
+      <c r="O97">
+        <v>-15711200</v>
+      </c>
+      <c r="P97">
+        <v>-34463123000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1675173240000</v>
+      </c>
+      <c r="B98">
+        <v>4318300</v>
+      </c>
+      <c r="C98">
+        <v>3032900</v>
+      </c>
+      <c r="D98">
+        <v>49500</v>
+      </c>
+      <c r="E98">
+        <v>74486508000</v>
+      </c>
+      <c r="F98">
+        <v>55273049000</v>
+      </c>
+      <c r="G98">
+        <v>1028411000</v>
+      </c>
+      <c r="H98">
+        <v>7400700</v>
+      </c>
+      <c r="I98">
+        <v>130787968000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-31T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>8696510294000</v>
+      </c>
+      <c r="L98">
+        <v>478542800</v>
+      </c>
+      <c r="M98">
+        <v>-1285400</v>
+      </c>
+      <c r="N98">
+        <v>-19213459000</v>
+      </c>
+      <c r="O98">
+        <v>-16996600</v>
+      </c>
+      <c r="P98">
+        <v>-53676582000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1675173360000</v>
+      </c>
+      <c r="B99">
+        <v>3456600</v>
+      </c>
+      <c r="C99">
+        <v>2060400</v>
+      </c>
+      <c r="D99">
+        <v>10800</v>
+      </c>
+      <c r="E99">
+        <v>59871693000</v>
+      </c>
+      <c r="F99">
+        <v>31070528000</v>
+      </c>
+      <c r="G99">
+        <v>100964000</v>
+      </c>
+      <c r="H99">
+        <v>5527800</v>
+      </c>
+      <c r="I99">
+        <v>91043185000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-31T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>8787553479000</v>
+      </c>
+      <c r="L99">
+        <v>484070600</v>
+      </c>
+      <c r="M99">
+        <v>-1396200</v>
+      </c>
+      <c r="N99">
+        <v>-28801165000</v>
+      </c>
+      <c r="O99">
+        <v>-18392800</v>
+      </c>
+      <c r="P99">
+        <v>-82477747000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1675173480000</v>
+      </c>
+      <c r="B100">
+        <v>3807100</v>
+      </c>
+      <c r="C100">
+        <v>1594800</v>
+      </c>
+      <c r="D100">
+        <v>5200</v>
+      </c>
+      <c r="E100">
+        <v>68328988000</v>
+      </c>
+      <c r="F100">
+        <v>29268166000</v>
+      </c>
+      <c r="G100">
+        <v>180323000</v>
+      </c>
+      <c r="H100">
+        <v>5407100</v>
+      </c>
+      <c r="I100">
+        <v>97777477000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-31T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>8885330956000</v>
+      </c>
+      <c r="L100">
+        <v>489477700</v>
+      </c>
+      <c r="M100">
+        <v>-2212300</v>
+      </c>
+      <c r="N100">
+        <v>-39060822000</v>
+      </c>
+      <c r="O100">
+        <v>-20605100</v>
+      </c>
+      <c r="P100">
+        <v>-121538569000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1675173600000</v>
+      </c>
+      <c r="B101">
+        <v>3156200</v>
+      </c>
+      <c r="C101">
+        <v>1259600</v>
+      </c>
+      <c r="D101">
+        <v>35100</v>
+      </c>
+      <c r="E101">
+        <v>54672005000</v>
+      </c>
+      <c r="F101">
+        <v>24877307000</v>
+      </c>
+      <c r="G101">
+        <v>292719000</v>
+      </c>
+      <c r="H101">
+        <v>4450900</v>
+      </c>
+      <c r="I101">
+        <v>79842031000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-31T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>8965172987000</v>
+      </c>
+      <c r="L101">
+        <v>493928600</v>
+      </c>
+      <c r="M101">
+        <v>-1896600</v>
+      </c>
+      <c r="N101">
+        <v>-29794698000</v>
+      </c>
+      <c r="O101">
+        <v>-22501700</v>
+      </c>
+      <c r="P101">
+        <v>-151333267000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1675173720000</v>
+      </c>
+      <c r="B102">
+        <v>1796100</v>
+      </c>
+      <c r="C102">
+        <v>3588200</v>
+      </c>
+      <c r="D102">
+        <v>91600</v>
+      </c>
+      <c r="E102">
+        <v>30407718000</v>
+      </c>
+      <c r="F102">
+        <v>74331883000</v>
+      </c>
+      <c r="G102">
+        <v>873757000</v>
+      </c>
+      <c r="H102">
+        <v>5475900</v>
+      </c>
+      <c r="I102">
+        <v>105613358000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-31T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>9070786345000</v>
+      </c>
+      <c r="L102">
+        <v>499404500</v>
+      </c>
+      <c r="M102">
+        <v>1792100</v>
+      </c>
+      <c r="N102">
+        <v>43924165000</v>
+      </c>
+      <c r="O102">
+        <v>-20709600</v>
+      </c>
+      <c r="P102">
+        <v>-107409102000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1675173840000</v>
+      </c>
+      <c r="B103">
+        <v>1006400</v>
+      </c>
+      <c r="C103">
+        <v>2555300</v>
+      </c>
+      <c r="D103">
+        <v>600</v>
+      </c>
+      <c r="E103">
+        <v>21784938000</v>
+      </c>
+      <c r="F103">
+        <v>51362440000</v>
+      </c>
+      <c r="G103">
+        <v>22800000</v>
+      </c>
+      <c r="H103">
+        <v>3562300</v>
+      </c>
+      <c r="I103">
+        <v>73170178000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-31T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>9143956523000</v>
+      </c>
+      <c r="L103">
+        <v>502966800</v>
+      </c>
+      <c r="M103">
+        <v>1548900</v>
+      </c>
+      <c r="N103">
+        <v>29577502000</v>
+      </c>
+      <c r="O103">
+        <v>-19160700</v>
+      </c>
+      <c r="P103">
+        <v>-77831600000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1675173960000</v>
+      </c>
+      <c r="B104">
+        <v>3275600</v>
+      </c>
+      <c r="C104">
+        <v>2146700</v>
+      </c>
+      <c r="D104">
+        <v>5200</v>
+      </c>
+      <c r="E104">
+        <v>72105628000</v>
+      </c>
+      <c r="F104">
+        <v>39850366000</v>
+      </c>
+      <c r="G104">
+        <v>126679000</v>
+      </c>
+      <c r="H104">
+        <v>5427500</v>
+      </c>
+      <c r="I104">
+        <v>112082673000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-31T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>9256039196000</v>
+      </c>
+      <c r="L104">
+        <v>508394300</v>
+      </c>
+      <c r="M104">
+        <v>-1128900</v>
+      </c>
+      <c r="N104">
+        <v>-32255262000</v>
+      </c>
+      <c r="O104">
+        <v>-20289600</v>
+      </c>
+      <c r="P104">
+        <v>-110086862000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1675174080000</v>
+      </c>
+      <c r="B105">
+        <v>2601300</v>
+      </c>
+      <c r="C105">
+        <v>1270600</v>
+      </c>
+      <c r="D105">
+        <v>41600</v>
+      </c>
+      <c r="E105">
+        <v>42035612000</v>
+      </c>
+      <c r="F105">
+        <v>27556990000</v>
+      </c>
+      <c r="G105">
+        <v>481697000</v>
+      </c>
+      <c r="H105">
+        <v>3913500</v>
+      </c>
+      <c r="I105">
+        <v>70074299000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-31T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>9326113495000</v>
+      </c>
+      <c r="L105">
+        <v>512307800</v>
+      </c>
+      <c r="M105">
+        <v>-1330700</v>
+      </c>
+      <c r="N105">
+        <v>-14478622000</v>
+      </c>
+      <c r="O105">
+        <v>-21620300</v>
+      </c>
+      <c r="P105">
+        <v>-124565484000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1675174200000</v>
+      </c>
+      <c r="B106">
+        <v>2205500</v>
+      </c>
+      <c r="C106">
+        <v>2017000</v>
+      </c>
+      <c r="D106">
+        <v>11800</v>
+      </c>
+      <c r="E106">
+        <v>53746932000</v>
+      </c>
+      <c r="F106">
+        <v>36934794000</v>
+      </c>
+      <c r="G106">
+        <v>179131000</v>
+      </c>
+      <c r="H106">
+        <v>4234300</v>
+      </c>
+      <c r="I106">
+        <v>90860857000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-31T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>9416974352000</v>
+      </c>
+      <c r="L106">
+        <v>516542100</v>
+      </c>
+      <c r="M106">
+        <v>-188500</v>
+      </c>
+      <c r="N106">
+        <v>-16812138000</v>
+      </c>
+      <c r="O106">
+        <v>-21808800</v>
+      </c>
+      <c r="P106">
+        <v>-141377622000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1675174320000</v>
+      </c>
+      <c r="B107">
+        <v>3092900</v>
+      </c>
+      <c r="C107">
+        <v>2305100</v>
+      </c>
+      <c r="D107">
+        <v>4500</v>
+      </c>
+      <c r="E107">
+        <v>65986323000</v>
+      </c>
+      <c r="F107">
+        <v>52235549000</v>
+      </c>
+      <c r="G107">
+        <v>97898000</v>
+      </c>
+      <c r="H107">
+        <v>5402500</v>
+      </c>
+      <c r="I107">
+        <v>118319770000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-31T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>9535294122000</v>
+      </c>
+      <c r="L107">
+        <v>521944600</v>
+      </c>
+      <c r="M107">
+        <v>-787800</v>
+      </c>
+      <c r="N107">
+        <v>-13750774000</v>
+      </c>
+      <c r="O107">
+        <v>-22596600</v>
+      </c>
+      <c r="P107">
+        <v>-155128396000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1675174440000</v>
+      </c>
+      <c r="B108">
+        <v>2189900</v>
+      </c>
+      <c r="C108">
+        <v>2572400</v>
+      </c>
+      <c r="D108">
+        <v>17500</v>
+      </c>
+      <c r="E108">
+        <v>46592159000</v>
+      </c>
+      <c r="F108">
+        <v>63854349000</v>
+      </c>
+      <c r="G108">
+        <v>412130000</v>
+      </c>
+      <c r="H108">
+        <v>4779800</v>
+      </c>
+      <c r="I108">
+        <v>110858638000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-31T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>9646152760000</v>
+      </c>
+      <c r="L108">
+        <v>526724400</v>
+      </c>
+      <c r="M108">
+        <v>382500</v>
+      </c>
+      <c r="N108">
+        <v>17262190000</v>
+      </c>
+      <c r="O108">
+        <v>-22214100</v>
+      </c>
+      <c r="P108">
+        <v>-137866206000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1675174560000</v>
+      </c>
+      <c r="B109">
+        <v>1870000</v>
+      </c>
+      <c r="C109">
+        <v>3894500</v>
+      </c>
+      <c r="D109">
+        <v>32300</v>
+      </c>
+      <c r="E109">
+        <v>40033202000</v>
+      </c>
+      <c r="F109">
+        <v>90359426000</v>
+      </c>
+      <c r="G109">
+        <v>1854709000</v>
+      </c>
+      <c r="H109">
+        <v>5796800</v>
+      </c>
+      <c r="I109">
+        <v>132247337000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-31T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>9778400097000</v>
+      </c>
+      <c r="L109">
+        <v>532521200</v>
+      </c>
+      <c r="M109">
+        <v>2024500</v>
+      </c>
+      <c r="N109">
+        <v>50326224000</v>
+      </c>
+      <c r="O109">
+        <v>-20189600</v>
+      </c>
+      <c r="P109">
+        <v>-87539982000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1675174680000</v>
+      </c>
+      <c r="B110">
+        <v>1673200</v>
+      </c>
+      <c r="C110">
+        <v>3160400</v>
+      </c>
+      <c r="D110">
+        <v>17000</v>
+      </c>
+      <c r="E110">
+        <v>30574346000</v>
+      </c>
+      <c r="F110">
+        <v>84534774000</v>
+      </c>
+      <c r="G110">
+        <v>778510000</v>
+      </c>
+      <c r="H110">
+        <v>4850600</v>
+      </c>
+      <c r="I110">
+        <v>115887630000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-31T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>9894287727000</v>
+      </c>
+      <c r="L110">
+        <v>537371800</v>
+      </c>
+      <c r="M110">
+        <v>1487200</v>
+      </c>
+      <c r="N110">
+        <v>53960428000</v>
+      </c>
+      <c r="O110">
+        <v>-18702400</v>
+      </c>
+      <c r="P110">
+        <v>-33579554000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1675174800000</v>
+      </c>
+      <c r="B111">
+        <v>1552600</v>
+      </c>
+      <c r="C111">
+        <v>4898300</v>
+      </c>
+      <c r="D111">
+        <v>13900</v>
+      </c>
+      <c r="E111">
+        <v>33371960000</v>
+      </c>
+      <c r="F111">
+        <v>101439879000</v>
+      </c>
+      <c r="G111">
+        <v>300386000</v>
+      </c>
+      <c r="H111">
+        <v>6464800</v>
+      </c>
+      <c r="I111">
+        <v>135112225000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-31T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>10029399952000</v>
+      </c>
+      <c r="L111">
+        <v>543836600</v>
+      </c>
+      <c r="M111">
+        <v>3345700</v>
+      </c>
+      <c r="N111">
+        <v>68067919000</v>
+      </c>
+      <c r="O111">
+        <v>-15356700</v>
+      </c>
+      <c r="P111">
+        <v>34488365000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1675174920000</v>
+      </c>
+      <c r="B112">
+        <v>2410400</v>
+      </c>
+      <c r="C112">
+        <v>6858700</v>
+      </c>
+      <c r="D112">
+        <v>44000</v>
+      </c>
+      <c r="E112">
+        <v>46442058000</v>
+      </c>
+      <c r="F112">
+        <v>139056146000</v>
+      </c>
+      <c r="G112">
+        <v>2092668000</v>
+      </c>
+      <c r="H112">
+        <v>9313100</v>
+      </c>
+      <c r="I112">
+        <v>187590872000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-31T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>10216990824000</v>
+      </c>
+      <c r="L112">
+        <v>553149700</v>
+      </c>
+      <c r="M112">
+        <v>4448300</v>
+      </c>
+      <c r="N112">
+        <v>92614088000</v>
+      </c>
+      <c r="O112">
+        <v>-10908400</v>
+      </c>
+      <c r="P112">
+        <v>127102453000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1675175040000</v>
+      </c>
+      <c r="B113">
+        <v>2689400</v>
+      </c>
+      <c r="C113">
+        <v>10735700</v>
+      </c>
+      <c r="D113">
+        <v>34100</v>
+      </c>
+      <c r="E113">
+        <v>53027697000</v>
+      </c>
+      <c r="F113">
+        <v>210343782000</v>
+      </c>
+      <c r="G113">
+        <v>527389000</v>
+      </c>
+      <c r="H113">
+        <v>13459200</v>
+      </c>
+      <c r="I113">
+        <v>263898868000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-31T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>10480889692000</v>
+      </c>
+      <c r="L113">
+        <v>566608900</v>
+      </c>
+      <c r="M113">
+        <v>8046300</v>
+      </c>
+      <c r="N113">
+        <v>157316085000</v>
+      </c>
+      <c r="O113">
+        <v>-2862100</v>
+      </c>
+      <c r="P113">
+        <v>284418538000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1675175160000</v>
+      </c>
+      <c r="B114">
+        <v>2597200</v>
+      </c>
+      <c r="C114">
+        <v>9402700</v>
+      </c>
+      <c r="D114">
+        <v>142000</v>
+      </c>
+      <c r="E114">
+        <v>45146341000</v>
+      </c>
+      <c r="F114">
+        <v>176942889000</v>
+      </c>
+      <c r="G114">
+        <v>2247001000</v>
+      </c>
+      <c r="H114">
+        <v>12141900</v>
+      </c>
+      <c r="I114">
+        <v>224336231000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-31T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>10705225923000</v>
+      </c>
+      <c r="L114">
+        <v>578750800</v>
+      </c>
+      <c r="M114">
+        <v>6805500</v>
+      </c>
+      <c r="N114">
+        <v>131796548000</v>
+      </c>
+      <c r="O114">
+        <v>3943400</v>
+      </c>
+      <c r="P114">
+        <v>416215086000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1675175280000</v>
+      </c>
+      <c r="B115">
+        <v>2926700</v>
+      </c>
+      <c r="C115">
+        <v>7333100</v>
+      </c>
+      <c r="D115">
+        <v>49600</v>
+      </c>
+      <c r="E115">
+        <v>55654531000</v>
+      </c>
+      <c r="F115">
+        <v>129459471000</v>
+      </c>
+      <c r="G115">
+        <v>794960000</v>
+      </c>
+      <c r="H115">
+        <v>10309400</v>
+      </c>
+      <c r="I115">
+        <v>185908962000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-31T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>10891134885000</v>
+      </c>
+      <c r="L115">
+        <v>589060200</v>
+      </c>
+      <c r="M115">
+        <v>4406400</v>
+      </c>
+      <c r="N115">
+        <v>73804940000</v>
+      </c>
+      <c r="O115">
+        <v>8349800</v>
+      </c>
+      <c r="P115">
+        <v>490020026000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1675175400000</v>
+      </c>
+      <c r="B116">
+        <v>10200</v>
+      </c>
+      <c r="C116">
+        <v>77500</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>105875000</v>
+      </c>
+      <c r="F116">
+        <v>1408865000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>87700</v>
+      </c>
+      <c r="I116">
+        <v>1514740000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-31T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>10892649625000</v>
+      </c>
+      <c r="L116">
+        <v>589147900</v>
+      </c>
+      <c r="M116">
+        <v>67300</v>
+      </c>
+      <c r="N116">
+        <v>1302990000</v>
+      </c>
+      <c r="O116">
+        <v>8417100</v>
+      </c>
+      <c r="P116">
+        <v>491323016000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1675176240000</v>
+      </c>
+      <c r="B117">
         <v>2717800</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>6076100</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>28718900</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>63780670000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>109070403000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>600094413000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>37512800</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>772945486000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-01-31T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-01-31T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>11665595111000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>626660700</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>3358300</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>45289733000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>11775400</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>536612749000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230131/VNINDEX_HOSE_5p_20230131.xlsx
+++ b/name/vnindex/20230131/VNINDEX_HOSE_5p_20230131.xlsx
@@ -466,25 +466,25 @@
         <v>3873100</v>
       </c>
       <c r="E2">
-        <v>71176581000</v>
+        <v>58056214500</v>
       </c>
       <c r="F2">
-        <v>46397019000</v>
+        <v>43931487000</v>
       </c>
       <c r="G2">
-        <v>59512815000</v>
+        <v>59291336700</v>
       </c>
       <c r="H2">
         <v>11835000</v>
       </c>
       <c r="I2">
-        <v>177086415000</v>
+        <v>161279038200</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-31T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>177086415000</v>
+        <v>161279038200</v>
       </c>
       <c r="L2">
         <v>11835000</v>
@@ -493,13 +493,13 @@
         <v>-2684500</v>
       </c>
       <c r="N2">
-        <v>-24779562000</v>
+        <v>-14124727500</v>
       </c>
       <c r="O2">
         <v>-2684500</v>
       </c>
       <c r="P2">
-        <v>-24779562000</v>
+        <v>-14124727500</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         <v>34500</v>
       </c>
       <c r="E3">
-        <v>42642377000</v>
+        <v>38583440000</v>
       </c>
       <c r="F3">
-        <v>46545269000</v>
+        <v>42127890800</v>
       </c>
       <c r="G3">
         <v>437467000</v>
@@ -528,13 +528,13 @@
         <v>5147900</v>
       </c>
       <c r="I3">
-        <v>89625113000</v>
+        <v>81148797800</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-31T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>266711528000</v>
+        <v>242427836000</v>
       </c>
       <c r="L3">
         <v>16982900</v>
@@ -543,13 +543,13 @@
         <v>256400</v>
       </c>
       <c r="N3">
-        <v>3902892000</v>
+        <v>3544450800</v>
       </c>
       <c r="O3">
         <v>-2428100</v>
       </c>
       <c r="P3">
-        <v>-20876670000</v>
+        <v>-10580276700</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>68200</v>
       </c>
       <c r="E4">
-        <v>40061400000</v>
+        <v>36353411700</v>
       </c>
       <c r="F4">
-        <v>41315834000</v>
+        <v>35723831600</v>
       </c>
       <c r="G4">
-        <v>1177452000</v>
+        <v>1173456000</v>
       </c>
       <c r="H4">
         <v>4859600</v>
       </c>
       <c r="I4">
-        <v>82554686000</v>
+        <v>73250699300</v>
       </c>
       <c r="J4" t="str">
         <v>2023-01-31T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>349266214000</v>
+        <v>315678535300</v>
       </c>
       <c r="L4">
         <v>21842500</v>
@@ -593,13 +593,13 @@
         <v>-88800</v>
       </c>
       <c r="N4">
-        <v>1254434000</v>
+        <v>-629580100</v>
       </c>
       <c r="O4">
         <v>-2516900</v>
       </c>
       <c r="P4">
-        <v>-19622236000</v>
+        <v>-11209856800</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>37500</v>
       </c>
       <c r="E5">
-        <v>35252402000</v>
+        <v>32235521900</v>
       </c>
       <c r="F5">
-        <v>51502404000</v>
+        <v>47389321200</v>
       </c>
       <c r="G5">
-        <v>411151000</v>
+        <v>406156000</v>
       </c>
       <c r="H5">
         <v>5043700</v>
       </c>
       <c r="I5">
-        <v>87165957000</v>
+        <v>80030999100</v>
       </c>
       <c r="J5" t="str">
         <v>2023-01-31T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>436432171000</v>
+        <v>395709534400</v>
       </c>
       <c r="L5">
         <v>26886200</v>
@@ -643,13 +643,13 @@
         <v>525800</v>
       </c>
       <c r="N5">
-        <v>16250002000</v>
+        <v>15153799300</v>
       </c>
       <c r="O5">
         <v>-1991100</v>
       </c>
       <c r="P5">
-        <v>-3372234000</v>
+        <v>3943942500</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>33300</v>
       </c>
       <c r="E6">
-        <v>54577232000</v>
+        <v>49225189400</v>
       </c>
       <c r="F6">
-        <v>37481404000</v>
+        <v>30778613500</v>
       </c>
       <c r="G6">
-        <v>376189000</v>
+        <v>342822400</v>
       </c>
       <c r="H6">
         <v>5166300</v>
       </c>
       <c r="I6">
-        <v>92434825000</v>
+        <v>80346625300</v>
       </c>
       <c r="J6" t="str">
         <v>2023-01-31T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>528866996000</v>
+        <v>476056159700</v>
       </c>
       <c r="L6">
         <v>32052500</v>
@@ -693,13 +693,13 @@
         <v>-1258800</v>
       </c>
       <c r="N6">
-        <v>-17095828000</v>
+        <v>-18446575900</v>
       </c>
       <c r="O6">
         <v>-3249900</v>
       </c>
       <c r="P6">
-        <v>-20468062000</v>
+        <v>-14502633400</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>22400</v>
       </c>
       <c r="E7">
-        <v>50526051000</v>
+        <v>46637743200</v>
       </c>
       <c r="F7">
-        <v>34470622000</v>
+        <v>31943551600</v>
       </c>
       <c r="G7">
         <v>410253000</v>
@@ -728,13 +728,13 @@
         <v>4703500</v>
       </c>
       <c r="I7">
-        <v>85406926000</v>
+        <v>78991547800</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-31T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>614273922000</v>
+        <v>555047707500</v>
       </c>
       <c r="L7">
         <v>36756000</v>
@@ -743,13 +743,13 @@
         <v>-892100</v>
       </c>
       <c r="N7">
-        <v>-16055429000</v>
+        <v>-14694191600</v>
       </c>
       <c r="O7">
         <v>-4142000</v>
       </c>
       <c r="P7">
-        <v>-36523491000</v>
+        <v>-29196825000</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>112000</v>
       </c>
       <c r="E8">
-        <v>83462989000</v>
+        <v>80013941500</v>
       </c>
       <c r="F8">
-        <v>31092234000</v>
+        <v>29322006000</v>
       </c>
       <c r="G8">
-        <v>1884218000</v>
+        <v>955547600</v>
       </c>
       <c r="H8">
         <v>6518000</v>
       </c>
       <c r="I8">
-        <v>116439441000</v>
+        <v>110291495100</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-31T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>730713363000</v>
+        <v>665339202600</v>
       </c>
       <c r="L8">
         <v>43274000</v>
@@ -793,13 +793,13 @@
         <v>-2639200</v>
       </c>
       <c r="N8">
-        <v>-52370755000</v>
+        <v>-50691935500</v>
       </c>
       <c r="O8">
         <v>-6781200</v>
       </c>
       <c r="P8">
-        <v>-88894246000</v>
+        <v>-79888760500</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>16600</v>
       </c>
       <c r="E9">
-        <v>84226765000</v>
+        <v>77508490000</v>
       </c>
       <c r="F9">
-        <v>29003845000</v>
+        <v>26958192700</v>
       </c>
       <c r="G9">
-        <v>348743000</v>
+        <v>297794000</v>
       </c>
       <c r="H9">
         <v>6801300</v>
       </c>
       <c r="I9">
-        <v>113579353000</v>
+        <v>104764476700</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-31T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>844292716000</v>
+        <v>770103679300</v>
       </c>
       <c r="L9">
         <v>50075300</v>
@@ -843,13 +843,13 @@
         <v>-3281500</v>
       </c>
       <c r="N9">
-        <v>-55222920000</v>
+        <v>-50550297300</v>
       </c>
       <c r="O9">
         <v>-10062700</v>
       </c>
       <c r="P9">
-        <v>-144117166000</v>
+        <v>-130439057800</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>22600</v>
       </c>
       <c r="E10">
-        <v>82904125000</v>
+        <v>80507723800</v>
       </c>
       <c r="F10">
-        <v>42767551000</v>
+        <v>41764455100</v>
       </c>
       <c r="G10">
         <v>430274000</v>
@@ -878,13 +878,13 @@
         <v>7549500</v>
       </c>
       <c r="I10">
-        <v>126101950000</v>
+        <v>122702452900</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-31T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>970394666000</v>
+        <v>892806132200</v>
       </c>
       <c r="L10">
         <v>57624800</v>
@@ -893,13 +893,13 @@
         <v>-2454700</v>
       </c>
       <c r="N10">
-        <v>-40136574000</v>
+        <v>-38743268700</v>
       </c>
       <c r="O10">
         <v>-12517400</v>
       </c>
       <c r="P10">
-        <v>-184253740000</v>
+        <v>-169182326500</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>11000</v>
       </c>
       <c r="E11">
-        <v>58733880000</v>
+        <v>54117501000</v>
       </c>
       <c r="F11">
-        <v>58499848000</v>
+        <v>51319635400</v>
       </c>
       <c r="G11">
         <v>149929000</v>
@@ -928,13 +928,13 @@
         <v>6445600</v>
       </c>
       <c r="I11">
-        <v>117383657000</v>
+        <v>105587065400</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-31T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1087778323000</v>
+        <v>998393197600</v>
       </c>
       <c r="L11">
         <v>64070400</v>
@@ -943,13 +943,13 @@
         <v>-424800</v>
       </c>
       <c r="N11">
-        <v>-234032000</v>
+        <v>-2797865600</v>
       </c>
       <c r="O11">
         <v>-12942200</v>
       </c>
       <c r="P11">
-        <v>-184487772000</v>
+        <v>-171980192100</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>4200</v>
       </c>
       <c r="E12">
-        <v>41204582000</v>
+        <v>33426867500</v>
       </c>
       <c r="F12">
-        <v>60838393000</v>
+        <v>52139600500</v>
       </c>
       <c r="G12">
         <v>120906000</v>
@@ -978,13 +978,13 @@
         <v>5875500</v>
       </c>
       <c r="I12">
-        <v>102163881000</v>
+        <v>85687374000</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-31T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1189942204000</v>
+        <v>1084080571600</v>
       </c>
       <c r="L12">
         <v>69945900</v>
@@ -993,13 +993,13 @@
         <v>1398100</v>
       </c>
       <c r="N12">
-        <v>19633811000</v>
+        <v>18712733000</v>
       </c>
       <c r="O12">
         <v>-11544100</v>
       </c>
       <c r="P12">
-        <v>-164853961000</v>
+        <v>-153267459100</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>8800</v>
       </c>
       <c r="E13">
-        <v>31826757000</v>
+        <v>29737947900</v>
       </c>
       <c r="F13">
-        <v>78183149000</v>
+        <v>70748191400</v>
       </c>
       <c r="G13">
         <v>277666000</v>
@@ -1028,13 +1028,13 @@
         <v>6071600</v>
       </c>
       <c r="I13">
-        <v>110287572000</v>
+        <v>100763805300</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-31T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1300229776000</v>
+        <v>1184844376900</v>
       </c>
       <c r="L13">
         <v>76017500</v>
@@ -1043,13 +1043,13 @@
         <v>2676800</v>
       </c>
       <c r="N13">
-        <v>46356392000</v>
+        <v>41010243500</v>
       </c>
       <c r="O13">
         <v>-8867300</v>
       </c>
       <c r="P13">
-        <v>-118497569000</v>
+        <v>-112257215600</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>16500</v>
       </c>
       <c r="E14">
-        <v>26221595000</v>
+        <v>23935383500</v>
       </c>
       <c r="F14">
-        <v>90187857000</v>
+        <v>84578072400</v>
       </c>
       <c r="G14">
         <v>337512000</v>
@@ -1078,13 +1078,13 @@
         <v>6524100</v>
       </c>
       <c r="I14">
-        <v>116746964000</v>
+        <v>108850967900</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-31T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1416976740000</v>
+        <v>1293695344800</v>
       </c>
       <c r="L14">
         <v>82541600</v>
@@ -1093,13 +1093,13 @@
         <v>3617000</v>
       </c>
       <c r="N14">
-        <v>63966262000</v>
+        <v>60642688900</v>
       </c>
       <c r="O14">
         <v>-5250300</v>
       </c>
       <c r="P14">
-        <v>-54531307000</v>
+        <v>-51614526700</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>54000</v>
       </c>
       <c r="E15">
-        <v>45251670000</v>
+        <v>42172152600</v>
       </c>
       <c r="F15">
-        <v>91765209000</v>
+        <v>83732449800</v>
       </c>
       <c r="G15">
-        <v>661834000</v>
+        <v>630765100</v>
       </c>
       <c r="H15">
         <v>7479900</v>
       </c>
       <c r="I15">
-        <v>137678713000</v>
+        <v>126535367500</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-31T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1554655453000</v>
+        <v>1420230712300</v>
       </c>
       <c r="L15">
         <v>90021500</v>
@@ -1143,13 +1143,13 @@
         <v>3113300</v>
       </c>
       <c r="N15">
-        <v>46513539000</v>
+        <v>41560297200</v>
       </c>
       <c r="O15">
         <v>-2137000</v>
       </c>
       <c r="P15">
-        <v>-8017768000</v>
+        <v>-10054229500</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>18500</v>
       </c>
       <c r="E16">
-        <v>42667316000</v>
+        <v>39781804400</v>
       </c>
       <c r="F16">
-        <v>57589914000</v>
+        <v>52524484500</v>
       </c>
       <c r="G16">
         <v>78855000</v>
@@ -1178,13 +1178,13 @@
         <v>5423700</v>
       </c>
       <c r="I16">
-        <v>100336085000</v>
+        <v>92385143900</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-31T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1654991538000</v>
+        <v>1512615856200</v>
       </c>
       <c r="L16">
         <v>95445200</v>
@@ -1193,13 +1193,13 @@
         <v>857400</v>
       </c>
       <c r="N16">
-        <v>14922598000</v>
+        <v>12742680100</v>
       </c>
       <c r="O16">
         <v>-1279600</v>
       </c>
       <c r="P16">
-        <v>6904830000</v>
+        <v>2688450600</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>102700</v>
       </c>
       <c r="E17">
-        <v>34083690000</v>
+        <v>31821554400</v>
       </c>
       <c r="F17">
-        <v>66558359000</v>
+        <v>42074667200</v>
       </c>
       <c r="G17">
         <v>1142352000</v>
@@ -1228,13 +1228,13 @@
         <v>5690400</v>
       </c>
       <c r="I17">
-        <v>101784401000</v>
+        <v>75038573600</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-31T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1756775939000</v>
+        <v>1587654429800</v>
       </c>
       <c r="L17">
         <v>101135600</v>
@@ -1243,13 +1243,13 @@
         <v>1379900</v>
       </c>
       <c r="N17">
-        <v>32474669000</v>
+        <v>10253112800</v>
       </c>
       <c r="O17">
         <v>100300</v>
       </c>
       <c r="P17">
-        <v>39379499000</v>
+        <v>12941563400</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>59800</v>
       </c>
       <c r="E18">
-        <v>34905102000</v>
+        <v>27978435600</v>
       </c>
       <c r="F18">
-        <v>33631100000</v>
+        <v>32876555300</v>
       </c>
       <c r="G18">
         <v>619508000</v>
@@ -1278,13 +1278,13 @@
         <v>3590200</v>
       </c>
       <c r="I18">
-        <v>69155710000</v>
+        <v>61474498900</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-31T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1825931649000</v>
+        <v>1649128928700</v>
       </c>
       <c r="L18">
         <v>104725800</v>
@@ -1293,13 +1293,13 @@
         <v>-23600</v>
       </c>
       <c r="N18">
-        <v>-1274002000</v>
+        <v>4898119700</v>
       </c>
       <c r="O18">
         <v>76700</v>
       </c>
       <c r="P18">
-        <v>38105497000</v>
+        <v>17839683100</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>10800</v>
       </c>
       <c r="E19">
-        <v>38578131000</v>
+        <v>24918404400</v>
       </c>
       <c r="F19">
-        <v>39591634000</v>
+        <v>27509228500</v>
       </c>
       <c r="G19">
-        <v>322126000</v>
+        <v>308939200</v>
       </c>
       <c r="H19">
         <v>3758900</v>
       </c>
       <c r="I19">
-        <v>78491891000</v>
+        <v>52736572100</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-31T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1904423540000</v>
+        <v>1701865500800</v>
       </c>
       <c r="L19">
         <v>108484700</v>
@@ -1343,13 +1343,13 @@
         <v>-320300</v>
       </c>
       <c r="N19">
-        <v>1013503000</v>
+        <v>2590824100</v>
       </c>
       <c r="O19">
         <v>-243600</v>
       </c>
       <c r="P19">
-        <v>39119000000</v>
+        <v>20430507200</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>26500</v>
       </c>
       <c r="E20">
-        <v>45048621000</v>
+        <v>43595575500</v>
       </c>
       <c r="F20">
-        <v>40686237000</v>
+        <v>34379949600</v>
       </c>
       <c r="G20">
         <v>964344000</v>
@@ -1378,13 +1378,13 @@
         <v>4716200</v>
       </c>
       <c r="I20">
-        <v>86699202000</v>
+        <v>78939869100</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-31T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1991122742000</v>
+        <v>1780805369900</v>
       </c>
       <c r="L20">
         <v>113200900</v>
@@ -1393,13 +1393,13 @@
         <v>-329900</v>
       </c>
       <c r="N20">
-        <v>-4362384000</v>
+        <v>-9215625900</v>
       </c>
       <c r="O20">
         <v>-573500</v>
       </c>
       <c r="P20">
-        <v>34756616000</v>
+        <v>11214881300</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>97600</v>
       </c>
       <c r="E21">
-        <v>56030016000</v>
+        <v>47446408200</v>
       </c>
       <c r="F21">
-        <v>35461620000</v>
+        <v>25996794300</v>
       </c>
       <c r="G21">
         <v>1462441000</v>
@@ -1428,13 +1428,13 @@
         <v>5262800</v>
       </c>
       <c r="I21">
-        <v>92954077000</v>
+        <v>74905643500</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-31T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2084076819000</v>
+        <v>1855711013400</v>
       </c>
       <c r="L21">
         <v>118463700</v>
@@ -1443,13 +1443,13 @@
         <v>-1353400</v>
       </c>
       <c r="N21">
-        <v>-20568396000</v>
+        <v>-21449613900</v>
       </c>
       <c r="O21">
         <v>-1926900</v>
       </c>
       <c r="P21">
-        <v>14188220000</v>
+        <v>-10234732600</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>7800</v>
       </c>
       <c r="E22">
-        <v>43907095000</v>
+        <v>37403904700</v>
       </c>
       <c r="F22">
-        <v>34729595000</v>
+        <v>27695835800</v>
       </c>
       <c r="G22">
         <v>93052000</v>
@@ -1478,13 +1478,13 @@
         <v>4219300</v>
       </c>
       <c r="I22">
-        <v>78729742000</v>
+        <v>65192792500</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-31T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2162806561000</v>
+        <v>1920903805900</v>
       </c>
       <c r="L22">
         <v>122683000</v>
@@ -1493,13 +1493,13 @@
         <v>-538100</v>
       </c>
       <c r="N22">
-        <v>-9177500000</v>
+        <v>-9708068900</v>
       </c>
       <c r="O22">
         <v>-2465000</v>
       </c>
       <c r="P22">
-        <v>5010720000</v>
+        <v>-19942801500</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>23000</v>
       </c>
       <c r="E23">
-        <v>47886987000</v>
+        <v>45629047200</v>
       </c>
       <c r="F23">
-        <v>34743939000</v>
+        <v>27571418700</v>
       </c>
       <c r="G23">
         <v>512337000</v>
@@ -1528,13 +1528,13 @@
         <v>4164000</v>
       </c>
       <c r="I23">
-        <v>83143263000</v>
+        <v>73712802900</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-31T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2245949824000</v>
+        <v>1994616608800</v>
       </c>
       <c r="L23">
         <v>126847000</v>
@@ -1543,13 +1543,13 @@
         <v>-882600</v>
       </c>
       <c r="N23">
-        <v>-13143048000</v>
+        <v>-18057628500</v>
       </c>
       <c r="O23">
         <v>-3347600</v>
       </c>
       <c r="P23">
-        <v>-8132328000</v>
+        <v>-38000430000</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>51000</v>
       </c>
       <c r="E24">
-        <v>57927715000</v>
+        <v>49002549100</v>
       </c>
       <c r="F24">
-        <v>24166621000</v>
+        <v>20547044200</v>
       </c>
       <c r="G24">
         <v>526145000</v>
@@ -1578,13 +1578,13 @@
         <v>4436000</v>
       </c>
       <c r="I24">
-        <v>82620481000</v>
+        <v>70075738300</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-31T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2328570305000</v>
+        <v>2064692347100</v>
       </c>
       <c r="L24">
         <v>131283000</v>
@@ -1593,13 +1593,13 @@
         <v>-1977600</v>
       </c>
       <c r="N24">
-        <v>-33761094000</v>
+        <v>-28455504900</v>
       </c>
       <c r="O24">
         <v>-5325200</v>
       </c>
       <c r="P24">
-        <v>-41893422000</v>
+        <v>-66455934900</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>21200</v>
       </c>
       <c r="E25">
-        <v>51179045000</v>
+        <v>47512015700</v>
       </c>
       <c r="F25">
-        <v>28802646000</v>
+        <v>22008147300</v>
       </c>
       <c r="G25">
-        <v>471743000</v>
+        <v>458556200</v>
       </c>
       <c r="H25">
         <v>3772900</v>
       </c>
       <c r="I25">
-        <v>80453434000</v>
+        <v>69978719200</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-31T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2409023739000</v>
+        <v>2134671066300</v>
       </c>
       <c r="L25">
         <v>135055900</v>
@@ -1643,13 +1643,13 @@
         <v>-1119900</v>
       </c>
       <c r="N25">
-        <v>-22376399000</v>
+        <v>-25503868400</v>
       </c>
       <c r="O25">
         <v>-6445100</v>
       </c>
       <c r="P25">
-        <v>-64269821000</v>
+        <v>-91959803300</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>18400</v>
       </c>
       <c r="E26">
-        <v>49491644000</v>
+        <v>47874163100</v>
       </c>
       <c r="F26">
-        <v>29732829000</v>
+        <v>27262401900</v>
       </c>
       <c r="G26">
         <v>195972000</v>
@@ -1678,13 +1678,13 @@
         <v>4847900</v>
       </c>
       <c r="I26">
-        <v>79420445000</v>
+        <v>75332537000</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-31T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2488444184000</v>
+        <v>2210003603300</v>
       </c>
       <c r="L26">
         <v>139903800</v>
@@ -1693,13 +1693,13 @@
         <v>-1660700</v>
       </c>
       <c r="N26">
-        <v>-19758815000</v>
+        <v>-20611761200</v>
       </c>
       <c r="O26">
         <v>-8105800</v>
       </c>
       <c r="P26">
-        <v>-84028636000</v>
+        <v>-112571564500</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>6300</v>
       </c>
       <c r="E27">
-        <v>35957178000</v>
+        <v>28434508200</v>
       </c>
       <c r="F27">
-        <v>32755207000</v>
+        <v>29737627600</v>
       </c>
       <c r="G27">
         <v>135700000</v>
@@ -1728,13 +1728,13 @@
         <v>3707500</v>
       </c>
       <c r="I27">
-        <v>68848085000</v>
+        <v>58307835800</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-31T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2557292269000</v>
+        <v>2268311439100</v>
       </c>
       <c r="L27">
         <v>143611300</v>
@@ -1743,13 +1743,13 @@
         <v>-228600</v>
       </c>
       <c r="N27">
-        <v>-3201971000</v>
+        <v>1303119400</v>
       </c>
       <c r="O27">
         <v>-8334400</v>
       </c>
       <c r="P27">
-        <v>-87230607000</v>
+        <v>-111268445100</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>16600</v>
       </c>
       <c r="E28">
-        <v>31886936000</v>
+        <v>29939685200</v>
       </c>
       <c r="F28">
-        <v>34537963000</v>
+        <v>29163043300</v>
       </c>
       <c r="G28">
-        <v>350254000</v>
+        <v>336467800</v>
       </c>
       <c r="H28">
         <v>3868200</v>
       </c>
       <c r="I28">
-        <v>66775153000</v>
+        <v>59439196300</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-31T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2624067422000</v>
+        <v>2327750635400</v>
       </c>
       <c r="L28">
         <v>147479500</v>
@@ -1793,13 +1793,13 @@
         <v>11200</v>
       </c>
       <c r="N28">
-        <v>2651027000</v>
+        <v>-776641900</v>
       </c>
       <c r="O28">
         <v>-8323200</v>
       </c>
       <c r="P28">
-        <v>-84579580000</v>
+        <v>-112045087000</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>12600</v>
       </c>
       <c r="E29">
-        <v>34246496000</v>
+        <v>26478971300</v>
       </c>
       <c r="F29">
-        <v>36861323000</v>
+        <v>34403283500</v>
       </c>
       <c r="G29">
         <v>139964000</v>
@@ -1828,13 +1828,13 @@
         <v>3808500</v>
       </c>
       <c r="I29">
-        <v>71247783000</v>
+        <v>61022218800</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-31T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2695315205000</v>
+        <v>2388772854200</v>
       </c>
       <c r="L29">
         <v>151288000</v>
@@ -1843,13 +1843,13 @@
         <v>580100</v>
       </c>
       <c r="N29">
-        <v>2614827000</v>
+        <v>7924312200</v>
       </c>
       <c r="O29">
         <v>-7743100</v>
       </c>
       <c r="P29">
-        <v>-81964753000</v>
+        <v>-104120774800</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>3800</v>
       </c>
       <c r="E30">
-        <v>36104795000</v>
+        <v>33301301300</v>
       </c>
       <c r="F30">
-        <v>53377199000</v>
+        <v>51264913400</v>
       </c>
       <c r="G30">
         <v>51472000</v>
@@ -1878,13 +1878,13 @@
         <v>4407500</v>
       </c>
       <c r="I30">
-        <v>89533466000</v>
+        <v>84617686700</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-31T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2784848671000</v>
+        <v>2473390540900</v>
       </c>
       <c r="L30">
         <v>155695500</v>
@@ -1893,13 +1893,13 @@
         <v>1034300</v>
       </c>
       <c r="N30">
-        <v>17272404000</v>
+        <v>17963612100</v>
       </c>
       <c r="O30">
         <v>-6708800</v>
       </c>
       <c r="P30">
-        <v>-64692349000</v>
+        <v>-86157162700</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>11700</v>
       </c>
       <c r="E31">
-        <v>34569630000</v>
+        <v>26647460100</v>
       </c>
       <c r="F31">
-        <v>45535919000</v>
+        <v>44547908000</v>
       </c>
       <c r="G31">
         <v>365350000</v>
@@ -1928,13 +1928,13 @@
         <v>4394500</v>
       </c>
       <c r="I31">
-        <v>80470899000</v>
+        <v>71560718100</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-31T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2865319570000</v>
+        <v>2544951259000</v>
       </c>
       <c r="L31">
         <v>160090000</v>
@@ -1943,13 +1943,13 @@
         <v>914600</v>
       </c>
       <c r="N31">
-        <v>10966289000</v>
+        <v>17900447900</v>
       </c>
       <c r="O31">
         <v>-5794200</v>
       </c>
       <c r="P31">
-        <v>-53726060000</v>
+        <v>-68256714800</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>2900</v>
       </c>
       <c r="E32">
-        <v>31807536000</v>
+        <v>28370276700</v>
       </c>
       <c r="F32">
-        <v>40052219000</v>
+        <v>37873000400</v>
       </c>
       <c r="G32">
         <v>108190000</v>
@@ -1978,13 +1978,13 @@
         <v>3563100</v>
       </c>
       <c r="I32">
-        <v>71967945000</v>
+        <v>66351467100</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-31T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2937287515000</v>
+        <v>2611302726100</v>
       </c>
       <c r="L32">
         <v>163653100</v>
@@ -1993,13 +1993,13 @@
         <v>616400</v>
       </c>
       <c r="N32">
-        <v>8244683000</v>
+        <v>9502723700</v>
       </c>
       <c r="O32">
         <v>-5177800</v>
       </c>
       <c r="P32">
-        <v>-45481377000</v>
+        <v>-58753991100</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>4900</v>
       </c>
       <c r="E33">
-        <v>30622143000</v>
+        <v>20112463200</v>
       </c>
       <c r="F33">
-        <v>31585229000</v>
+        <v>27641976200</v>
       </c>
       <c r="G33">
         <v>98385000</v>
@@ -2028,13 +2028,13 @@
         <v>2758000</v>
       </c>
       <c r="I33">
-        <v>62305757000</v>
+        <v>47852824400</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-31T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2999593272000</v>
+        <v>2659155550500</v>
       </c>
       <c r="L33">
         <v>166411100</v>
@@ -2043,13 +2043,13 @@
         <v>-64500</v>
       </c>
       <c r="N33">
-        <v>963086000</v>
+        <v>7529513000</v>
       </c>
       <c r="O33">
         <v>-5242300</v>
       </c>
       <c r="P33">
-        <v>-44518291000</v>
+        <v>-51224478100</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>2200</v>
       </c>
       <c r="E34">
-        <v>30828488000</v>
+        <v>28489829000</v>
       </c>
       <c r="F34">
-        <v>40826500000</v>
+        <v>31515620200</v>
       </c>
       <c r="G34">
         <v>38076000</v>
@@ -2078,13 +2078,13 @@
         <v>3338800</v>
       </c>
       <c r="I34">
-        <v>71693064000</v>
+        <v>60043525200</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-31T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3071286336000</v>
+        <v>2719199075700</v>
       </c>
       <c r="L34">
         <v>169749900</v>
@@ -2093,13 +2093,13 @@
         <v>-155400</v>
       </c>
       <c r="N34">
-        <v>9998012000</v>
+        <v>3025791200</v>
       </c>
       <c r="O34">
         <v>-5397700</v>
       </c>
       <c r="P34">
-        <v>-34520279000</v>
+        <v>-48198686900</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>3100</v>
       </c>
       <c r="E35">
-        <v>50560107000</v>
+        <v>48623245800</v>
       </c>
       <c r="F35">
-        <v>33241735000</v>
+        <v>31312865800</v>
       </c>
       <c r="G35">
-        <v>73350000</v>
+        <v>51372000</v>
       </c>
       <c r="H35">
         <v>4044300</v>
       </c>
       <c r="I35">
-        <v>83875192000</v>
+        <v>79987483600</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-31T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3155161528000</v>
+        <v>2799186559300</v>
       </c>
       <c r="L35">
         <v>173794200</v>
@@ -2143,13 +2143,13 @@
         <v>-828800</v>
       </c>
       <c r="N35">
-        <v>-17318372000</v>
+        <v>-17310380000</v>
       </c>
       <c r="O35">
         <v>-6226500</v>
       </c>
       <c r="P35">
-        <v>-51838651000</v>
+        <v>-65509066900</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>66200</v>
       </c>
       <c r="E36">
-        <v>34212196000</v>
+        <v>32187023200</v>
       </c>
       <c r="F36">
-        <v>42381304000</v>
+        <v>39983404300</v>
       </c>
       <c r="G36">
         <v>1094513000</v>
@@ -2178,13 +2178,13 @@
         <v>4073000</v>
       </c>
       <c r="I36">
-        <v>77688013000</v>
+        <v>73264940500</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-31T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3232849541000</v>
+        <v>2872451499800</v>
       </c>
       <c r="L36">
         <v>177867200</v>
@@ -2193,13 +2193,13 @@
         <v>295600</v>
       </c>
       <c r="N36">
-        <v>8169108000</v>
+        <v>7796381100</v>
       </c>
       <c r="O36">
         <v>-5930900</v>
       </c>
       <c r="P36">
-        <v>-43669543000</v>
+        <v>-57712685800</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>47400</v>
       </c>
       <c r="E37">
-        <v>33233668000</v>
+        <v>32078724100</v>
       </c>
       <c r="F37">
-        <v>46376709000</v>
+        <v>41696394000</v>
       </c>
       <c r="G37">
         <v>481361000</v>
@@ -2228,13 +2228,13 @@
         <v>3768000</v>
       </c>
       <c r="I37">
-        <v>80091738000</v>
+        <v>74256479100</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-31T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3312941279000</v>
+        <v>2946707978900</v>
       </c>
       <c r="L37">
         <v>181635200</v>
@@ -2243,13 +2243,13 @@
         <v>352800</v>
       </c>
       <c r="N37">
-        <v>13143041000</v>
+        <v>9617669900</v>
       </c>
       <c r="O37">
         <v>-5578100</v>
       </c>
       <c r="P37">
-        <v>-30526502000</v>
+        <v>-48095015900</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>5400</v>
       </c>
       <c r="E38">
-        <v>35918094000</v>
+        <v>27777043200</v>
       </c>
       <c r="F38">
-        <v>29782977000</v>
+        <v>27609552600</v>
       </c>
       <c r="G38">
         <v>137507000</v>
@@ -2278,13 +2278,13 @@
         <v>3341200</v>
       </c>
       <c r="I38">
-        <v>65838578000</v>
+        <v>55524102800</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-31T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3378779857000</v>
+        <v>3002232081700</v>
       </c>
       <c r="L38">
         <v>184976400</v>
@@ -2293,13 +2293,13 @@
         <v>-153400</v>
       </c>
       <c r="N38">
-        <v>-6135117000</v>
+        <v>-167490600</v>
       </c>
       <c r="O38">
         <v>-5731500</v>
       </c>
       <c r="P38">
-        <v>-36661619000</v>
+        <v>-48262506500</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>23300</v>
       </c>
       <c r="E39">
-        <v>35341796000</v>
+        <v>32231909000</v>
       </c>
       <c r="F39">
-        <v>22798603000</v>
+        <v>20911791700</v>
       </c>
       <c r="G39">
         <v>195412000</v>
@@ -2328,13 +2328,13 @@
         <v>3087200</v>
       </c>
       <c r="I39">
-        <v>58335811000</v>
+        <v>53339112700</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-31T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3437115668000</v>
+        <v>3055571194400</v>
       </c>
       <c r="L39">
         <v>188063600</v>
@@ -2343,13 +2343,13 @@
         <v>-1039100</v>
       </c>
       <c r="N39">
-        <v>-12543193000</v>
+        <v>-11320117300</v>
       </c>
       <c r="O39">
         <v>-6770600</v>
       </c>
       <c r="P39">
-        <v>-49204812000</v>
+        <v>-59582623800</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>30200</v>
       </c>
       <c r="E40">
-        <v>50020799000</v>
+        <v>48854566400</v>
       </c>
       <c r="F40">
-        <v>18178858000</v>
+        <v>14656184200</v>
       </c>
       <c r="G40">
-        <v>524585000</v>
+        <v>514095500</v>
       </c>
       <c r="H40">
         <v>3847700</v>
       </c>
       <c r="I40">
-        <v>68724242000</v>
+        <v>64024846100</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-31T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3505839910000</v>
+        <v>3119596040500</v>
       </c>
       <c r="L40">
         <v>191911300</v>
@@ -2393,13 +2393,13 @@
         <v>-2128300</v>
       </c>
       <c r="N40">
-        <v>-31841941000</v>
+        <v>-34198382200</v>
       </c>
       <c r="O40">
         <v>-8898900</v>
       </c>
       <c r="P40">
-        <v>-81046753000</v>
+        <v>-93781006000</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>2900</v>
       </c>
       <c r="E41">
-        <v>50114419000</v>
+        <v>45447190900</v>
       </c>
       <c r="F41">
-        <v>15019620000</v>
+        <v>13028113500</v>
       </c>
       <c r="G41">
-        <v>57328000</v>
+        <v>56528800</v>
       </c>
       <c r="H41">
         <v>3497900</v>
       </c>
       <c r="I41">
-        <v>65191367000</v>
+        <v>58531833200</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-31T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3571031277000</v>
+        <v>3178127873700</v>
       </c>
       <c r="L41">
         <v>195409200</v>
@@ -2443,13 +2443,13 @@
         <v>-1934000</v>
       </c>
       <c r="N41">
-        <v>-35094799000</v>
+        <v>-32419077400</v>
       </c>
       <c r="O41">
         <v>-10832900</v>
       </c>
       <c r="P41">
-        <v>-116141552000</v>
+        <v>-126200083400</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>18500</v>
       </c>
       <c r="E42">
-        <v>59214122000</v>
+        <v>56973165200</v>
       </c>
       <c r="F42">
-        <v>15335595000</v>
+        <v>13171960800</v>
       </c>
       <c r="G42">
         <v>511146000</v>
@@ -2478,13 +2478,13 @@
         <v>4598500</v>
       </c>
       <c r="I42">
-        <v>75060863000</v>
+        <v>70656272000</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-31T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3646092140000</v>
+        <v>3248784145700</v>
       </c>
       <c r="L42">
         <v>200007700</v>
@@ -2493,13 +2493,13 @@
         <v>-2849000</v>
       </c>
       <c r="N42">
-        <v>-43878527000</v>
+        <v>-43801204400</v>
       </c>
       <c r="O42">
         <v>-13681900</v>
       </c>
       <c r="P42">
-        <v>-160020079000</v>
+        <v>-170001287800</v>
       </c>
     </row>
     <row r="43">
@@ -2516,25 +2516,25 @@
         <v>4200</v>
       </c>
       <c r="E43">
-        <v>82449628000</v>
+        <v>71548040500</v>
       </c>
       <c r="F43">
-        <v>19527283000</v>
+        <v>16405308100</v>
       </c>
       <c r="G43">
-        <v>66124000</v>
+        <v>21169000</v>
       </c>
       <c r="H43">
         <v>5303300</v>
       </c>
       <c r="I43">
-        <v>102043035000</v>
+        <v>87974517600</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-31T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3748135175000</v>
+        <v>3336758663300</v>
       </c>
       <c r="L43">
         <v>205311000</v>
@@ -2543,13 +2543,13 @@
         <v>-3175900</v>
       </c>
       <c r="N43">
-        <v>-62922345000</v>
+        <v>-55142732400</v>
       </c>
       <c r="O43">
         <v>-16857800</v>
       </c>
       <c r="P43">
-        <v>-222942424000</v>
+        <v>-225144020200</v>
       </c>
     </row>
     <row r="44">
@@ -2566,25 +2566,25 @@
         <v>6400</v>
       </c>
       <c r="E44">
-        <v>87387071000</v>
+        <v>78734332400</v>
       </c>
       <c r="F44">
-        <v>18251577000</v>
+        <v>16587342900</v>
       </c>
       <c r="G44">
-        <v>129132000</v>
+        <v>108153000</v>
       </c>
       <c r="H44">
         <v>5746900</v>
       </c>
       <c r="I44">
-        <v>105767780000</v>
+        <v>95429828300</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-31T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3853902955000</v>
+        <v>3432188491600</v>
       </c>
       <c r="L44">
         <v>211057900</v>
@@ -2593,13 +2593,13 @@
         <v>-4089700</v>
       </c>
       <c r="N44">
-        <v>-69135494000</v>
+        <v>-62146989500</v>
       </c>
       <c r="O44">
         <v>-20947500</v>
       </c>
       <c r="P44">
-        <v>-292077918000</v>
+        <v>-287291009700</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>60700</v>
       </c>
       <c r="E45">
-        <v>94004976000</v>
+        <v>84546144300</v>
       </c>
       <c r="F45">
-        <v>18732650000</v>
+        <v>16222862300</v>
       </c>
       <c r="G45">
         <v>684476000</v>
@@ -2628,13 +2628,13 @@
         <v>6002000</v>
       </c>
       <c r="I45">
-        <v>113422102000</v>
+        <v>101453482600</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-31T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3967325057000</v>
+        <v>3533641974200</v>
       </c>
       <c r="L45">
         <v>217059900</v>
@@ -2643,13 +2643,13 @@
         <v>-4024100</v>
       </c>
       <c r="N45">
-        <v>-75272326000</v>
+        <v>-68323282000</v>
       </c>
       <c r="O45">
         <v>-24971600</v>
       </c>
       <c r="P45">
-        <v>-367350244000</v>
+        <v>-355614291700</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>4800</v>
       </c>
       <c r="E46">
-        <v>63737563000</v>
+        <v>61679323300</v>
       </c>
       <c r="F46">
-        <v>18389162000</v>
+        <v>16514438600</v>
       </c>
       <c r="G46">
-        <v>64881000</v>
+        <v>43902000</v>
       </c>
       <c r="H46">
         <v>4528500</v>
       </c>
       <c r="I46">
-        <v>82191606000</v>
+        <v>78237663900</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-31T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>4049516663000</v>
+        <v>3611879638100</v>
       </c>
       <c r="L46">
         <v>221588400</v>
@@ -2693,13 +2693,13 @@
         <v>-2441300</v>
       </c>
       <c r="N46">
-        <v>-45348401000</v>
+        <v>-45164884700</v>
       </c>
       <c r="O46">
         <v>-27412900</v>
       </c>
       <c r="P46">
-        <v>-412698645000</v>
+        <v>-400779176400</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>6900</v>
       </c>
       <c r="E47">
-        <v>45467829000</v>
+        <v>40278623400</v>
       </c>
       <c r="F47">
-        <v>27959556000</v>
+        <v>25536181800</v>
       </c>
       <c r="G47">
         <v>127297000</v>
@@ -2728,13 +2728,13 @@
         <v>4040000</v>
       </c>
       <c r="I47">
-        <v>73554682000</v>
+        <v>65942102200</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-31T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>4123071345000</v>
+        <v>3677821740300</v>
       </c>
       <c r="L47">
         <v>225628400</v>
@@ -2743,13 +2743,13 @@
         <v>-1085500</v>
       </c>
       <c r="N47">
-        <v>-17508273000</v>
+        <v>-14742441600</v>
       </c>
       <c r="O47">
         <v>-28498400</v>
       </c>
       <c r="P47">
-        <v>-430206918000</v>
+        <v>-415521618000</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>13900</v>
       </c>
       <c r="E48">
-        <v>36714749000</v>
+        <v>24121554800</v>
       </c>
       <c r="F48">
-        <v>34956125000</v>
+        <v>30737148200</v>
       </c>
       <c r="G48">
         <v>367076000</v>
@@ -2778,13 +2778,13 @@
         <v>3937400</v>
       </c>
       <c r="I48">
-        <v>72037950000</v>
+        <v>55225779000</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-31T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>4195109295000</v>
+        <v>3733047519300</v>
       </c>
       <c r="L48">
         <v>229565800</v>
@@ -2793,13 +2793,13 @@
         <v>-215500</v>
       </c>
       <c r="N48">
-        <v>-1758624000</v>
+        <v>6615593400</v>
       </c>
       <c r="O48">
         <v>-28713900</v>
       </c>
       <c r="P48">
-        <v>-431965542000</v>
+        <v>-408906024600</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>20500</v>
       </c>
       <c r="E49">
-        <v>34471190000</v>
+        <v>33190472000</v>
       </c>
       <c r="F49">
-        <v>41801412000</v>
+        <v>36721796700</v>
       </c>
       <c r="G49">
         <v>414905000</v>
@@ -2828,13 +2828,13 @@
         <v>4488900</v>
       </c>
       <c r="I49">
-        <v>76687507000</v>
+        <v>70327173700</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-31T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4271796802000</v>
+        <v>3803374693000</v>
       </c>
       <c r="L49">
         <v>234054700</v>
@@ -2843,13 +2843,13 @@
         <v>360200</v>
       </c>
       <c r="N49">
-        <v>7330222000</v>
+        <v>3531324700</v>
       </c>
       <c r="O49">
         <v>-28353700</v>
       </c>
       <c r="P49">
-        <v>-424635320000</v>
+        <v>-405374699900</v>
       </c>
     </row>
     <row r="50">
@@ -2866,25 +2866,25 @@
         <v>38600</v>
       </c>
       <c r="E50">
-        <v>18364275000</v>
+        <v>16871868900</v>
       </c>
       <c r="F50">
-        <v>45766810000</v>
+        <v>42103776700</v>
       </c>
       <c r="G50">
-        <v>1306623000</v>
+        <v>46584300</v>
       </c>
       <c r="H50">
         <v>3643300</v>
       </c>
       <c r="I50">
-        <v>65437708000</v>
+        <v>59022229900</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-31T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4337234510000</v>
+        <v>3862396922900</v>
       </c>
       <c r="L50">
         <v>237698000</v>
@@ -2893,13 +2893,13 @@
         <v>1373500</v>
       </c>
       <c r="N50">
-        <v>27402535000</v>
+        <v>25231907800</v>
       </c>
       <c r="O50">
         <v>-26980200</v>
       </c>
       <c r="P50">
-        <v>-397232785000</v>
+        <v>-380142792100</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>13300</v>
       </c>
       <c r="E51">
-        <v>15570199000</v>
+        <v>12350521900</v>
       </c>
       <c r="F51">
-        <v>29123688000</v>
+        <v>28260252300</v>
       </c>
       <c r="G51">
         <v>407002000</v>
@@ -2928,13 +2928,13 @@
         <v>2223700</v>
       </c>
       <c r="I51">
-        <v>45100889000</v>
+        <v>41017776200</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-31T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4382335399000</v>
+        <v>3903414699100</v>
       </c>
       <c r="L51">
         <v>239921700</v>
@@ -2943,13 +2943,13 @@
         <v>600000</v>
       </c>
       <c r="N51">
-        <v>13553489000</v>
+        <v>15909730400</v>
       </c>
       <c r="O51">
         <v>-26380200</v>
       </c>
       <c r="P51">
-        <v>-383679296000</v>
+        <v>-364233061700</v>
       </c>
     </row>
     <row r="52">
@@ -2966,25 +2966,25 @@
         <v>8000</v>
       </c>
       <c r="E52">
-        <v>19690651000</v>
+        <v>15983362000</v>
       </c>
       <c r="F52">
-        <v>23338726000</v>
+        <v>20683583800</v>
       </c>
       <c r="G52">
-        <v>123800000</v>
+        <v>109614200</v>
       </c>
       <c r="H52">
         <v>2392100</v>
       </c>
       <c r="I52">
-        <v>43153177000</v>
+        <v>36776560000</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-31T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4425488576000</v>
+        <v>3940191259100</v>
       </c>
       <c r="L52">
         <v>242313800</v>
@@ -2993,13 +2993,13 @@
         <v>237300</v>
       </c>
       <c r="N52">
-        <v>3648075000</v>
+        <v>4700221800</v>
       </c>
       <c r="O52">
         <v>-26142900</v>
       </c>
       <c r="P52">
-        <v>-380031221000</v>
+        <v>-359532839900</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>25600</v>
       </c>
       <c r="E53">
-        <v>21295982000</v>
+        <v>18329051900</v>
       </c>
       <c r="F53">
-        <v>24411621000</v>
+        <v>19538898600</v>
       </c>
       <c r="G53">
         <v>425906000</v>
@@ -3028,13 +3028,13 @@
         <v>2396400</v>
       </c>
       <c r="I53">
-        <v>46133509000</v>
+        <v>38293856500</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-31T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>4471622085000</v>
+        <v>3978485115600</v>
       </c>
       <c r="L53">
         <v>244710200</v>
@@ -3043,13 +3043,13 @@
         <v>243200</v>
       </c>
       <c r="N53">
-        <v>3115639000</v>
+        <v>1209846700</v>
       </c>
       <c r="O53">
         <v>-25899700</v>
       </c>
       <c r="P53">
-        <v>-376915582000</v>
+        <v>-358322993200</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>27200</v>
       </c>
       <c r="E54">
-        <v>22854456000</v>
+        <v>22244166900</v>
       </c>
       <c r="F54">
-        <v>19874933000</v>
+        <v>18904004900</v>
       </c>
       <c r="G54">
         <v>343297000</v>
@@ -3078,13 +3078,13 @@
         <v>2217400</v>
       </c>
       <c r="I54">
-        <v>43072686000</v>
+        <v>41491468800</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-31T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>4514694771000</v>
+        <v>4019976584400</v>
       </c>
       <c r="L54">
         <v>246927600</v>
@@ -3093,13 +3093,13 @@
         <v>-162000</v>
       </c>
       <c r="N54">
-        <v>-2979523000</v>
+        <v>-3340162000</v>
       </c>
       <c r="O54">
         <v>-26061700</v>
       </c>
       <c r="P54">
-        <v>-379895105000</v>
+        <v>-361663155200</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>700</v>
       </c>
       <c r="E55">
-        <v>28449432000</v>
+        <v>25310574000</v>
       </c>
       <c r="F55">
-        <v>20267859000</v>
+        <v>19457070600</v>
       </c>
       <c r="G55">
         <v>12366000</v>
@@ -3128,13 +3128,13 @@
         <v>2671500</v>
       </c>
       <c r="I55">
-        <v>48729657000</v>
+        <v>44780010600</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-31T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>4563424428000</v>
+        <v>4064756595000</v>
       </c>
       <c r="L55">
         <v>249599100</v>
@@ -3143,13 +3143,13 @@
         <v>-760000</v>
       </c>
       <c r="N55">
-        <v>-8181573000</v>
+        <v>-5853503400</v>
       </c>
       <c r="O55">
         <v>-26821700</v>
       </c>
       <c r="P55">
-        <v>-388076678000</v>
+        <v>-367516658600</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>1800</v>
       </c>
       <c r="E56">
-        <v>31232957000</v>
+        <v>30716374100</v>
       </c>
       <c r="F56">
-        <v>27407504000</v>
+        <v>25697815400</v>
       </c>
       <c r="G56">
-        <v>17679000</v>
+        <v>13782900</v>
       </c>
       <c r="H56">
         <v>3223200</v>
       </c>
       <c r="I56">
-        <v>58658140000</v>
+        <v>56427972400</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-31T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4622082568000</v>
+        <v>4121184567400</v>
       </c>
       <c r="L56">
         <v>252822300</v>
@@ -3193,13 +3193,13 @@
         <v>-905800</v>
       </c>
       <c r="N56">
-        <v>-3825453000</v>
+        <v>-5018558700</v>
       </c>
       <c r="O56">
         <v>-27727500</v>
       </c>
       <c r="P56">
-        <v>-391902131000</v>
+        <v>-372535217300</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>16400</v>
       </c>
       <c r="E57">
-        <v>32229301000</v>
+        <v>29778853900</v>
       </c>
       <c r="F57">
-        <v>27648652000</v>
+        <v>25051252000</v>
       </c>
       <c r="G57">
         <v>187892000</v>
@@ -3228,13 +3228,13 @@
         <v>3189100</v>
       </c>
       <c r="I57">
-        <v>60065845000</v>
+        <v>55017997900</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-31T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4682148413000</v>
+        <v>4176202565300</v>
       </c>
       <c r="L57">
         <v>256011400</v>
@@ -3243,13 +3243,13 @@
         <v>-180700</v>
       </c>
       <c r="N57">
-        <v>-4580649000</v>
+        <v>-4727601900</v>
       </c>
       <c r="O57">
         <v>-27908200</v>
       </c>
       <c r="P57">
-        <v>-396482780000</v>
+        <v>-377262819200</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>1000</v>
       </c>
       <c r="E58">
-        <v>29979308000</v>
+        <v>27192597500</v>
       </c>
       <c r="F58">
-        <v>24237864000</v>
+        <v>21170234700</v>
       </c>
       <c r="G58">
         <v>7343000</v>
@@ -3278,13 +3278,13 @@
         <v>3428000</v>
       </c>
       <c r="I58">
-        <v>54224515000</v>
+        <v>48370175200</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-31T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4736372928000</v>
+        <v>4224572740500</v>
       </c>
       <c r="L58">
         <v>259439400</v>
@@ -3293,13 +3293,13 @@
         <v>-383400</v>
       </c>
       <c r="N58">
-        <v>-5741444000</v>
+        <v>-6022362800</v>
       </c>
       <c r="O58">
         <v>-28291600</v>
       </c>
       <c r="P58">
-        <v>-402224224000</v>
+        <v>-383285182000</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>10600</v>
       </c>
       <c r="E59">
-        <v>40941812000</v>
+        <v>34173487100</v>
       </c>
       <c r="F59">
-        <v>24457247000</v>
+        <v>19541567600</v>
       </c>
       <c r="G59">
-        <v>219185000</v>
+        <v>143860400</v>
       </c>
       <c r="H59">
         <v>3550800</v>
       </c>
       <c r="I59">
-        <v>65618244000</v>
+        <v>53858915100</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-31T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4801991172000</v>
+        <v>4278431655600</v>
       </c>
       <c r="L59">
         <v>262990200</v>
@@ -3343,13 +3343,13 @@
         <v>-1120600</v>
       </c>
       <c r="N59">
-        <v>-16484565000</v>
+        <v>-14631919500</v>
       </c>
       <c r="O59">
         <v>-29412200</v>
       </c>
       <c r="P59">
-        <v>-418708789000</v>
+        <v>-397917101500</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>4600</v>
       </c>
       <c r="E60">
-        <v>47917585000</v>
+        <v>42356152000</v>
       </c>
       <c r="F60">
-        <v>22069034000</v>
+        <v>19970035100</v>
       </c>
       <c r="G60">
         <v>37068000</v>
@@ -3378,13 +3378,13 @@
         <v>3378500</v>
       </c>
       <c r="I60">
-        <v>70023687000</v>
+        <v>62363255100</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-31T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4872014859000</v>
+        <v>4340794910700</v>
       </c>
       <c r="L60">
         <v>266368700</v>
@@ -3393,13 +3393,13 @@
         <v>-1750100</v>
       </c>
       <c r="N60">
-        <v>-25848551000</v>
+        <v>-22386116900</v>
       </c>
       <c r="O60">
         <v>-31162300</v>
       </c>
       <c r="P60">
-        <v>-444557340000</v>
+        <v>-420303218400</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>12700</v>
       </c>
       <c r="E61">
-        <v>51670633000</v>
+        <v>46090418800</v>
       </c>
       <c r="F61">
-        <v>15503526000</v>
+        <v>14398931700</v>
       </c>
       <c r="G61">
         <v>175389000</v>
@@ -3428,13 +3428,13 @@
         <v>3795700</v>
       </c>
       <c r="I61">
-        <v>67349548000</v>
+        <v>60664739500</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-31T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4939364407000</v>
+        <v>4401459650200</v>
       </c>
       <c r="L61">
         <v>270164400</v>
@@ -3443,13 +3443,13 @@
         <v>-2351400</v>
       </c>
       <c r="N61">
-        <v>-36167107000</v>
+        <v>-31691487100</v>
       </c>
       <c r="O61">
         <v>-33513700</v>
       </c>
       <c r="P61">
-        <v>-480724447000</v>
+        <v>-451994705500</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>18300</v>
       </c>
       <c r="E62">
-        <v>46341749000</v>
+        <v>35090211800</v>
       </c>
       <c r="F62">
-        <v>15937871000</v>
+        <v>15003106700</v>
       </c>
       <c r="G62">
         <v>167932000</v>
@@ -3478,13 +3478,13 @@
         <v>3263200</v>
       </c>
       <c r="I62">
-        <v>62447552000</v>
+        <v>50261250500</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-31T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>5001811959000</v>
+        <v>4451720900700</v>
       </c>
       <c r="L62">
         <v>273427600</v>
@@ -3493,13 +3493,13 @@
         <v>-1431700</v>
       </c>
       <c r="N62">
-        <v>-30403878000</v>
+        <v>-20087105100</v>
       </c>
       <c r="O62">
         <v>-34945400</v>
       </c>
       <c r="P62">
-        <v>-511128325000</v>
+        <v>-472081810600</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>37700</v>
       </c>
       <c r="E63">
-        <v>63518562000</v>
+        <v>52320371400</v>
       </c>
       <c r="F63">
-        <v>19309702000</v>
+        <v>17550263200</v>
       </c>
       <c r="G63">
         <v>549840000</v>
@@ -3528,13 +3528,13 @@
         <v>4764600</v>
       </c>
       <c r="I63">
-        <v>83378104000</v>
+        <v>70420474600</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-31T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>5085190063000</v>
+        <v>4522141375300</v>
       </c>
       <c r="L63">
         <v>278192200</v>
@@ -3543,13 +3543,13 @@
         <v>-2513500</v>
       </c>
       <c r="N63">
-        <v>-44208860000</v>
+        <v>-34770108200</v>
       </c>
       <c r="O63">
         <v>-37458900</v>
       </c>
       <c r="P63">
-        <v>-555337185000</v>
+        <v>-506851918800</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>1900</v>
       </c>
       <c r="E64">
-        <v>39198856000</v>
+        <v>36834722500</v>
       </c>
       <c r="F64">
-        <v>21407180000</v>
+        <v>17219372000</v>
       </c>
       <c r="G64">
         <v>13386000</v>
@@ -3578,13 +3578,13 @@
         <v>3660800</v>
       </c>
       <c r="I64">
-        <v>60619422000</v>
+        <v>54067480500</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-31T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>5145809485000</v>
+        <v>4576208855800</v>
       </c>
       <c r="L64">
         <v>281853000</v>
@@ -3593,13 +3593,13 @@
         <v>-1517300</v>
       </c>
       <c r="N64">
-        <v>-17791676000</v>
+        <v>-19615350500</v>
       </c>
       <c r="O64">
         <v>-38976200</v>
       </c>
       <c r="P64">
-        <v>-573128861000</v>
+        <v>-526467269300</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>40500</v>
       </c>
       <c r="E65">
-        <v>37183591000</v>
+        <v>33022056700</v>
       </c>
       <c r="F65">
-        <v>18977416000</v>
+        <v>16448147800</v>
       </c>
       <c r="G65">
         <v>1118816000</v>
@@ -3628,13 +3628,13 @@
         <v>3227200</v>
       </c>
       <c r="I65">
-        <v>57279823000</v>
+        <v>50589020500</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-31T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>5203089308000</v>
+        <v>4626797876300</v>
       </c>
       <c r="L65">
         <v>285080200</v>
@@ -3643,13 +3643,13 @@
         <v>-1142700</v>
       </c>
       <c r="N65">
-        <v>-18206175000</v>
+        <v>-16573908900</v>
       </c>
       <c r="O65">
         <v>-40118900</v>
       </c>
       <c r="P65">
-        <v>-591335036000</v>
+        <v>-543041178200</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>12600</v>
       </c>
       <c r="E66">
-        <v>32980861000</v>
+        <v>29036709100</v>
       </c>
       <c r="F66">
-        <v>20686643000</v>
+        <v>20142188000</v>
       </c>
       <c r="G66">
         <v>61936000.00000001</v>
@@ -3678,13 +3678,13 @@
         <v>3210900</v>
       </c>
       <c r="I66">
-        <v>53729440000</v>
+        <v>49240833100</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-31T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>5256818748000</v>
+        <v>4676038709400</v>
       </c>
       <c r="L66">
         <v>288291100</v>
@@ -3693,13 +3693,13 @@
         <v>-828900</v>
       </c>
       <c r="N66">
-        <v>-12294218000</v>
+        <v>-8894521100</v>
       </c>
       <c r="O66">
         <v>-40947800</v>
       </c>
       <c r="P66">
-        <v>-603629254000</v>
+        <v>-551935699300</v>
       </c>
     </row>
     <row r="67">
@@ -3716,25 +3716,25 @@
         <v>4900</v>
       </c>
       <c r="E67">
-        <v>34326497000</v>
+        <v>29641386800</v>
       </c>
       <c r="F67">
-        <v>21262878000</v>
+        <v>18588055500</v>
       </c>
       <c r="G67">
-        <v>107930000</v>
+        <v>91846100</v>
       </c>
       <c r="H67">
         <v>3069400</v>
       </c>
       <c r="I67">
-        <v>55697305000</v>
+        <v>48321288400</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-31T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>5312516053000</v>
+        <v>4724359997800</v>
       </c>
       <c r="L67">
         <v>291360500</v>
@@ -3743,13 +3743,13 @@
         <v>-661700</v>
       </c>
       <c r="N67">
-        <v>-13063619000</v>
+        <v>-11053331300</v>
       </c>
       <c r="O67">
         <v>-41609500</v>
       </c>
       <c r="P67">
-        <v>-616692873000</v>
+        <v>-562989030600</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>2600</v>
       </c>
       <c r="E68">
-        <v>24807576000</v>
+        <v>23502582300</v>
       </c>
       <c r="F68">
-        <v>18089964000</v>
+        <v>17533321200</v>
       </c>
       <c r="G68">
         <v>116840000</v>
@@ -3778,13 +3778,13 @@
         <v>2507500</v>
       </c>
       <c r="I68">
-        <v>43014380000</v>
+        <v>41152743500</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-31T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>5355530433000</v>
+        <v>4765512741300</v>
       </c>
       <c r="L68">
         <v>293868000</v>
@@ -3793,13 +3793,13 @@
         <v>-481300</v>
       </c>
       <c r="N68">
-        <v>-6717612000</v>
+        <v>-5969261100</v>
       </c>
       <c r="O68">
         <v>-42090800</v>
       </c>
       <c r="P68">
-        <v>-623410485000</v>
+        <v>-568958291700</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>26000</v>
       </c>
       <c r="E69">
-        <v>51901161000</v>
+        <v>49518446100</v>
       </c>
       <c r="F69">
-        <v>21639676000</v>
+        <v>19585232500</v>
       </c>
       <c r="G69">
         <v>264160000</v>
@@ -3828,13 +3828,13 @@
         <v>4411900</v>
       </c>
       <c r="I69">
-        <v>73804997000</v>
+        <v>69367838600</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-31T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>5429335430000</v>
+        <v>4834880579900</v>
       </c>
       <c r="L69">
         <v>298279900</v>
@@ -3843,13 +3843,13 @@
         <v>-2395700</v>
       </c>
       <c r="N69">
-        <v>-30261485000</v>
+        <v>-29933213600</v>
       </c>
       <c r="O69">
         <v>-44486500</v>
       </c>
       <c r="P69">
-        <v>-653671970000</v>
+        <v>-598891505300</v>
       </c>
     </row>
     <row r="70">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1468775000</v>
+        <v>1375868000</v>
       </c>
       <c r="F70">
         <v>87140000</v>
@@ -3878,13 +3878,13 @@
         <v>60600</v>
       </c>
       <c r="I70">
-        <v>1555915000</v>
+        <v>1463008000</v>
       </c>
       <c r="J70" t="str">
         <v>2023-01-31T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>5430891345000</v>
+        <v>4836343587900</v>
       </c>
       <c r="L70">
         <v>298340500</v>
@@ -3893,13 +3893,13 @@
         <v>-51400</v>
       </c>
       <c r="N70">
-        <v>-1381635000</v>
+        <v>-1288728000</v>
       </c>
       <c r="O70">
         <v>-44537900</v>
       </c>
       <c r="P70">
-        <v>-655053605000</v>
+        <v>-600180233300</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>308600</v>
       </c>
       <c r="E71">
-        <v>140542440000</v>
+        <v>134041447500</v>
       </c>
       <c r="F71">
-        <v>71005540000</v>
+        <v>66769979800</v>
       </c>
       <c r="G71">
-        <v>4644221000</v>
+        <v>4615050200</v>
       </c>
       <c r="H71">
         <v>13627400</v>
       </c>
       <c r="I71">
-        <v>216192201000</v>
+        <v>205426477500</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-31T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>5647083546000</v>
+        <v>5041770065400</v>
       </c>
       <c r="L71">
         <v>311967900</v>
@@ -3943,13 +3943,13 @@
         <v>-5239800</v>
       </c>
       <c r="N71">
-        <v>-69536900000</v>
+        <v>-67271467700</v>
       </c>
       <c r="O71">
         <v>-49777700</v>
       </c>
       <c r="P71">
-        <v>-724590505000</v>
+        <v>-667451701000</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>102800</v>
       </c>
       <c r="E72">
-        <v>81120492000</v>
+        <v>79255458900</v>
       </c>
       <c r="F72">
-        <v>27517129000</v>
+        <v>25900147600</v>
       </c>
       <c r="G72">
         <v>569990000</v>
@@ -3978,13 +3978,13 @@
         <v>6957100</v>
       </c>
       <c r="I72">
-        <v>109207611000</v>
+        <v>105725596500</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-31T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>5756291157000</v>
+        <v>5147495661900</v>
       </c>
       <c r="L72">
         <v>318925000</v>
@@ -3993,13 +3993,13 @@
         <v>-3790300</v>
       </c>
       <c r="N72">
-        <v>-53603363000</v>
+        <v>-53355311300</v>
       </c>
       <c r="O72">
         <v>-53568000</v>
       </c>
       <c r="P72">
-        <v>-778193868000</v>
+        <v>-720807012300</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>34400</v>
       </c>
       <c r="E73">
-        <v>69873780000</v>
+        <v>66514742400</v>
       </c>
       <c r="F73">
-        <v>73344830000</v>
+        <v>71745630800</v>
       </c>
       <c r="G73">
         <v>1127676000</v>
@@ -4028,13 +4028,13 @@
         <v>8018200</v>
       </c>
       <c r="I73">
-        <v>144346286000</v>
+        <v>139388049200</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-31T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>5900637443000</v>
+        <v>5286883711100</v>
       </c>
       <c r="L73">
         <v>326943200</v>
@@ -4043,13 +4043,13 @@
         <v>-673800</v>
       </c>
       <c r="N73">
-        <v>3471050000</v>
+        <v>5230888400</v>
       </c>
       <c r="O73">
         <v>-54241800</v>
       </c>
       <c r="P73">
-        <v>-774722818000</v>
+        <v>-715576123900</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>70800</v>
       </c>
       <c r="E74">
-        <v>46262330000</v>
+        <v>44230264100</v>
       </c>
       <c r="F74">
-        <v>51974497000</v>
+        <v>46648628200</v>
       </c>
       <c r="G74">
         <v>1189879000</v>
@@ -4078,13 +4078,13 @@
         <v>5483100</v>
       </c>
       <c r="I74">
-        <v>99426706000</v>
+        <v>92068771300</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-31T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>6000064149000</v>
+        <v>5378952482400</v>
       </c>
       <c r="L74">
         <v>332426300</v>
@@ -4093,13 +4093,13 @@
         <v>547500</v>
       </c>
       <c r="N74">
-        <v>5712167000</v>
+        <v>2418364100</v>
       </c>
       <c r="O74">
         <v>-53694300</v>
       </c>
       <c r="P74">
-        <v>-769010651000</v>
+        <v>-713157759800</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>29600</v>
       </c>
       <c r="E75">
-        <v>38629958000</v>
+        <v>36684105800</v>
       </c>
       <c r="F75">
-        <v>54490089000</v>
+        <v>46048339200</v>
       </c>
       <c r="G75">
         <v>183215000</v>
@@ -4128,13 +4128,13 @@
         <v>5419800</v>
       </c>
       <c r="I75">
-        <v>93303262000</v>
+        <v>82915660000</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-31T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>6093367411000</v>
+        <v>5461868142400</v>
       </c>
       <c r="L75">
         <v>337846100</v>
@@ -4143,13 +4143,13 @@
         <v>529000</v>
       </c>
       <c r="N75">
-        <v>15860131000</v>
+        <v>9364233400</v>
       </c>
       <c r="O75">
         <v>-53165300</v>
       </c>
       <c r="P75">
-        <v>-753150520000</v>
+        <v>-703793526400</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>53200</v>
       </c>
       <c r="E76">
-        <v>47123600000</v>
+        <v>43542784400</v>
       </c>
       <c r="F76">
-        <v>45313971000</v>
+        <v>37846645800</v>
       </c>
       <c r="G76">
-        <v>1069570000</v>
+        <v>1068371200</v>
       </c>
       <c r="H76">
         <v>5298400</v>
       </c>
       <c r="I76">
-        <v>93507141000</v>
+        <v>82457801400</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-31T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>6186874552000</v>
+        <v>5544325943800</v>
       </c>
       <c r="L76">
         <v>343144500</v>
@@ -4193,13 +4193,13 @@
         <v>-198200</v>
       </c>
       <c r="N76">
-        <v>-1809629000</v>
+        <v>-5696138600</v>
       </c>
       <c r="O76">
         <v>-53363500</v>
       </c>
       <c r="P76">
-        <v>-754960149000</v>
+        <v>-709489665000</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>16600</v>
       </c>
       <c r="E77">
-        <v>31564556000</v>
+        <v>28502421200</v>
       </c>
       <c r="F77">
-        <v>44077631000</v>
+        <v>42335474900</v>
       </c>
       <c r="G77">
         <v>259835000</v>
@@ -4228,13 +4228,13 @@
         <v>4278100</v>
       </c>
       <c r="I77">
-        <v>75902022000</v>
+        <v>71097731100</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-31T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>6262776574000</v>
+        <v>5615423674900</v>
       </c>
       <c r="L77">
         <v>347422600</v>
@@ -4243,13 +4243,13 @@
         <v>604100</v>
       </c>
       <c r="N77">
-        <v>12513075000</v>
+        <v>13833053700</v>
       </c>
       <c r="O77">
         <v>-52759400</v>
       </c>
       <c r="P77">
-        <v>-742447074000</v>
+        <v>-695656611300</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>26600</v>
       </c>
       <c r="E78">
-        <v>30508079000</v>
+        <v>29359628600</v>
       </c>
       <c r="F78">
-        <v>52647855000</v>
+        <v>42851561100</v>
       </c>
       <c r="G78">
         <v>199539000</v>
@@ -4278,13 +4278,13 @@
         <v>4789100</v>
       </c>
       <c r="I78">
-        <v>83355473000</v>
+        <v>72410728700</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-31T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>6346132047000</v>
+        <v>5687834403600</v>
       </c>
       <c r="L78">
         <v>352211700</v>
@@ -4293,13 +4293,13 @@
         <v>1021900</v>
       </c>
       <c r="N78">
-        <v>22139776000</v>
+        <v>13491932500</v>
       </c>
       <c r="O78">
         <v>-51737500</v>
       </c>
       <c r="P78">
-        <v>-720307298000</v>
+        <v>-682164678800</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>4900</v>
       </c>
       <c r="E79">
-        <v>52183868000</v>
+        <v>39490274300</v>
       </c>
       <c r="F79">
-        <v>70017648000</v>
+        <v>61991382300</v>
       </c>
       <c r="G79">
         <v>51899000</v>
@@ -4328,13 +4328,13 @@
         <v>6842500</v>
       </c>
       <c r="I79">
-        <v>122253415000</v>
+        <v>101533555600</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-31T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>6468385462000</v>
+        <v>5789367959200</v>
       </c>
       <c r="L79">
         <v>359054200</v>
@@ -4343,13 +4343,13 @@
         <v>1173400</v>
       </c>
       <c r="N79">
-        <v>17833780000</v>
+        <v>22501108000</v>
       </c>
       <c r="O79">
         <v>-50564100</v>
       </c>
       <c r="P79">
-        <v>-702473518000</v>
+        <v>-659663570800</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>33200</v>
       </c>
       <c r="E80">
-        <v>21722018000</v>
+        <v>19920920900</v>
       </c>
       <c r="F80">
-        <v>76984617000</v>
+        <v>70421087100</v>
       </c>
       <c r="G80">
         <v>600619000</v>
@@ -4378,13 +4378,13 @@
         <v>5670300</v>
       </c>
       <c r="I80">
-        <v>99307254000</v>
+        <v>90942627000</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-31T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>6567692716000</v>
+        <v>5880310586200</v>
       </c>
       <c r="L80">
         <v>364724500</v>
@@ -4393,13 +4393,13 @@
         <v>2863500</v>
       </c>
       <c r="N80">
-        <v>55262599000</v>
+        <v>50500166200</v>
       </c>
       <c r="O80">
         <v>-47700600</v>
       </c>
       <c r="P80">
-        <v>-647210919000</v>
+        <v>-609163404600</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>32100</v>
       </c>
       <c r="E81">
-        <v>25616412000</v>
+        <v>23043587400</v>
       </c>
       <c r="F81">
-        <v>87406117000</v>
+        <v>83050277200</v>
       </c>
       <c r="G81">
-        <v>618572000</v>
+        <v>604186400</v>
       </c>
       <c r="H81">
         <v>6346200</v>
       </c>
       <c r="I81">
-        <v>113641101000</v>
+        <v>106698051000</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-31T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>6681333817000</v>
+        <v>5987008637200</v>
       </c>
       <c r="L81">
         <v>371070700</v>
@@ -4443,13 +4443,13 @@
         <v>3443900</v>
       </c>
       <c r="N81">
-        <v>61789705000</v>
+        <v>60006689800</v>
       </c>
       <c r="O81">
         <v>-44256700</v>
       </c>
       <c r="P81">
-        <v>-585421214000</v>
+        <v>-549156714800</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>11300</v>
       </c>
       <c r="E82">
-        <v>43973507000</v>
+        <v>40952930600</v>
       </c>
       <c r="F82">
-        <v>82916030000</v>
+        <v>78535914500</v>
       </c>
       <c r="G82">
         <v>158284000</v>
@@ -4478,13 +4478,13 @@
         <v>7020100</v>
       </c>
       <c r="I82">
-        <v>127047821000</v>
+        <v>119647129100</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-31T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>6808381638000</v>
+        <v>6106655766300</v>
       </c>
       <c r="L82">
         <v>378090800</v>
@@ -4493,13 +4493,13 @@
         <v>2230800</v>
       </c>
       <c r="N82">
-        <v>38942523000</v>
+        <v>37582983900</v>
       </c>
       <c r="O82">
         <v>-42025900</v>
       </c>
       <c r="P82">
-        <v>-546478691000</v>
+        <v>-511573730900</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>19400</v>
       </c>
       <c r="E83">
-        <v>49053793000</v>
+        <v>47649798400</v>
       </c>
       <c r="F83">
-        <v>63201505000</v>
+        <v>61281826600</v>
       </c>
       <c r="G83">
         <v>546905000</v>
@@ -4528,13 +4528,13 @@
         <v>5785400</v>
       </c>
       <c r="I83">
-        <v>112802203000</v>
+        <v>109478530000</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-31T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>6921183841000</v>
+        <v>6216134296300</v>
       </c>
       <c r="L83">
         <v>383876200</v>
@@ -4543,13 +4543,13 @@
         <v>866200</v>
       </c>
       <c r="N83">
-        <v>14147712000</v>
+        <v>13632028200</v>
       </c>
       <c r="O83">
         <v>-41159700</v>
       </c>
       <c r="P83">
-        <v>-532330979000</v>
+        <v>-497941702700</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>22700</v>
       </c>
       <c r="E84">
-        <v>41938912000</v>
+        <v>40435217200</v>
       </c>
       <c r="F84">
-        <v>50060696000</v>
+        <v>45932828000</v>
       </c>
       <c r="G84">
         <v>359792000</v>
@@ -4578,13 +4578,13 @@
         <v>4903800</v>
       </c>
       <c r="I84">
-        <v>92359400000</v>
+        <v>86727837200</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-31T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>7013543241000</v>
+        <v>6302862133500</v>
       </c>
       <c r="L84">
         <v>388780000</v>
@@ -4593,13 +4593,13 @@
         <v>293700</v>
       </c>
       <c r="N84">
-        <v>8121784000</v>
+        <v>5497610800</v>
       </c>
       <c r="O84">
         <v>-40866000</v>
       </c>
       <c r="P84">
-        <v>-524209195000</v>
+        <v>-492444091900</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>14600</v>
       </c>
       <c r="E85">
-        <v>41271203000</v>
+        <v>38716959800</v>
       </c>
       <c r="F85">
-        <v>41926887000</v>
+        <v>37582036200</v>
       </c>
       <c r="G85">
-        <v>215171000</v>
+        <v>158128100</v>
       </c>
       <c r="H85">
         <v>4266800</v>
       </c>
       <c r="I85">
-        <v>83413261000</v>
+        <v>76457124100</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-31T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>7096956502000</v>
+        <v>6379319257600</v>
       </c>
       <c r="L85">
         <v>393046800</v>
@@ -4643,13 +4643,13 @@
         <v>33200</v>
       </c>
       <c r="N85">
-        <v>655684000</v>
+        <v>-1134923600</v>
       </c>
       <c r="O85">
         <v>-40832800</v>
       </c>
       <c r="P85">
-        <v>-523553511000</v>
+        <v>-493579015500</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>20300</v>
       </c>
       <c r="E86">
-        <v>31832975000</v>
+        <v>29693316800</v>
       </c>
       <c r="F86">
-        <v>39727736000</v>
+        <v>34035933500</v>
       </c>
       <c r="G86">
-        <v>440390000</v>
+        <v>272258300</v>
       </c>
       <c r="H86">
         <v>4044800</v>
       </c>
       <c r="I86">
-        <v>72001101000</v>
+        <v>64001508600</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-31T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>7168957603000</v>
+        <v>6443320766200</v>
       </c>
       <c r="L86">
         <v>397091600</v>
@@ -4693,13 +4693,13 @@
         <v>450100</v>
       </c>
       <c r="N86">
-        <v>7894761000</v>
+        <v>4342616700</v>
       </c>
       <c r="O86">
         <v>-40382700</v>
       </c>
       <c r="P86">
-        <v>-515658750000</v>
+        <v>-489236398800</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>1000</v>
       </c>
       <c r="E87">
-        <v>47948879000</v>
+        <v>41993840000</v>
       </c>
       <c r="F87">
-        <v>78053231000</v>
+        <v>70635656000</v>
       </c>
       <c r="G87">
         <v>17985000</v>
@@ -4728,13 +4728,13 @@
         <v>6705700</v>
       </c>
       <c r="I87">
-        <v>126020095000</v>
+        <v>112647481000</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-31T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>7294977698000</v>
+        <v>6555968247200</v>
       </c>
       <c r="L87">
         <v>403797300</v>
@@ -4743,13 +4743,13 @@
         <v>1973500</v>
       </c>
       <c r="N87">
-        <v>30104352000</v>
+        <v>28641816000</v>
       </c>
       <c r="O87">
         <v>-38409200</v>
       </c>
       <c r="P87">
-        <v>-485554398000</v>
+        <v>-460594582800</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>56500</v>
       </c>
       <c r="E88">
-        <v>43114808000</v>
+        <v>37543584800</v>
       </c>
       <c r="F88">
-        <v>68453062000</v>
+        <v>62097324100</v>
       </c>
       <c r="G88">
         <v>909787000</v>
@@ -4778,13 +4778,13 @@
         <v>5931900</v>
       </c>
       <c r="I88">
-        <v>112477657000</v>
+        <v>100550695900</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-31T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>7407455355000</v>
+        <v>6656518943100</v>
       </c>
       <c r="L88">
         <v>409729200</v>
@@ -4793,13 +4793,13 @@
         <v>1460800</v>
       </c>
       <c r="N88">
-        <v>25338254000</v>
+        <v>24553739300</v>
       </c>
       <c r="O88">
         <v>-36948400</v>
       </c>
       <c r="P88">
-        <v>-460216144000</v>
+        <v>-436040843500</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>18500</v>
       </c>
       <c r="E89">
-        <v>42455619000</v>
+        <v>39185991900</v>
       </c>
       <c r="F89">
-        <v>52202506000</v>
+        <v>50245465000</v>
       </c>
       <c r="G89">
         <v>548230000</v>
@@ -4828,13 +4828,13 @@
         <v>4951700</v>
       </c>
       <c r="I89">
-        <v>95206355000</v>
+        <v>89979686900</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-31T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>7502661710000</v>
+        <v>6746498630000</v>
       </c>
       <c r="L89">
         <v>414680900</v>
@@ -4843,13 +4843,13 @@
         <v>598200</v>
       </c>
       <c r="N89">
-        <v>9746887000</v>
+        <v>11059473100</v>
       </c>
       <c r="O89">
         <v>-36350200</v>
       </c>
       <c r="P89">
-        <v>-450469257000</v>
+        <v>-424981370400</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>21700</v>
       </c>
       <c r="E90">
-        <v>26917337000</v>
+        <v>22277681300</v>
       </c>
       <c r="F90">
-        <v>50192501000</v>
+        <v>47253642800</v>
       </c>
       <c r="G90">
         <v>674075000</v>
@@ -4878,13 +4878,13 @@
         <v>4347600</v>
       </c>
       <c r="I90">
-        <v>77783913000</v>
+        <v>70205399100</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-31T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>7580445623000</v>
+        <v>6816704029100</v>
       </c>
       <c r="L90">
         <v>419028500</v>
@@ -4893,13 +4893,13 @@
         <v>1563300</v>
       </c>
       <c r="N90">
-        <v>23275164000</v>
+        <v>24975961500</v>
       </c>
       <c r="O90">
         <v>-34786900</v>
       </c>
       <c r="P90">
-        <v>-427194093000</v>
+        <v>-400005408900</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>7100</v>
       </c>
       <c r="E91">
-        <v>48246920000</v>
+        <v>47311656200</v>
       </c>
       <c r="F91">
-        <v>38565956000</v>
+        <v>36027596900</v>
       </c>
       <c r="G91">
         <v>502764000</v>
@@ -4928,13 +4928,13 @@
         <v>4353900</v>
       </c>
       <c r="I91">
-        <v>87315640000</v>
+        <v>83842017100</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-31T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>7667761263000</v>
+        <v>6900546046200</v>
       </c>
       <c r="L91">
         <v>423382400</v>
@@ -4943,13 +4943,13 @@
         <v>-197800</v>
       </c>
       <c r="N91">
-        <v>-9680964000</v>
+        <v>-11284059300</v>
       </c>
       <c r="O91">
         <v>-34984700</v>
       </c>
       <c r="P91">
-        <v>-436875057000</v>
+        <v>-411289468200</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>5800</v>
       </c>
       <c r="E92">
-        <v>64567270000</v>
+        <v>60271470100</v>
       </c>
       <c r="F92">
-        <v>34713766000</v>
+        <v>28537848100</v>
       </c>
       <c r="G92">
         <v>108888000</v>
@@ -4978,13 +4978,13 @@
         <v>5667400</v>
       </c>
       <c r="I92">
-        <v>99389924000</v>
+        <v>88918206200</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-31T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>7767151187000</v>
+        <v>6989464252400</v>
       </c>
       <c r="L92">
         <v>429049800</v>
@@ -4993,13 +4993,13 @@
         <v>-1712400</v>
       </c>
       <c r="N92">
-        <v>-29853504000</v>
+        <v>-31733622000</v>
       </c>
       <c r="O92">
         <v>-36697100</v>
       </c>
       <c r="P92">
-        <v>-466728561000</v>
+        <v>-443023090200</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>48900</v>
       </c>
       <c r="E93">
-        <v>41226066000</v>
+        <v>37887408000</v>
       </c>
       <c r="F93">
-        <v>51381638000</v>
+        <v>24102744200</v>
       </c>
       <c r="G93">
         <v>254356000</v>
@@ -5028,13 +5028,13 @@
         <v>4940200</v>
       </c>
       <c r="I93">
-        <v>92862060000</v>
+        <v>62244508200</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-31T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>7860013247000</v>
+        <v>7051708760600</v>
       </c>
       <c r="L93">
         <v>433990000</v>
@@ -5043,13 +5043,13 @@
         <v>-353100</v>
       </c>
       <c r="N93">
-        <v>10155572000</v>
+        <v>-13784663800</v>
       </c>
       <c r="O93">
         <v>-37050200</v>
       </c>
       <c r="P93">
-        <v>-456572989000</v>
+        <v>-456807754000</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>35200</v>
       </c>
       <c r="E94">
-        <v>25379745000</v>
+        <v>22762464900</v>
       </c>
       <c r="F94">
-        <v>91611903000</v>
+        <v>83956266300</v>
       </c>
       <c r="G94">
-        <v>701880000</v>
+        <v>695286600</v>
       </c>
       <c r="H94">
         <v>5829100</v>
       </c>
       <c r="I94">
-        <v>117693528000</v>
+        <v>107414017800</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-31T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>7977706775000</v>
+        <v>7159122778400</v>
       </c>
       <c r="L94">
         <v>439819100</v>
@@ -5093,13 +5093,13 @@
         <v>2595300</v>
       </c>
       <c r="N94">
-        <v>66232158000</v>
+        <v>61193801400</v>
       </c>
       <c r="O94">
         <v>-34454900</v>
       </c>
       <c r="P94">
-        <v>-390340831000</v>
+        <v>-395613952600</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>36500</v>
       </c>
       <c r="E95">
-        <v>29804690000</v>
+        <v>28391105000</v>
       </c>
       <c r="F95">
-        <v>121375640000</v>
+        <v>110326000700</v>
       </c>
       <c r="G95">
-        <v>921218000</v>
+        <v>913226000</v>
       </c>
       <c r="H95">
         <v>7949100</v>
       </c>
       <c r="I95">
-        <v>152101548000</v>
+        <v>139630331700</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-31T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>8129808323000</v>
+        <v>7298753110100</v>
       </c>
       <c r="L95">
         <v>447768200</v>
@@ -5143,13 +5143,13 @@
         <v>4381400</v>
       </c>
       <c r="N95">
-        <v>91570950000</v>
+        <v>81934895700</v>
       </c>
       <c r="O95">
         <v>-30073500</v>
       </c>
       <c r="P95">
-        <v>-298769881000</v>
+        <v>-313679056900</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>97600</v>
       </c>
       <c r="E96">
-        <v>28902063000</v>
+        <v>27975390600</v>
       </c>
       <c r="F96">
-        <v>169468240000</v>
+        <v>158248471000</v>
       </c>
       <c r="G96">
-        <v>1040155000</v>
+        <v>1028167000</v>
       </c>
       <c r="H96">
         <v>10491400</v>
       </c>
       <c r="I96">
-        <v>199410458000</v>
+        <v>187252028600</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-31T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>8329218781000</v>
+        <v>7486005138700</v>
       </c>
       <c r="L96">
         <v>458259600</v>
@@ -5193,13 +5193,13 @@
         <v>7284800</v>
       </c>
       <c r="N96">
-        <v>140566177000</v>
+        <v>130273080400</v>
       </c>
       <c r="O96">
         <v>-22788700</v>
       </c>
       <c r="P96">
-        <v>-158203704000</v>
+        <v>-183405976500</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>119800</v>
       </c>
       <c r="E97">
-        <v>55757377000</v>
+        <v>50831707600</v>
       </c>
       <c r="F97">
-        <v>179497958000</v>
+        <v>141392501600</v>
       </c>
       <c r="G97">
         <v>1248210000</v>
@@ -5228,13 +5228,13 @@
         <v>12882500</v>
       </c>
       <c r="I97">
-        <v>236503545000</v>
+        <v>193472419200</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-31T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>8565722326000</v>
+        <v>7679477557900</v>
       </c>
       <c r="L97">
         <v>471142100</v>
@@ -5243,13 +5243,13 @@
         <v>7077500</v>
       </c>
       <c r="N97">
-        <v>123740581000</v>
+        <v>90560794000</v>
       </c>
       <c r="O97">
         <v>-15711200</v>
       </c>
       <c r="P97">
-        <v>-34463123000</v>
+        <v>-92845182500</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>49500</v>
       </c>
       <c r="E98">
-        <v>74486508000</v>
+        <v>69399000600</v>
       </c>
       <c r="F98">
-        <v>55273049000</v>
+        <v>52803720800</v>
       </c>
       <c r="G98">
-        <v>1028411000</v>
+        <v>953486000</v>
       </c>
       <c r="H98">
         <v>7400700</v>
       </c>
       <c r="I98">
-        <v>130787968000</v>
+        <v>123156207400</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-31T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>8696510294000</v>
+        <v>7802633765300</v>
       </c>
       <c r="L98">
         <v>478542800</v>
@@ -5293,13 +5293,13 @@
         <v>-1285400</v>
       </c>
       <c r="N98">
-        <v>-19213459000</v>
+        <v>-16595279800</v>
       </c>
       <c r="O98">
         <v>-16996600</v>
       </c>
       <c r="P98">
-        <v>-53676582000</v>
+        <v>-109440462300</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>10800</v>
       </c>
       <c r="E99">
-        <v>59871693000</v>
+        <v>57488178900</v>
       </c>
       <c r="F99">
-        <v>31070528000</v>
+        <v>30076023500</v>
       </c>
       <c r="G99">
         <v>100964000</v>
@@ -5328,13 +5328,13 @@
         <v>5527800</v>
       </c>
       <c r="I99">
-        <v>91043185000</v>
+        <v>87665166400</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-31T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>8787553479000</v>
+        <v>7890298931700</v>
       </c>
       <c r="L99">
         <v>484070600</v>
@@ -5343,13 +5343,13 @@
         <v>-1396200</v>
       </c>
       <c r="N99">
-        <v>-28801165000</v>
+        <v>-27412155400</v>
       </c>
       <c r="O99">
         <v>-18392800</v>
       </c>
       <c r="P99">
-        <v>-82477747000</v>
+        <v>-136852617700</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>5200</v>
       </c>
       <c r="E100">
-        <v>68328988000</v>
+        <v>65918600800</v>
       </c>
       <c r="F100">
-        <v>29268166000</v>
+        <v>28045889500</v>
       </c>
       <c r="G100">
         <v>180323000</v>
@@ -5378,13 +5378,13 @@
         <v>5407100</v>
       </c>
       <c r="I100">
-        <v>97777477000</v>
+        <v>94144813300</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-31T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>8885330956000</v>
+        <v>7984443745000</v>
       </c>
       <c r="L100">
         <v>489477700</v>
@@ -5393,13 +5393,13 @@
         <v>-2212300</v>
       </c>
       <c r="N100">
-        <v>-39060822000</v>
+        <v>-37872711300</v>
       </c>
       <c r="O100">
         <v>-20605100</v>
       </c>
       <c r="P100">
-        <v>-121538569000</v>
+        <v>-174725329000</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>35100</v>
       </c>
       <c r="E101">
-        <v>54672005000</v>
+        <v>52025953700</v>
       </c>
       <c r="F101">
-        <v>24877307000</v>
+        <v>24433751000</v>
       </c>
       <c r="G101">
         <v>292719000</v>
@@ -5428,13 +5428,13 @@
         <v>4450900</v>
       </c>
       <c r="I101">
-        <v>79842031000</v>
+        <v>76752423700</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-31T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>8965172987000</v>
+        <v>8061196168700</v>
       </c>
       <c r="L101">
         <v>493928600</v>
@@ -5443,13 +5443,13 @@
         <v>-1896600</v>
       </c>
       <c r="N101">
-        <v>-29794698000</v>
+        <v>-27592202700</v>
       </c>
       <c r="O101">
         <v>-22501700</v>
       </c>
       <c r="P101">
-        <v>-151333267000</v>
+        <v>-202317531700</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>91600</v>
       </c>
       <c r="E102">
-        <v>30407718000</v>
+        <v>28009518600</v>
       </c>
       <c r="F102">
-        <v>74331883000</v>
+        <v>69352467400</v>
       </c>
       <c r="G102">
         <v>873757000</v>
@@ -5478,13 +5478,13 @@
         <v>5475900</v>
       </c>
       <c r="I102">
-        <v>105613358000</v>
+        <v>98235743000</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-31T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>9070786345000</v>
+        <v>8159431911700</v>
       </c>
       <c r="L102">
         <v>499404500</v>
@@ -5493,13 +5493,13 @@
         <v>1792100</v>
       </c>
       <c r="N102">
-        <v>43924165000</v>
+        <v>41342948800</v>
       </c>
       <c r="O102">
         <v>-20709600</v>
       </c>
       <c r="P102">
-        <v>-107409102000</v>
+        <v>-160974582900</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>600</v>
       </c>
       <c r="E103">
-        <v>21784938000</v>
+        <v>19925399400</v>
       </c>
       <c r="F103">
-        <v>51362440000</v>
+        <v>48943461400</v>
       </c>
       <c r="G103">
-        <v>22800000</v>
+        <v>22800</v>
       </c>
       <c r="H103">
         <v>3562300</v>
       </c>
       <c r="I103">
-        <v>73170178000</v>
+        <v>68868883600</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-31T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>9143956523000</v>
+        <v>8228300795300</v>
       </c>
       <c r="L103">
         <v>502966800</v>
@@ -5543,13 +5543,13 @@
         <v>1548900</v>
       </c>
       <c r="N103">
-        <v>29577502000</v>
+        <v>29018062000</v>
       </c>
       <c r="O103">
         <v>-19160700</v>
       </c>
       <c r="P103">
-        <v>-77831600000</v>
+        <v>-131956520900</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>5200</v>
       </c>
       <c r="E104">
-        <v>72105628000</v>
+        <v>69569866300</v>
       </c>
       <c r="F104">
-        <v>39850366000</v>
+        <v>36835783600</v>
       </c>
       <c r="G104">
         <v>126679000</v>
@@ -5578,13 +5578,13 @@
         <v>5427500</v>
       </c>
       <c r="I104">
-        <v>112082673000</v>
+        <v>106532328900</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-31T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>9256039196000</v>
+        <v>8334833124200</v>
       </c>
       <c r="L104">
         <v>508394300</v>
@@ -5593,13 +5593,13 @@
         <v>-1128900</v>
       </c>
       <c r="N104">
-        <v>-32255262000</v>
+        <v>-32734082700</v>
       </c>
       <c r="O104">
         <v>-20289600</v>
       </c>
       <c r="P104">
-        <v>-110086862000</v>
+        <v>-164690603600</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>41600</v>
       </c>
       <c r="E105">
-        <v>42035612000</v>
+        <v>40611937100</v>
       </c>
       <c r="F105">
-        <v>27556990000</v>
+        <v>27255292000</v>
       </c>
       <c r="G105">
         <v>481697000</v>
@@ -5628,13 +5628,13 @@
         <v>3913500</v>
       </c>
       <c r="I105">
-        <v>70074299000</v>
+        <v>68348926100</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-31T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>9326113495000</v>
+        <v>8403182050300</v>
       </c>
       <c r="L105">
         <v>512307800</v>
@@ -5643,13 +5643,13 @@
         <v>-1330700</v>
       </c>
       <c r="N105">
-        <v>-14478622000</v>
+        <v>-13356645100</v>
       </c>
       <c r="O105">
         <v>-21620300</v>
       </c>
       <c r="P105">
-        <v>-124565484000</v>
+        <v>-178047248700</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>11800</v>
       </c>
       <c r="E106">
-        <v>53746932000</v>
+        <v>30054648000</v>
       </c>
       <c r="F106">
-        <v>36934794000</v>
+        <v>35924705100</v>
       </c>
       <c r="G106">
         <v>179131000</v>
@@ -5678,13 +5678,13 @@
         <v>4234300</v>
       </c>
       <c r="I106">
-        <v>90860857000</v>
+        <v>66158484100</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-31T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>9416974352000</v>
+        <v>8469340534400</v>
       </c>
       <c r="L106">
         <v>516542100</v>
@@ -5693,13 +5693,13 @@
         <v>-188500</v>
       </c>
       <c r="N106">
-        <v>-16812138000</v>
+        <v>5870057100</v>
       </c>
       <c r="O106">
         <v>-21808800</v>
       </c>
       <c r="P106">
-        <v>-141377622000</v>
+        <v>-172177191600</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>4500</v>
       </c>
       <c r="E107">
-        <v>65986323000</v>
+        <v>61117097100</v>
       </c>
       <c r="F107">
-        <v>52235549000</v>
+        <v>40353143300</v>
       </c>
       <c r="G107">
-        <v>97898000</v>
+        <v>82513400</v>
       </c>
       <c r="H107">
         <v>5402500</v>
       </c>
       <c r="I107">
-        <v>118319770000</v>
+        <v>101552753800</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-31T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>9535294122000</v>
+        <v>8570893288200</v>
       </c>
       <c r="L107">
         <v>521944600</v>
@@ -5743,13 +5743,13 @@
         <v>-787800</v>
       </c>
       <c r="N107">
-        <v>-13750774000</v>
+        <v>-20763953800</v>
       </c>
       <c r="O107">
         <v>-22596600</v>
       </c>
       <c r="P107">
-        <v>-155128396000</v>
+        <v>-192941145400</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>17500</v>
       </c>
       <c r="E108">
-        <v>46592159000</v>
+        <v>35020742000</v>
       </c>
       <c r="F108">
-        <v>63854349000</v>
+        <v>55095716400</v>
       </c>
       <c r="G108">
         <v>412130000</v>
@@ -5778,13 +5778,13 @@
         <v>4779800</v>
       </c>
       <c r="I108">
-        <v>110858638000</v>
+        <v>90528588400</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-31T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>9646152760000</v>
+        <v>8661421876600</v>
       </c>
       <c r="L108">
         <v>526724400</v>
@@ -5793,13 +5793,13 @@
         <v>382500</v>
       </c>
       <c r="N108">
-        <v>17262190000</v>
+        <v>20074974400</v>
       </c>
       <c r="O108">
         <v>-22214100</v>
       </c>
       <c r="P108">
-        <v>-137866206000</v>
+        <v>-172866171000</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>32300</v>
       </c>
       <c r="E109">
-        <v>40033202000</v>
+        <v>33039902300</v>
       </c>
       <c r="F109">
-        <v>90359426000</v>
+        <v>86896991900</v>
       </c>
       <c r="G109">
-        <v>1854709000</v>
+        <v>1818145600</v>
       </c>
       <c r="H109">
         <v>5796800</v>
       </c>
       <c r="I109">
-        <v>132247337000</v>
+        <v>121755039800</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-31T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>9778400097000</v>
+        <v>8783176916400</v>
       </c>
       <c r="L109">
         <v>532521200</v>
@@ -5843,13 +5843,13 @@
         <v>2024500</v>
       </c>
       <c r="N109">
-        <v>50326224000</v>
+        <v>53857089600</v>
       </c>
       <c r="O109">
         <v>-20189600</v>
       </c>
       <c r="P109">
-        <v>-87539982000</v>
+        <v>-119009081400</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>17000</v>
       </c>
       <c r="E110">
-        <v>30574346000</v>
+        <v>28620202100</v>
       </c>
       <c r="F110">
-        <v>84534774000</v>
+        <v>77093922300</v>
       </c>
       <c r="G110">
         <v>778510000</v>
@@ -5878,13 +5878,13 @@
         <v>4850600</v>
       </c>
       <c r="I110">
-        <v>115887630000</v>
+        <v>106492634400</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-31T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>9894287727000</v>
+        <v>8889669550800</v>
       </c>
       <c r="L110">
         <v>537371800</v>
@@ -5893,13 +5893,13 @@
         <v>1487200</v>
       </c>
       <c r="N110">
-        <v>53960428000</v>
+        <v>48473720200</v>
       </c>
       <c r="O110">
         <v>-18702400</v>
       </c>
       <c r="P110">
-        <v>-33579554000</v>
+        <v>-70535361200</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>13900</v>
       </c>
       <c r="E111">
-        <v>33371960000</v>
+        <v>29546988800</v>
       </c>
       <c r="F111">
-        <v>101439879000</v>
+        <v>99730190400</v>
       </c>
       <c r="G111">
         <v>300386000</v>
@@ -5928,13 +5928,13 @@
         <v>6464800</v>
       </c>
       <c r="I111">
-        <v>135112225000</v>
+        <v>129577565200</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-31T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>10029399952000</v>
+        <v>9019247116000</v>
       </c>
       <c r="L111">
         <v>543836600</v>
@@ -5943,13 +5943,13 @@
         <v>3345700</v>
       </c>
       <c r="N111">
-        <v>68067919000</v>
+        <v>70183201600</v>
       </c>
       <c r="O111">
         <v>-15356700</v>
       </c>
       <c r="P111">
-        <v>34488365000</v>
+        <v>-352159600</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>44000</v>
       </c>
       <c r="E112">
-        <v>46442058000</v>
+        <v>43839762900</v>
       </c>
       <c r="F112">
-        <v>139056146000</v>
+        <v>132459449300</v>
       </c>
       <c r="G112">
         <v>2092668000</v>
@@ -5978,13 +5978,13 @@
         <v>9313100</v>
       </c>
       <c r="I112">
-        <v>187590872000</v>
+        <v>178391880200</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-31T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>10216990824000</v>
+        <v>9197638996200</v>
       </c>
       <c r="L112">
         <v>553149700</v>
@@ -5993,13 +5993,13 @@
         <v>4448300</v>
       </c>
       <c r="N112">
-        <v>92614088000</v>
+        <v>88619686400</v>
       </c>
       <c r="O112">
         <v>-10908400</v>
       </c>
       <c r="P112">
-        <v>127102453000</v>
+        <v>88267526800</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>34100</v>
       </c>
       <c r="E113">
-        <v>53027697000</v>
+        <v>52172752800</v>
       </c>
       <c r="F113">
-        <v>210343782000</v>
+        <v>173855406900</v>
       </c>
       <c r="G113">
         <v>527389000</v>
@@ -6028,13 +6028,13 @@
         <v>13459200</v>
       </c>
       <c r="I113">
-        <v>263898868000</v>
+        <v>226555548700</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-31T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>10480889692000</v>
+        <v>9424194544900</v>
       </c>
       <c r="L113">
         <v>566608900</v>
@@ -6043,13 +6043,13 @@
         <v>8046300</v>
       </c>
       <c r="N113">
-        <v>157316085000</v>
+        <v>121682654100</v>
       </c>
       <c r="O113">
         <v>-2862100</v>
       </c>
       <c r="P113">
-        <v>284418538000</v>
+        <v>209950180900</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>142000</v>
       </c>
       <c r="E114">
-        <v>45146341000</v>
+        <v>44517870100</v>
       </c>
       <c r="F114">
-        <v>176942889000</v>
+        <v>170686651500</v>
       </c>
       <c r="G114">
         <v>2247001000</v>
@@ -6078,13 +6078,13 @@
         <v>12141900</v>
       </c>
       <c r="I114">
-        <v>224336231000</v>
+        <v>217451522600</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-31T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>10705225923000</v>
+        <v>9641646067500</v>
       </c>
       <c r="L114">
         <v>578750800</v>
@@ -6093,13 +6093,13 @@
         <v>6805500</v>
       </c>
       <c r="N114">
-        <v>131796548000</v>
+        <v>126168781400</v>
       </c>
       <c r="O114">
         <v>3943400</v>
       </c>
       <c r="P114">
-        <v>416215086000</v>
+        <v>336118962300</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>49600</v>
       </c>
       <c r="E115">
-        <v>55654531000</v>
+        <v>52264824100</v>
       </c>
       <c r="F115">
-        <v>129459471000</v>
+        <v>116698045200</v>
       </c>
       <c r="G115">
         <v>794960000</v>
@@ -6128,13 +6128,13 @@
         <v>10309400</v>
       </c>
       <c r="I115">
-        <v>185908962000</v>
+        <v>169757829300</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-31T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>10891134885000</v>
+        <v>9811403896800</v>
       </c>
       <c r="L115">
         <v>589060200</v>
@@ -6143,13 +6143,13 @@
         <v>4406400</v>
       </c>
       <c r="N115">
-        <v>73804940000</v>
+        <v>64433221100</v>
       </c>
       <c r="O115">
         <v>8349800</v>
       </c>
       <c r="P115">
-        <v>490020026000</v>
+        <v>400552183400</v>
       </c>
     </row>
     <row r="116">
@@ -6169,7 +6169,7 @@
         <v>105875000</v>
       </c>
       <c r="F116">
-        <v>1408865000</v>
+        <v>1042431800</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6178,13 +6178,13 @@
         <v>87700</v>
       </c>
       <c r="I116">
-        <v>1514740000</v>
+        <v>1148306800</v>
       </c>
       <c r="J116" t="str">
         <v>2023-01-31T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>10892649625000</v>
+        <v>9812552203600</v>
       </c>
       <c r="L116">
         <v>589147900</v>
@@ -6193,13 +6193,13 @@
         <v>67300</v>
       </c>
       <c r="N116">
-        <v>1302990000</v>
+        <v>936556800</v>
       </c>
       <c r="O116">
         <v>8417100</v>
       </c>
       <c r="P116">
-        <v>491323016000</v>
+        <v>401488740200</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>28718900</v>
       </c>
       <c r="E117">
-        <v>63780670000</v>
+        <v>50264399800</v>
       </c>
       <c r="F117">
-        <v>109070403000</v>
+        <v>91746144600</v>
       </c>
       <c r="G117">
-        <v>600094413000</v>
+        <v>521440046100</v>
       </c>
       <c r="H117">
         <v>37512800</v>
       </c>
       <c r="I117">
-        <v>772945486000</v>
+        <v>663450590500</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-31T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>11665595111000</v>
+        <v>10476002794100</v>
       </c>
       <c r="L117">
         <v>626660700</v>
@@ -6243,13 +6243,13 @@
         <v>3358300</v>
       </c>
       <c r="N117">
-        <v>45289733000</v>
+        <v>41481744800</v>
       </c>
       <c r="O117">
         <v>11775400</v>
       </c>
       <c r="P117">
-        <v>536612749000</v>
+        <v>442970485000</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230131/VNINDEX_HOSE_5p_20230131.xlsx
+++ b/name/vnindex/20230131/VNINDEX_HOSE_5p_20230131.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-14124727500</v>
       </c>
+      <c r="Q2">
+        <v>43931487000</v>
+      </c>
+      <c r="R2">
+        <v>58056214500</v>
+      </c>
+      <c r="S2">
+        <v>2638700</v>
+      </c>
+      <c r="T2">
+        <v>5323200</v>
+      </c>
+      <c r="U2">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V2">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W2">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X2">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y2">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z2">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA2">
+        <v>101512.1</v>
+      </c>
+      <c r="AB2">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC2">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-10580276700</v>
       </c>
+      <c r="Q3">
+        <v>86059377800</v>
+      </c>
+      <c r="R3">
+        <v>96639654500</v>
+      </c>
+      <c r="S3">
+        <v>5323600</v>
+      </c>
+      <c r="T3">
+        <v>7751700</v>
+      </c>
+      <c r="U3">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V3">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W3">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X3">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y3">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z3">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA3">
+        <v>101512.1</v>
+      </c>
+      <c r="AB3">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC3">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-11209856800</v>
       </c>
+      <c r="Q4">
+        <v>121783209400</v>
+      </c>
+      <c r="R4">
+        <v>132993066200</v>
+      </c>
+      <c r="S4">
+        <v>7674900</v>
+      </c>
+      <c r="T4">
+        <v>10191800</v>
+      </c>
+      <c r="U4">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V4">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W4">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X4">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y4">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z4">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA4">
+        <v>101512.1</v>
+      </c>
+      <c r="AB4">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC4">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>3943942500</v>
       </c>
+      <c r="Q5">
+        <v>169172530600</v>
+      </c>
+      <c r="R5">
+        <v>165228588100</v>
+      </c>
+      <c r="S5">
+        <v>10440900</v>
+      </c>
+      <c r="T5">
+        <v>12432000</v>
+      </c>
+      <c r="U5">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V5">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W5">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X5">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y5">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z5">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA5">
+        <v>101512.1</v>
+      </c>
+      <c r="AB5">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-14502633400</v>
       </c>
+      <c r="Q6">
+        <v>199951144100</v>
+      </c>
+      <c r="R6">
+        <v>214453777500</v>
+      </c>
+      <c r="S6">
+        <v>12378000</v>
+      </c>
+      <c r="T6">
+        <v>15627900</v>
+      </c>
+      <c r="U6">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V6">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W6">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X6">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y6">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z6">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA6">
+        <v>101512.1</v>
+      </c>
+      <c r="AB6">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC6">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-29196825000</v>
       </c>
+      <c r="Q7">
+        <v>231894695700</v>
+      </c>
+      <c r="R7">
+        <v>261091520700</v>
+      </c>
+      <c r="S7">
+        <v>14272500</v>
+      </c>
+      <c r="T7">
+        <v>18414500</v>
+      </c>
+      <c r="U7">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V7">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W7">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X7">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y7">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z7">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA7">
+        <v>101512.1</v>
+      </c>
+      <c r="AB7">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC7">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-79888760500</v>
       </c>
+      <c r="Q8">
+        <v>261216701700</v>
+      </c>
+      <c r="R8">
+        <v>341105462200</v>
+      </c>
+      <c r="S8">
+        <v>16155900</v>
+      </c>
+      <c r="T8">
+        <v>22937100</v>
+      </c>
+      <c r="U8">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V8">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W8">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X8">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y8">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z8">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA8">
+        <v>101512.1</v>
+      </c>
+      <c r="AB8">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC8">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-130439057800</v>
       </c>
+      <c r="Q9">
+        <v>288174894400</v>
+      </c>
+      <c r="R9">
+        <v>418613952200</v>
+      </c>
+      <c r="S9">
+        <v>17907500</v>
+      </c>
+      <c r="T9">
+        <v>27970200</v>
+      </c>
+      <c r="U9">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V9">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W9">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X9">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y9">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z9">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA9">
+        <v>101512.1</v>
+      </c>
+      <c r="AB9">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC9">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-169182326500</v>
       </c>
+      <c r="Q10">
+        <v>329939349500</v>
+      </c>
+      <c r="R10">
+        <v>499121676000</v>
+      </c>
+      <c r="S10">
+        <v>20443600</v>
+      </c>
+      <c r="T10">
+        <v>32961000</v>
+      </c>
+      <c r="U10">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V10">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W10">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X10">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y10">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z10">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA10">
+        <v>101512.1</v>
+      </c>
+      <c r="AB10">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC10">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-171980192100</v>
       </c>
+      <c r="Q11">
+        <v>381258984900</v>
+      </c>
+      <c r="R11">
+        <v>553239177000</v>
+      </c>
+      <c r="S11">
+        <v>23448500</v>
+      </c>
+      <c r="T11">
+        <v>36390700</v>
+      </c>
+      <c r="U11">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V11">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W11">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X11">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y11">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z11">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA11">
+        <v>101512.1</v>
+      </c>
+      <c r="AB11">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC11">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-153267459100</v>
       </c>
+      <c r="Q12">
+        <v>433398585400</v>
+      </c>
+      <c r="R12">
+        <v>586666044500</v>
+      </c>
+      <c r="S12">
+        <v>27083200</v>
+      </c>
+      <c r="T12">
+        <v>38627300</v>
+      </c>
+      <c r="U12">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V12">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W12">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X12">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y12">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z12">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA12">
+        <v>101512.1</v>
+      </c>
+      <c r="AB12">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC12">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-112257215600</v>
       </c>
+      <c r="Q13">
+        <v>504146776800</v>
+      </c>
+      <c r="R13">
+        <v>616403992400</v>
+      </c>
+      <c r="S13">
+        <v>31453000</v>
+      </c>
+      <c r="T13">
+        <v>40320300</v>
+      </c>
+      <c r="U13">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V13">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W13">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X13">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y13">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z13">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA13">
+        <v>101512.1</v>
+      </c>
+      <c r="AB13">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC13">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-51614526700</v>
       </c>
+      <c r="Q14">
+        <v>588724849200</v>
+      </c>
+      <c r="R14">
+        <v>640339375900</v>
+      </c>
+      <c r="S14">
+        <v>36515300</v>
+      </c>
+      <c r="T14">
+        <v>41765600</v>
+      </c>
+      <c r="U14">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V14">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W14">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X14">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y14">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z14">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA14">
+        <v>101512.1</v>
+      </c>
+      <c r="AB14">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC14">
+        <v>15.9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-10054229500</v>
       </c>
+      <c r="Q15">
+        <v>672457299000</v>
+      </c>
+      <c r="R15">
+        <v>682511528500</v>
+      </c>
+      <c r="S15">
+        <v>41784900</v>
+      </c>
+      <c r="T15">
+        <v>43921900</v>
+      </c>
+      <c r="U15">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V15">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W15">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X15">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y15">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z15">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA15">
+        <v>101512.1</v>
+      </c>
+      <c r="AB15">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC15">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>2688450600</v>
       </c>
+      <c r="Q16">
+        <v>724981783500</v>
+      </c>
+      <c r="R16">
+        <v>722293332900</v>
+      </c>
+      <c r="S16">
+        <v>44916200</v>
+      </c>
+      <c r="T16">
+        <v>46195800</v>
+      </c>
+      <c r="U16">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V16">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W16">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X16">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y16">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z16">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA16">
+        <v>101512.1</v>
+      </c>
+      <c r="AB16">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC16">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>12941563400</v>
       </c>
+      <c r="Q17">
+        <v>767056450700</v>
+      </c>
+      <c r="R17">
+        <v>754114887300</v>
+      </c>
+      <c r="S17">
+        <v>48400000</v>
+      </c>
+      <c r="T17">
+        <v>48299700</v>
+      </c>
+      <c r="U17">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V17">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W17">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X17">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y17">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z17">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA17">
+        <v>101512.1</v>
+      </c>
+      <c r="AB17">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC17">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>17839683100</v>
       </c>
+      <c r="Q18">
+        <v>799933006000</v>
+      </c>
+      <c r="R18">
+        <v>782093322900</v>
+      </c>
+      <c r="S18">
+        <v>50153400</v>
+      </c>
+      <c r="T18">
+        <v>50076700</v>
+      </c>
+      <c r="U18">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V18">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W18">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X18">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y18">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z18">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA18">
+        <v>101512.1</v>
+      </c>
+      <c r="AB18">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC18">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>20430507200</v>
       </c>
+      <c r="Q19">
+        <v>827442234500</v>
+      </c>
+      <c r="R19">
+        <v>807011727300</v>
+      </c>
+      <c r="S19">
+        <v>51867300</v>
+      </c>
+      <c r="T19">
+        <v>52110900</v>
+      </c>
+      <c r="U19">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V19">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W19">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X19">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y19">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z19">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA19">
+        <v>101512.1</v>
+      </c>
+      <c r="AB19">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC19">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>11214881300</v>
       </c>
+      <c r="Q20">
+        <v>861822184100</v>
+      </c>
+      <c r="R20">
+        <v>850607302800</v>
+      </c>
+      <c r="S20">
+        <v>54047200</v>
+      </c>
+      <c r="T20">
+        <v>54620700</v>
+      </c>
+      <c r="U20">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V20">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W20">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X20">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y20">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z20">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA20">
+        <v>101512.1</v>
+      </c>
+      <c r="AB20">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC20">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-10234732600</v>
       </c>
+      <c r="Q21">
+        <v>887818978400</v>
+      </c>
+      <c r="R21">
+        <v>898053711000</v>
+      </c>
+      <c r="S21">
+        <v>55953100</v>
+      </c>
+      <c r="T21">
+        <v>57880000</v>
+      </c>
+      <c r="U21">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V21">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W21">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X21">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y21">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z21">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA21">
+        <v>101512.1</v>
+      </c>
+      <c r="AB21">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC21">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-19942801500</v>
       </c>
+      <c r="Q22">
+        <v>915514814200</v>
+      </c>
+      <c r="R22">
+        <v>935457615700</v>
+      </c>
+      <c r="S22">
+        <v>57789800</v>
+      </c>
+      <c r="T22">
+        <v>60254800</v>
+      </c>
+      <c r="U22">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V22">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W22">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X22">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y22">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z22">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA22">
+        <v>101512.1</v>
+      </c>
+      <c r="AB22">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC22">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-38000430000</v>
       </c>
+      <c r="Q23">
+        <v>943086232900</v>
+      </c>
+      <c r="R23">
+        <v>981086662900</v>
+      </c>
+      <c r="S23">
+        <v>59419000</v>
+      </c>
+      <c r="T23">
+        <v>62766600</v>
+      </c>
+      <c r="U23">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V23">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W23">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X23">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y23">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z23">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA23">
+        <v>101512.1</v>
+      </c>
+      <c r="AB23">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC23">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-66455934900</v>
       </c>
+      <c r="Q24">
+        <v>963633277100</v>
+      </c>
+      <c r="R24">
+        <v>1030089212000</v>
+      </c>
+      <c r="S24">
+        <v>60622700</v>
+      </c>
+      <c r="T24">
+        <v>65947900</v>
+      </c>
+      <c r="U24">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V24">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W24">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X24">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y24">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z24">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA24">
+        <v>101512.1</v>
+      </c>
+      <c r="AB24">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC24">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-91959803300</v>
       </c>
+      <c r="Q25">
+        <v>985641424400</v>
+      </c>
+      <c r="R25">
+        <v>1077601227700</v>
+      </c>
+      <c r="S25">
+        <v>61938600</v>
+      </c>
+      <c r="T25">
+        <v>68383700</v>
+      </c>
+      <c r="U25">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V25">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W25">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X25">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y25">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z25">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA25">
+        <v>101512.1</v>
+      </c>
+      <c r="AB25">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC25">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-112571564500</v>
       </c>
+      <c r="Q26">
+        <v>1012903826300</v>
+      </c>
+      <c r="R26">
+        <v>1125475390800</v>
+      </c>
+      <c r="S26">
+        <v>63523000</v>
+      </c>
+      <c r="T26">
+        <v>71628800</v>
+      </c>
+      <c r="U26">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V26">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W26">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X26">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y26">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z26">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA26">
+        <v>101512.1</v>
+      </c>
+      <c r="AB26">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC26">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-111268445100</v>
       </c>
+      <c r="Q27">
+        <v>1042641453900</v>
+      </c>
+      <c r="R27">
+        <v>1153909899000</v>
+      </c>
+      <c r="S27">
+        <v>65259300</v>
+      </c>
+      <c r="T27">
+        <v>73593700</v>
+      </c>
+      <c r="U27">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V27">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W27">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X27">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y27">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z27">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA27">
+        <v>101512.1</v>
+      </c>
+      <c r="AB27">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC27">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-112045087000</v>
       </c>
+      <c r="Q28">
+        <v>1071804497200</v>
+      </c>
+      <c r="R28">
+        <v>1183849584200</v>
+      </c>
+      <c r="S28">
+        <v>67190700</v>
+      </c>
+      <c r="T28">
+        <v>75513900</v>
+      </c>
+      <c r="U28">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V28">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W28">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X28">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y28">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z28">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA28">
+        <v>101512.1</v>
+      </c>
+      <c r="AB28">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC28">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-104120774800</v>
       </c>
+      <c r="Q29">
+        <v>1106207780700</v>
+      </c>
+      <c r="R29">
+        <v>1210328555500</v>
+      </c>
+      <c r="S29">
+        <v>69378700</v>
+      </c>
+      <c r="T29">
+        <v>77121800</v>
+      </c>
+      <c r="U29">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V29">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W29">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X29">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y29">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z29">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA29">
+        <v>101512.1</v>
+      </c>
+      <c r="AB29">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC29">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-86157162700</v>
       </c>
+      <c r="Q30">
+        <v>1157472694100</v>
+      </c>
+      <c r="R30">
+        <v>1243629856800</v>
+      </c>
+      <c r="S30">
+        <v>72097700</v>
+      </c>
+      <c r="T30">
+        <v>78806500</v>
+      </c>
+      <c r="U30">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V30">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W30">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X30">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y30">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z30">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA30">
+        <v>101512.1</v>
+      </c>
+      <c r="AB30">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC30">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-68256714800</v>
       </c>
+      <c r="Q31">
+        <v>1202020602100</v>
+      </c>
+      <c r="R31">
+        <v>1270277316900</v>
+      </c>
+      <c r="S31">
+        <v>74746400</v>
+      </c>
+      <c r="T31">
+        <v>80540600</v>
+      </c>
+      <c r="U31">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V31">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W31">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X31">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y31">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z31">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA31">
+        <v>101512.1</v>
+      </c>
+      <c r="AB31">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC31">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-58753991100</v>
       </c>
+      <c r="Q32">
+        <v>1239893602500</v>
+      </c>
+      <c r="R32">
+        <v>1298647593600</v>
+      </c>
+      <c r="S32">
+        <v>76834700</v>
+      </c>
+      <c r="T32">
+        <v>82012500</v>
+      </c>
+      <c r="U32">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V32">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W32">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X32">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y32">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z32">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA32">
+        <v>101512.1</v>
+      </c>
+      <c r="AB32">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC32">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-51224478100</v>
       </c>
+      <c r="Q33">
+        <v>1267535578700</v>
+      </c>
+      <c r="R33">
+        <v>1318760056800</v>
+      </c>
+      <c r="S33">
+        <v>78179000</v>
+      </c>
+      <c r="T33">
+        <v>83421300</v>
+      </c>
+      <c r="U33">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V33">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W33">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X33">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y33">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z33">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA33">
+        <v>101512.1</v>
+      </c>
+      <c r="AB33">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-48198686900</v>
       </c>
+      <c r="Q34">
+        <v>1299051198900</v>
+      </c>
+      <c r="R34">
+        <v>1347249885800</v>
+      </c>
+      <c r="S34">
+        <v>79769600</v>
+      </c>
+      <c r="T34">
+        <v>85167300</v>
+      </c>
+      <c r="U34">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V34">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W34">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X34">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y34">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z34">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA34">
+        <v>101512.1</v>
+      </c>
+      <c r="AB34">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC34">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-65509066900</v>
       </c>
+      <c r="Q35">
+        <v>1330364064700</v>
+      </c>
+      <c r="R35">
+        <v>1395873131600</v>
+      </c>
+      <c r="S35">
+        <v>81375800</v>
+      </c>
+      <c r="T35">
+        <v>87602300</v>
+      </c>
+      <c r="U35">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V35">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W35">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X35">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y35">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z35">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA35">
+        <v>101512.1</v>
+      </c>
+      <c r="AB35">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC35">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-57712685800</v>
       </c>
+      <c r="Q36">
+        <v>1370347469000</v>
+      </c>
+      <c r="R36">
+        <v>1428060154800</v>
+      </c>
+      <c r="S36">
+        <v>83527000</v>
+      </c>
+      <c r="T36">
+        <v>89457900</v>
+      </c>
+      <c r="U36">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V36">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W36">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X36">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y36">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z36">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA36">
+        <v>101512.1</v>
+      </c>
+      <c r="AB36">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC36">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-48095015900</v>
       </c>
+      <c r="Q37">
+        <v>1412043863000</v>
+      </c>
+      <c r="R37">
+        <v>1460138878900</v>
+      </c>
+      <c r="S37">
+        <v>85563700</v>
+      </c>
+      <c r="T37">
+        <v>91141800</v>
+      </c>
+      <c r="U37">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V37">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W37">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X37">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y37">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z37">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA37">
+        <v>101512.1</v>
+      </c>
+      <c r="AB37">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC37">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-48262506500</v>
       </c>
+      <c r="Q38">
+        <v>1439653415600</v>
+      </c>
+      <c r="R38">
+        <v>1487915922100</v>
+      </c>
+      <c r="S38">
+        <v>87154900</v>
+      </c>
+      <c r="T38">
+        <v>92886400</v>
+      </c>
+      <c r="U38">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V38">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W38">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X38">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y38">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z38">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA38">
+        <v>101512.1</v>
+      </c>
+      <c r="AB38">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-59582623800</v>
       </c>
+      <c r="Q39">
+        <v>1460565207300</v>
+      </c>
+      <c r="R39">
+        <v>1520147831100</v>
+      </c>
+      <c r="S39">
+        <v>88167300</v>
+      </c>
+      <c r="T39">
+        <v>94937900</v>
+      </c>
+      <c r="U39">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V39">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W39">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X39">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y39">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z39">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA39">
+        <v>101512.1</v>
+      </c>
+      <c r="AB39">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC39">
+        <v>3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-93781006000</v>
       </c>
+      <c r="Q40">
+        <v>1475221391500</v>
+      </c>
+      <c r="R40">
+        <v>1569002397500</v>
+      </c>
+      <c r="S40">
+        <v>89011900</v>
+      </c>
+      <c r="T40">
+        <v>97910800</v>
+      </c>
+      <c r="U40">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V40">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W40">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X40">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y40">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z40">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA40">
+        <v>101512.1</v>
+      </c>
+      <c r="AB40">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC40">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-126200083400</v>
       </c>
+      <c r="Q41">
+        <v>1488249505000</v>
+      </c>
+      <c r="R41">
+        <v>1614449588400</v>
+      </c>
+      <c r="S41">
+        <v>89792400</v>
+      </c>
+      <c r="T41">
+        <v>100625300</v>
+      </c>
+      <c r="U41">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V41">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W41">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X41">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y41">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z41">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA41">
+        <v>101512.1</v>
+      </c>
+      <c r="AB41">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC41">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-170001287800</v>
       </c>
+      <c r="Q42">
+        <v>1501421465800</v>
+      </c>
+      <c r="R42">
+        <v>1671422753600</v>
+      </c>
+      <c r="S42">
+        <v>90657900</v>
+      </c>
+      <c r="T42">
+        <v>104339800</v>
+      </c>
+      <c r="U42">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V42">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W42">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X42">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y42">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z42">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA42">
+        <v>101512.1</v>
+      </c>
+      <c r="AB42">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC42">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-225144020200</v>
       </c>
+      <c r="Q43">
+        <v>1517826773900</v>
+      </c>
+      <c r="R43">
+        <v>1742970794100</v>
+      </c>
+      <c r="S43">
+        <v>91719500</v>
+      </c>
+      <c r="T43">
+        <v>108577300</v>
+      </c>
+      <c r="U43">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V43">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W43">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X43">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y43">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z43">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA43">
+        <v>101512.1</v>
+      </c>
+      <c r="AB43">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC43">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-287291009700</v>
       </c>
+      <c r="Q44">
+        <v>1534414116800</v>
+      </c>
+      <c r="R44">
+        <v>1821705126500</v>
+      </c>
+      <c r="S44">
+        <v>92544900</v>
+      </c>
+      <c r="T44">
+        <v>113492400</v>
+      </c>
+      <c r="U44">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V44">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W44">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X44">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y44">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z44">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA44">
+        <v>101512.1</v>
+      </c>
+      <c r="AB44">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC44">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-355614291700</v>
       </c>
+      <c r="Q45">
+        <v>1550636979100</v>
+      </c>
+      <c r="R45">
+        <v>1906251270800</v>
+      </c>
+      <c r="S45">
+        <v>93503500</v>
+      </c>
+      <c r="T45">
+        <v>118475100</v>
+      </c>
+      <c r="U45">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V45">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W45">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X45">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y45">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z45">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA45">
+        <v>101512.1</v>
+      </c>
+      <c r="AB45">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC45">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-400779176400</v>
       </c>
+      <c r="Q46">
+        <v>1567151417700</v>
+      </c>
+      <c r="R46">
+        <v>1967930594100</v>
+      </c>
+      <c r="S46">
+        <v>94544700</v>
+      </c>
+      <c r="T46">
+        <v>121957600</v>
+      </c>
+      <c r="U46">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V46">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W46">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X46">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y46">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z46">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA46">
+        <v>101512.1</v>
+      </c>
+      <c r="AB46">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC46">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-415521618000</v>
       </c>
+      <c r="Q47">
+        <v>1592687599500</v>
+      </c>
+      <c r="R47">
+        <v>2008209217500</v>
+      </c>
+      <c r="S47">
+        <v>96018500</v>
+      </c>
+      <c r="T47">
+        <v>124516900</v>
+      </c>
+      <c r="U47">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V47">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W47">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X47">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y47">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z47">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA47">
+        <v>101512.1</v>
+      </c>
+      <c r="AB47">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC47">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-408906024600</v>
       </c>
+      <c r="Q48">
+        <v>1623424747700</v>
+      </c>
+      <c r="R48">
+        <v>2032330772300</v>
+      </c>
+      <c r="S48">
+        <v>97872500</v>
+      </c>
+      <c r="T48">
+        <v>126586400</v>
+      </c>
+      <c r="U48">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V48">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W48">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X48">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y48">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z48">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA48">
+        <v>101512.1</v>
+      </c>
+      <c r="AB48">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC48">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-405374699900</v>
       </c>
+      <c r="Q49">
+        <v>1660146544400</v>
+      </c>
+      <c r="R49">
+        <v>2065521244300</v>
+      </c>
+      <c r="S49">
+        <v>100286800</v>
+      </c>
+      <c r="T49">
+        <v>128640500</v>
+      </c>
+      <c r="U49">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V49">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W49">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X49">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y49">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z49">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA49">
+        <v>101512.1</v>
+      </c>
+      <c r="AB49">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC49">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-380142792100</v>
       </c>
+      <c r="Q50">
+        <v>1702250321100</v>
+      </c>
+      <c r="R50">
+        <v>2082393113200</v>
+      </c>
+      <c r="S50">
+        <v>102775900</v>
+      </c>
+      <c r="T50">
+        <v>129756100</v>
+      </c>
+      <c r="U50">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V50">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W50">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X50">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y50">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z50">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA50">
+        <v>101512.1</v>
+      </c>
+      <c r="AB50">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC50">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-364233061700</v>
       </c>
+      <c r="Q51">
+        <v>1730510573400</v>
+      </c>
+      <c r="R51">
+        <v>2094743635100</v>
+      </c>
+      <c r="S51">
+        <v>104181100</v>
+      </c>
+      <c r="T51">
+        <v>130561300</v>
+      </c>
+      <c r="U51">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V51">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W51">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X51">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y51">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z51">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA51">
+        <v>101512.1</v>
+      </c>
+      <c r="AB51">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC51">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-359532839900</v>
       </c>
+      <c r="Q52">
+        <v>1751194157200</v>
+      </c>
+      <c r="R52">
+        <v>2110726997100</v>
+      </c>
+      <c r="S52">
+        <v>105491800</v>
+      </c>
+      <c r="T52">
+        <v>131634700</v>
+      </c>
+      <c r="U52">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V52">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W52">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X52">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y52">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z52">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA52">
+        <v>101512.1</v>
+      </c>
+      <c r="AB52">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC52">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-358322993200</v>
       </c>
+      <c r="Q53">
+        <v>1770733055800</v>
+      </c>
+      <c r="R53">
+        <v>2129056049000</v>
+      </c>
+      <c r="S53">
+        <v>106798800</v>
+      </c>
+      <c r="T53">
+        <v>132698500</v>
+      </c>
+      <c r="U53">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V53">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W53">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X53">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y53">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z53">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA53">
+        <v>101512.1</v>
+      </c>
+      <c r="AB53">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC53">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-361663155200</v>
       </c>
+      <c r="Q54">
+        <v>1789637060700</v>
+      </c>
+      <c r="R54">
+        <v>2151300215900</v>
+      </c>
+      <c r="S54">
+        <v>107812900</v>
+      </c>
+      <c r="T54">
+        <v>133874600</v>
+      </c>
+      <c r="U54">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V54">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W54">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X54">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y54">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z54">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA54">
+        <v>101512.1</v>
+      </c>
+      <c r="AB54">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC54">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-367516658600</v>
       </c>
+      <c r="Q55">
+        <v>1809094131300</v>
+      </c>
+      <c r="R55">
+        <v>2176610789900</v>
+      </c>
+      <c r="S55">
+        <v>108768300</v>
+      </c>
+      <c r="T55">
+        <v>135590000</v>
+      </c>
+      <c r="U55">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V55">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W55">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X55">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y55">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z55">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA55">
+        <v>101512.1</v>
+      </c>
+      <c r="AB55">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC55">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-372535217300</v>
       </c>
+      <c r="Q56">
+        <v>1834791946700</v>
+      </c>
+      <c r="R56">
+        <v>2207327164000</v>
+      </c>
+      <c r="S56">
+        <v>109926100</v>
+      </c>
+      <c r="T56">
+        <v>137653600</v>
+      </c>
+      <c r="U56">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V56">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W56">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X56">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y56">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z56">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA56">
+        <v>101512.1</v>
+      </c>
+      <c r="AB56">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC56">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-377262819200</v>
       </c>
+      <c r="Q57">
+        <v>1859843198700</v>
+      </c>
+      <c r="R57">
+        <v>2237106017900</v>
+      </c>
+      <c r="S57">
+        <v>111422100</v>
+      </c>
+      <c r="T57">
+        <v>139330300</v>
+      </c>
+      <c r="U57">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V57">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W57">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X57">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y57">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z57">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA57">
+        <v>101512.1</v>
+      </c>
+      <c r="AB57">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC57">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-383285182000</v>
       </c>
+      <c r="Q58">
+        <v>1881013433400</v>
+      </c>
+      <c r="R58">
+        <v>2264298615400</v>
+      </c>
+      <c r="S58">
+        <v>112943900</v>
+      </c>
+      <c r="T58">
+        <v>141235500</v>
+      </c>
+      <c r="U58">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V58">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W58">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X58">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y58">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z58">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA58">
+        <v>101512.1</v>
+      </c>
+      <c r="AB58">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC58">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-397917101500</v>
       </c>
+      <c r="Q59">
+        <v>1900555001000</v>
+      </c>
+      <c r="R59">
+        <v>2298472102500</v>
+      </c>
+      <c r="S59">
+        <v>114153700</v>
+      </c>
+      <c r="T59">
+        <v>143565900</v>
+      </c>
+      <c r="U59">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V59">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W59">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X59">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y59">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z59">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA59">
+        <v>101512.1</v>
+      </c>
+      <c r="AB59">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC59">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-420303218400</v>
       </c>
+      <c r="Q60">
+        <v>1920525036100</v>
+      </c>
+      <c r="R60">
+        <v>2340828254500</v>
+      </c>
+      <c r="S60">
+        <v>114965600</v>
+      </c>
+      <c r="T60">
+        <v>146127900</v>
+      </c>
+      <c r="U60">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V60">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W60">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X60">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y60">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z60">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA60">
+        <v>101512.1</v>
+      </c>
+      <c r="AB60">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC60">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-451994705500</v>
       </c>
+      <c r="Q61">
+        <v>1934923967800</v>
+      </c>
+      <c r="R61">
+        <v>2386918673300</v>
+      </c>
+      <c r="S61">
+        <v>115681400</v>
+      </c>
+      <c r="T61">
+        <v>149195100</v>
+      </c>
+      <c r="U61">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V61">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W61">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X61">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y61">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z61">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA61">
+        <v>101512.1</v>
+      </c>
+      <c r="AB61">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC61">
+        <v>8.3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-472081810600</v>
       </c>
+      <c r="Q62">
+        <v>1949927074500</v>
+      </c>
+      <c r="R62">
+        <v>2422008885100</v>
+      </c>
+      <c r="S62">
+        <v>116588000</v>
+      </c>
+      <c r="T62">
+        <v>151533400</v>
+      </c>
+      <c r="U62">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V62">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W62">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X62">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y62">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z62">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA62">
+        <v>101512.1</v>
+      </c>
+      <c r="AB62">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC62">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-506851918800</v>
       </c>
+      <c r="Q63">
+        <v>1967477337700</v>
+      </c>
+      <c r="R63">
+        <v>2474329256500</v>
+      </c>
+      <c r="S63">
+        <v>117694700</v>
+      </c>
+      <c r="T63">
+        <v>155153600</v>
+      </c>
+      <c r="U63">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V63">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W63">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X63">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y63">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z63">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA63">
+        <v>101512.1</v>
+      </c>
+      <c r="AB63">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC63">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-526467269300</v>
       </c>
+      <c r="Q64">
+        <v>1984696709700</v>
+      </c>
+      <c r="R64">
+        <v>2511163979000</v>
+      </c>
+      <c r="S64">
+        <v>118765500</v>
+      </c>
+      <c r="T64">
+        <v>157741700</v>
+      </c>
+      <c r="U64">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V64">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W64">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X64">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y64">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z64">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA64">
+        <v>101512.1</v>
+      </c>
+      <c r="AB64">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC64">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-543041178200</v>
       </c>
+      <c r="Q65">
+        <v>2001144857500</v>
+      </c>
+      <c r="R65">
+        <v>2544186035700</v>
+      </c>
+      <c r="S65">
+        <v>119787500</v>
+      </c>
+      <c r="T65">
+        <v>159906400</v>
+      </c>
+      <c r="U65">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V65">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W65">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X65">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y65">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z65">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA65">
+        <v>101512.1</v>
+      </c>
+      <c r="AB65">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC65">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-551935699300</v>
       </c>
+      <c r="Q66">
+        <v>2021287045500</v>
+      </c>
+      <c r="R66">
+        <v>2573222744800</v>
+      </c>
+      <c r="S66">
+        <v>120972200</v>
+      </c>
+      <c r="T66">
+        <v>161920000</v>
+      </c>
+      <c r="U66">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V66">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W66">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X66">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y66">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z66">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA66">
+        <v>101512.1</v>
+      </c>
+      <c r="AB66">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC66">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-562989030600</v>
       </c>
+      <c r="Q67">
+        <v>2039875101000</v>
+      </c>
+      <c r="R67">
+        <v>2602864131600</v>
+      </c>
+      <c r="S67">
+        <v>122173600</v>
+      </c>
+      <c r="T67">
+        <v>163783100</v>
+      </c>
+      <c r="U67">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V67">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W67">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X67">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y67">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z67">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA67">
+        <v>101512.1</v>
+      </c>
+      <c r="AB67">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC67">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-568958291700</v>
       </c>
+      <c r="Q68">
+        <v>2057408422200</v>
+      </c>
+      <c r="R68">
+        <v>2626366713900</v>
+      </c>
+      <c r="S68">
+        <v>123185400</v>
+      </c>
+      <c r="T68">
+        <v>165276200</v>
+      </c>
+      <c r="U68">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V68">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W68">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X68">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y68">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z68">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA68">
+        <v>101512.1</v>
+      </c>
+      <c r="AB68">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC68">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-598891505300</v>
       </c>
+      <c r="Q69">
+        <v>2076993654700</v>
+      </c>
+      <c r="R69">
+        <v>2675885160000</v>
+      </c>
+      <c r="S69">
+        <v>124180500</v>
+      </c>
+      <c r="T69">
+        <v>168667000</v>
+      </c>
+      <c r="U69">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V69">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W69">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X69">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y69">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z69">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA69">
+        <v>101512.1</v>
+      </c>
+      <c r="AB69">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC69">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-600180233300</v>
       </c>
+      <c r="Q70">
+        <v>2077080794700</v>
+      </c>
+      <c r="R70">
+        <v>2677261028000</v>
+      </c>
+      <c r="S70">
+        <v>124185100</v>
+      </c>
+      <c r="T70">
+        <v>168723000</v>
+      </c>
+      <c r="U70">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V70">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W70">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X70">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y70">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z70">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA70">
+        <v>101512.1</v>
+      </c>
+      <c r="AB70">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC70">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-667451701000</v>
       </c>
+      <c r="Q71">
+        <v>2143850774500</v>
+      </c>
+      <c r="R71">
+        <v>2811302475500</v>
+      </c>
+      <c r="S71">
+        <v>128224600</v>
+      </c>
+      <c r="T71">
+        <v>178002300</v>
+      </c>
+      <c r="U71">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V71">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W71">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X71">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y71">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z71">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA71">
+        <v>101512.1</v>
+      </c>
+      <c r="AB71">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC71">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-720807012300</v>
       </c>
+      <c r="Q72">
+        <v>2169750922100</v>
+      </c>
+      <c r="R72">
+        <v>2890557934400</v>
+      </c>
+      <c r="S72">
+        <v>129756600</v>
+      </c>
+      <c r="T72">
+        <v>183324600</v>
+      </c>
+      <c r="U72">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V72">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W72">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X72">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y72">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z72">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA72">
+        <v>101512.1</v>
+      </c>
+      <c r="AB72">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC72">
+        <v>14</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-715576123900</v>
       </c>
+      <c r="Q73">
+        <v>2241496552900</v>
+      </c>
+      <c r="R73">
+        <v>2957072676800</v>
+      </c>
+      <c r="S73">
+        <v>133411600</v>
+      </c>
+      <c r="T73">
+        <v>187653400</v>
+      </c>
+      <c r="U73">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V73">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W73">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X73">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y73">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z73">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA73">
+        <v>101512.1</v>
+      </c>
+      <c r="AB73">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC73">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-713157759800</v>
       </c>
+      <c r="Q74">
+        <v>2288145181100</v>
+      </c>
+      <c r="R74">
+        <v>3001302940900</v>
+      </c>
+      <c r="S74">
+        <v>136391500</v>
+      </c>
+      <c r="T74">
+        <v>190085800</v>
+      </c>
+      <c r="U74">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V74">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W74">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X74">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y74">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z74">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA74">
+        <v>101512.1</v>
+      </c>
+      <c r="AB74">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC74">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-703793526400</v>
       </c>
+      <c r="Q75">
+        <v>2334193520300</v>
+      </c>
+      <c r="R75">
+        <v>3037987046700</v>
+      </c>
+      <c r="S75">
+        <v>139351100</v>
+      </c>
+      <c r="T75">
+        <v>192516400</v>
+      </c>
+      <c r="U75">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V75">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W75">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X75">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y75">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z75">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA75">
+        <v>101512.1</v>
+      </c>
+      <c r="AB75">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC75">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-709489665000</v>
       </c>
+      <c r="Q76">
+        <v>2372040166100</v>
+      </c>
+      <c r="R76">
+        <v>3081529831100</v>
+      </c>
+      <c r="S76">
+        <v>141874600</v>
+      </c>
+      <c r="T76">
+        <v>195238100</v>
+      </c>
+      <c r="U76">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V76">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W76">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X76">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y76">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z76">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA76">
+        <v>101512.1</v>
+      </c>
+      <c r="AB76">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC76">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-695656611300</v>
       </c>
+      <c r="Q77">
+        <v>2414375641000</v>
+      </c>
+      <c r="R77">
+        <v>3110032252300</v>
+      </c>
+      <c r="S77">
+        <v>144307400</v>
+      </c>
+      <c r="T77">
+        <v>197066800</v>
+      </c>
+      <c r="U77">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V77">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W77">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X77">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y77">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z77">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA77">
+        <v>101512.1</v>
+      </c>
+      <c r="AB77">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC77">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-682164678800</v>
       </c>
+      <c r="Q78">
+        <v>2457227202100</v>
+      </c>
+      <c r="R78">
+        <v>3139391880900</v>
+      </c>
+      <c r="S78">
+        <v>147199600</v>
+      </c>
+      <c r="T78">
+        <v>198937100</v>
+      </c>
+      <c r="U78">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V78">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W78">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X78">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y78">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z78">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA78">
+        <v>101512.1</v>
+      </c>
+      <c r="AB78">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC78">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-659663570800</v>
       </c>
+      <c r="Q79">
+        <v>2519218584400</v>
+      </c>
+      <c r="R79">
+        <v>3178882155200</v>
+      </c>
+      <c r="S79">
+        <v>151205100</v>
+      </c>
+      <c r="T79">
+        <v>201769200</v>
+      </c>
+      <c r="U79">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V79">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W79">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X79">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y79">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z79">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA79">
+        <v>101512.1</v>
+      </c>
+      <c r="AB79">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC79">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-609163404600</v>
       </c>
+      <c r="Q80">
+        <v>2589639671500</v>
+      </c>
+      <c r="R80">
+        <v>3198803076100</v>
+      </c>
+      <c r="S80">
+        <v>155455400</v>
+      </c>
+      <c r="T80">
+        <v>203156000</v>
+      </c>
+      <c r="U80">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V80">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W80">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X80">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y80">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z80">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA80">
+        <v>101512.1</v>
+      </c>
+      <c r="AB80">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC80">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-549156714800</v>
       </c>
+      <c r="Q81">
+        <v>2672689948700</v>
+      </c>
+      <c r="R81">
+        <v>3221846663500</v>
+      </c>
+      <c r="S81">
+        <v>160334400</v>
+      </c>
+      <c r="T81">
+        <v>204591100</v>
+      </c>
+      <c r="U81">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V81">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W81">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X81">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y81">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z81">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA81">
+        <v>101512.1</v>
+      </c>
+      <c r="AB81">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC81">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-511573730900</v>
       </c>
+      <c r="Q82">
+        <v>2751225863200</v>
+      </c>
+      <c r="R82">
+        <v>3262799594100</v>
+      </c>
+      <c r="S82">
+        <v>164954200</v>
+      </c>
+      <c r="T82">
+        <v>206980100</v>
+      </c>
+      <c r="U82">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V82">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W82">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X82">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y82">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z82">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA82">
+        <v>101512.1</v>
+      </c>
+      <c r="AB82">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC82">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-497941702700</v>
       </c>
+      <c r="Q83">
+        <v>2812507689800</v>
+      </c>
+      <c r="R83">
+        <v>3310449392500</v>
+      </c>
+      <c r="S83">
+        <v>168270300</v>
+      </c>
+      <c r="T83">
+        <v>209430000</v>
+      </c>
+      <c r="U83">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V83">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W83">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X83">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y83">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z83">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA83">
+        <v>101512.1</v>
+      </c>
+      <c r="AB83">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC83">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-492444091900</v>
       </c>
+      <c r="Q84">
+        <v>2858440517800</v>
+      </c>
+      <c r="R84">
+        <v>3350884609700</v>
+      </c>
+      <c r="S84">
+        <v>170857700</v>
+      </c>
+      <c r="T84">
+        <v>211723700</v>
+      </c>
+      <c r="U84">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V84">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W84">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X84">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y84">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z84">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA84">
+        <v>101512.1</v>
+      </c>
+      <c r="AB84">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC84">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-493579015500</v>
       </c>
+      <c r="Q85">
+        <v>2896022554000</v>
+      </c>
+      <c r="R85">
+        <v>3389601569500</v>
+      </c>
+      <c r="S85">
+        <v>173000400</v>
+      </c>
+      <c r="T85">
+        <v>213833200</v>
+      </c>
+      <c r="U85">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V85">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W85">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X85">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y85">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z85">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA85">
+        <v>101512.1</v>
+      </c>
+      <c r="AB85">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC85">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-489236398800</v>
       </c>
+      <c r="Q86">
+        <v>2930058487500</v>
+      </c>
+      <c r="R86">
+        <v>3419294886300</v>
+      </c>
+      <c r="S86">
+        <v>175237700</v>
+      </c>
+      <c r="T86">
+        <v>215620400</v>
+      </c>
+      <c r="U86">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V86">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W86">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X86">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y86">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z86">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA86">
+        <v>101512.1</v>
+      </c>
+      <c r="AB86">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC86">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-460594582800</v>
       </c>
+      <c r="Q87">
+        <v>3000694143500</v>
+      </c>
+      <c r="R87">
+        <v>3461288726300</v>
+      </c>
+      <c r="S87">
+        <v>179576800</v>
+      </c>
+      <c r="T87">
+        <v>217986000</v>
+      </c>
+      <c r="U87">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V87">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W87">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X87">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y87">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z87">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA87">
+        <v>101512.1</v>
+      </c>
+      <c r="AB87">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC87">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-436040843500</v>
       </c>
+      <c r="Q88">
+        <v>3062791467600</v>
+      </c>
+      <c r="R88">
+        <v>3498832311100</v>
+      </c>
+      <c r="S88">
+        <v>183244900</v>
+      </c>
+      <c r="T88">
+        <v>220193300</v>
+      </c>
+      <c r="U88">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V88">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W88">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X88">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y88">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z88">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA88">
+        <v>101512.1</v>
+      </c>
+      <c r="AB88">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC88">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-424981370400</v>
       </c>
+      <c r="Q89">
+        <v>3113036932600</v>
+      </c>
+      <c r="R89">
+        <v>3538018303000</v>
+      </c>
+      <c r="S89">
+        <v>186010600</v>
+      </c>
+      <c r="T89">
+        <v>222360800</v>
+      </c>
+      <c r="U89">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V89">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W89">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X89">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y89">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z89">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA89">
+        <v>101512.1</v>
+      </c>
+      <c r="AB89">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC89">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-400005408900</v>
       </c>
+      <c r="Q90">
+        <v>3160290575400</v>
+      </c>
+      <c r="R90">
+        <v>3560295984300</v>
+      </c>
+      <c r="S90">
+        <v>188955200</v>
+      </c>
+      <c r="T90">
+        <v>223742100</v>
+      </c>
+      <c r="U90">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V90">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W90">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X90">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y90">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z90">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA90">
+        <v>101512.1</v>
+      </c>
+      <c r="AB90">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC90">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-411289468200</v>
       </c>
+      <c r="Q91">
+        <v>3196318172300</v>
+      </c>
+      <c r="R91">
+        <v>3607607640500</v>
+      </c>
+      <c r="S91">
+        <v>191029700</v>
+      </c>
+      <c r="T91">
+        <v>226014400</v>
+      </c>
+      <c r="U91">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V91">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W91">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X91">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y91">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z91">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA91">
+        <v>101512.1</v>
+      </c>
+      <c r="AB91">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC91">
+        <v>3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-443023090200</v>
       </c>
+      <c r="Q92">
+        <v>3224856020400</v>
+      </c>
+      <c r="R92">
+        <v>3667879110600</v>
+      </c>
+      <c r="S92">
+        <v>193004300</v>
+      </c>
+      <c r="T92">
+        <v>229701400</v>
+      </c>
+      <c r="U92">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V92">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W92">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X92">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y92">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z92">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA92">
+        <v>101512.1</v>
+      </c>
+      <c r="AB92">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC92">
+        <v>8.3</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-456807754000</v>
       </c>
+      <c r="Q93">
+        <v>3248958764600</v>
+      </c>
+      <c r="R93">
+        <v>3705766518600</v>
+      </c>
+      <c r="S93">
+        <v>195273400</v>
+      </c>
+      <c r="T93">
+        <v>232323600</v>
+      </c>
+      <c r="U93">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V93">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W93">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X93">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y93">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z93">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA93">
+        <v>101512.1</v>
+      </c>
+      <c r="AB93">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC93">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-395613952600</v>
       </c>
+      <c r="Q94">
+        <v>3332915030900</v>
+      </c>
+      <c r="R94">
+        <v>3728528983500</v>
+      </c>
+      <c r="S94">
+        <v>199468000</v>
+      </c>
+      <c r="T94">
+        <v>233922900</v>
+      </c>
+      <c r="U94">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V94">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W94">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X94">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y94">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z94">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA94">
+        <v>101512.1</v>
+      </c>
+      <c r="AB94">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC94">
+        <v>16</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-313679056900</v>
       </c>
+      <c r="Q95">
+        <v>3443241031600</v>
+      </c>
+      <c r="R95">
+        <v>3756920088500</v>
+      </c>
+      <c r="S95">
+        <v>205615000</v>
+      </c>
+      <c r="T95">
+        <v>235688500</v>
+      </c>
+      <c r="U95">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V95">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W95">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X95">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y95">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z95">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA95">
+        <v>101512.1</v>
+      </c>
+      <c r="AB95">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC95">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-183405976500</v>
       </c>
+      <c r="Q96">
+        <v>3601489502600</v>
+      </c>
+      <c r="R96">
+        <v>3784895479100</v>
+      </c>
+      <c r="S96">
+        <v>214454300</v>
+      </c>
+      <c r="T96">
+        <v>237243000</v>
+      </c>
+      <c r="U96">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V96">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W96">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X96">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y96">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z96">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA96">
+        <v>101512.1</v>
+      </c>
+      <c r="AB96">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC96">
+        <v>34.1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-92845182500</v>
       </c>
+      <c r="Q97">
+        <v>3742882004200</v>
+      </c>
+      <c r="R97">
+        <v>3835727186700</v>
+      </c>
+      <c r="S97">
+        <v>224374400</v>
+      </c>
+      <c r="T97">
+        <v>240085600</v>
+      </c>
+      <c r="U97">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V97">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W97">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X97">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y97">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z97">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA97">
+        <v>101512.1</v>
+      </c>
+      <c r="AB97">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC97">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-109440462300</v>
       </c>
+      <c r="Q98">
+        <v>3795685725000</v>
+      </c>
+      <c r="R98">
+        <v>3905126187300</v>
+      </c>
+      <c r="S98">
+        <v>227407300</v>
+      </c>
+      <c r="T98">
+        <v>244403900</v>
+      </c>
+      <c r="U98">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V98">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W98">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X98">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y98">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z98">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA98">
+        <v>101512.1</v>
+      </c>
+      <c r="AB98">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC98">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-136852617700</v>
       </c>
+      <c r="Q99">
+        <v>3825761748500</v>
+      </c>
+      <c r="R99">
+        <v>3962614366200</v>
+      </c>
+      <c r="S99">
+        <v>229467700</v>
+      </c>
+      <c r="T99">
+        <v>247860500</v>
+      </c>
+      <c r="U99">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V99">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W99">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X99">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y99">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z99">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA99">
+        <v>101512.1</v>
+      </c>
+      <c r="AB99">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC99">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-174725329000</v>
       </c>
+      <c r="Q100">
+        <v>3853807638000</v>
+      </c>
+      <c r="R100">
+        <v>4028532967000</v>
+      </c>
+      <c r="S100">
+        <v>231062500</v>
+      </c>
+      <c r="T100">
+        <v>251667600</v>
+      </c>
+      <c r="U100">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V100">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W100">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X100">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y100">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z100">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA100">
+        <v>101512.1</v>
+      </c>
+      <c r="AB100">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC100">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-202317531700</v>
       </c>
+      <c r="Q101">
+        <v>3878241389000</v>
+      </c>
+      <c r="R101">
+        <v>4080558920700</v>
+      </c>
+      <c r="S101">
+        <v>232322100</v>
+      </c>
+      <c r="T101">
+        <v>254823800</v>
+      </c>
+      <c r="U101">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V101">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W101">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X101">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y101">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z101">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA101">
+        <v>101512.1</v>
+      </c>
+      <c r="AB101">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC101">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-160974582900</v>
       </c>
+      <c r="Q102">
+        <v>3947593856400</v>
+      </c>
+      <c r="R102">
+        <v>4108568439300</v>
+      </c>
+      <c r="S102">
+        <v>235910300</v>
+      </c>
+      <c r="T102">
+        <v>256619900</v>
+      </c>
+      <c r="U102">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V102">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W102">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X102">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y102">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z102">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA102">
+        <v>101512.1</v>
+      </c>
+      <c r="AB102">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC102">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-131956520900</v>
       </c>
+      <c r="Q103">
+        <v>3996537317800</v>
+      </c>
+      <c r="R103">
+        <v>4128493838700</v>
+      </c>
+      <c r="S103">
+        <v>238465600</v>
+      </c>
+      <c r="T103">
+        <v>257626300</v>
+      </c>
+      <c r="U103">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V103">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W103">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X103">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y103">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z103">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA103">
+        <v>101512.1</v>
+      </c>
+      <c r="AB103">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC103">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-164690603600</v>
       </c>
+      <c r="Q104">
+        <v>4033373101400</v>
+      </c>
+      <c r="R104">
+        <v>4198063705000</v>
+      </c>
+      <c r="S104">
+        <v>240612300</v>
+      </c>
+      <c r="T104">
+        <v>260901900</v>
+      </c>
+      <c r="U104">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V104">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W104">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X104">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y104">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z104">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA104">
+        <v>101512.1</v>
+      </c>
+      <c r="AB104">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC104">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-178047248700</v>
       </c>
+      <c r="Q105">
+        <v>4060628393400</v>
+      </c>
+      <c r="R105">
+        <v>4238675642100</v>
+      </c>
+      <c r="S105">
+        <v>241882900</v>
+      </c>
+      <c r="T105">
+        <v>263503200</v>
+      </c>
+      <c r="U105">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V105">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W105">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X105">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y105">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z105">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA105">
+        <v>101512.1</v>
+      </c>
+      <c r="AB105">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC105">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-172177191600</v>
       </c>
+      <c r="Q106">
+        <v>4096553098500</v>
+      </c>
+      <c r="R106">
+        <v>4268730290100</v>
+      </c>
+      <c r="S106">
+        <v>243899900</v>
+      </c>
+      <c r="T106">
+        <v>265708700</v>
+      </c>
+      <c r="U106">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V106">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W106">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X106">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y106">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z106">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA106">
+        <v>101512.1</v>
+      </c>
+      <c r="AB106">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC106">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-192941145400</v>
       </c>
+      <c r="Q107">
+        <v>4136906241800</v>
+      </c>
+      <c r="R107">
+        <v>4329847387200</v>
+      </c>
+      <c r="S107">
+        <v>246205000</v>
+      </c>
+      <c r="T107">
+        <v>268801600</v>
+      </c>
+      <c r="U107">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V107">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W107">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X107">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y107">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z107">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA107">
+        <v>101512.1</v>
+      </c>
+      <c r="AB107">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC107">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-172866171000</v>
       </c>
+      <c r="Q108">
+        <v>4192001958200</v>
+      </c>
+      <c r="R108">
+        <v>4364868129200</v>
+      </c>
+      <c r="S108">
+        <v>248777400</v>
+      </c>
+      <c r="T108">
+        <v>270991500</v>
+      </c>
+      <c r="U108">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V108">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W108">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X108">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y108">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z108">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA108">
+        <v>101512.1</v>
+      </c>
+      <c r="AB108">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC108">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-119009081400</v>
       </c>
+      <c r="Q109">
+        <v>4278898950100</v>
+      </c>
+      <c r="R109">
+        <v>4397908031500</v>
+      </c>
+      <c r="S109">
+        <v>252671900</v>
+      </c>
+      <c r="T109">
+        <v>272861500</v>
+      </c>
+      <c r="U109">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V109">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W109">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X109">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y109">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z109">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA109">
+        <v>101512.1</v>
+      </c>
+      <c r="AB109">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC109">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-70535361200</v>
       </c>
+      <c r="Q110">
+        <v>4355992872400</v>
+      </c>
+      <c r="R110">
+        <v>4426528233600</v>
+      </c>
+      <c r="S110">
+        <v>255832300</v>
+      </c>
+      <c r="T110">
+        <v>274534700</v>
+      </c>
+      <c r="U110">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V110">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W110">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X110">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y110">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z110">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA110">
+        <v>101512.1</v>
+      </c>
+      <c r="AB110">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC110">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-352159600</v>
       </c>
+      <c r="Q111">
+        <v>4455723062800</v>
+      </c>
+      <c r="R111">
+        <v>4456075222400</v>
+      </c>
+      <c r="S111">
+        <v>260730600</v>
+      </c>
+      <c r="T111">
+        <v>276087300</v>
+      </c>
+      <c r="U111">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V111">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W111">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X111">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y111">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z111">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA111">
+        <v>101512.1</v>
+      </c>
+      <c r="AB111">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC111">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>88267526800</v>
       </c>
+      <c r="Q112">
+        <v>4588182512100</v>
+      </c>
+      <c r="R112">
+        <v>4499914985300</v>
+      </c>
+      <c r="S112">
+        <v>267589300</v>
+      </c>
+      <c r="T112">
+        <v>278497700</v>
+      </c>
+      <c r="U112">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V112">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W112">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X112">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y112">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z112">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA112">
+        <v>101512.1</v>
+      </c>
+      <c r="AB112">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC112">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>209950180900</v>
       </c>
+      <c r="Q113">
+        <v>4762037919000</v>
+      </c>
+      <c r="R113">
+        <v>4552087738100</v>
+      </c>
+      <c r="S113">
+        <v>278325000</v>
+      </c>
+      <c r="T113">
+        <v>281187100</v>
+      </c>
+      <c r="U113">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V113">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W113">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X113">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y113">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z113">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA113">
+        <v>101512.1</v>
+      </c>
+      <c r="AB113">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC113">
+        <v>31.9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>336118962300</v>
       </c>
+      <c r="Q114">
+        <v>4932724570500</v>
+      </c>
+      <c r="R114">
+        <v>4596605608200</v>
+      </c>
+      <c r="S114">
+        <v>287727700</v>
+      </c>
+      <c r="T114">
+        <v>283784300</v>
+      </c>
+      <c r="U114">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V114">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W114">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X114">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y114">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z114">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA114">
+        <v>101512.1</v>
+      </c>
+      <c r="AB114">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC114">
+        <v>33</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>400552183400</v>
       </c>
+      <c r="Q115">
+        <v>5049422615700</v>
+      </c>
+      <c r="R115">
+        <v>4648870432300</v>
+      </c>
+      <c r="S115">
+        <v>295060800</v>
+      </c>
+      <c r="T115">
+        <v>286711000</v>
+      </c>
+      <c r="U115">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V115">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W115">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X115">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y115">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z115">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA115">
+        <v>101512.1</v>
+      </c>
+      <c r="AB115">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC115">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>401488740200</v>
       </c>
+      <c r="Q116">
+        <v>5050465047500</v>
+      </c>
+      <c r="R116">
+        <v>4648976307300</v>
+      </c>
+      <c r="S116">
+        <v>295138300</v>
+      </c>
+      <c r="T116">
+        <v>286721200</v>
+      </c>
+      <c r="U116">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V116">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W116">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X116">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y116">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z116">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA116">
+        <v>101512.1</v>
+      </c>
+      <c r="AB116">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC116">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>442970485000</v>
       </c>
+      <c r="Q117">
+        <v>5142211192100</v>
+      </c>
+      <c r="R117">
+        <v>4699240707100</v>
+      </c>
+      <c r="S117">
+        <v>301214400</v>
+      </c>
+      <c r="T117">
+        <v>289439000</v>
+      </c>
+      <c r="U117">
+        <v>44329406828.4</v>
+      </c>
+      <c r="V117">
+        <v>40510695750.9</v>
+      </c>
+      <c r="W117">
+        <v>90310368914.7</v>
+      </c>
+      <c r="X117">
+        <v>5402247.4</v>
+      </c>
+      <c r="Y117">
+        <v>2596675.9</v>
+      </c>
+      <c r="Z117">
+        <v>2495163.8</v>
+      </c>
+      <c r="AA117">
+        <v>101512.1</v>
+      </c>
+      <c r="AB117">
+        <v>3818711077.6</v>
+      </c>
+      <c r="AC117">
+        <v>10.9</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>